--- a/Resources/Metadata.xlsx
+++ b/Resources/Metadata.xlsx
@@ -1,35 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anthi182\Documents\GitHub\Ro2_data_worflow\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/anthi182_ulaval_ca/Documents/Documents/GitHub/Ro2_data_worflow/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6382FE-130C-4706-8590-2E836291513C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{DD6382FE-130C-4706-8590-2E836291513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD2BF067-E247-4DD5-81E0-6E94993B8C72}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="456" windowWidth="28044" windowHeight="17040" activeTab="4" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge" sheetId="3" r:id="rId1"/>
-    <sheet name="Foret" sheetId="5" r:id="rId2"/>
-    <sheet name="Reservoir" sheetId="4" r:id="rId3"/>
-    <sheet name="Thermistors" sheetId="6" r:id="rId4"/>
-    <sheet name="Natashquan" sheetId="7" r:id="rId5"/>
+    <sheet name="Bernard" sheetId="8" r:id="rId2"/>
+    <sheet name="Foret" sheetId="5" r:id="rId3"/>
+    <sheet name="Reservoir" sheetId="4" r:id="rId4"/>
+    <sheet name="Thermistors" sheetId="6" r:id="rId5"/>
+    <sheet name="Natashquan" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
   <si>
     <t>Instrument</t>
   </si>
@@ -40,9 +50,6 @@
     <t>Irgason</t>
   </si>
   <si>
-    <t>Si-111</t>
-  </si>
-  <si>
     <t>Berge</t>
   </si>
   <si>
@@ -88,9 +95,6 @@
     <t>HFP01SC</t>
   </si>
   <si>
-    <t>TCAV</t>
-  </si>
-  <si>
     <t>Thermistors chain 2</t>
   </si>
   <si>
@@ -113,6 +117,86 @@
   </si>
   <si>
     <t>Lon</t>
+  </si>
+  <si>
+    <t>TCAV_2</t>
+  </si>
+  <si>
+    <t>TCAV_1</t>
+  </si>
+  <si>
+    <t>Height above max water level (m)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Removed the 2022-06-13</t>
+  </si>
+  <si>
+    <t>Height abovewater level (m)</t>
+  </si>
+  <si>
+    <t>Si-131</t>
+  </si>
+  <si>
+    <t>HC2S3</t>
+  </si>
+  <si>
+    <t>Installed 2022-08-16</t>
+  </si>
+  <si>
+    <t>Distance between instruments (sonic as reference)</t>
+  </si>
+  <si>
+    <t>Eastward (cm)</t>
+  </si>
+  <si>
+    <t>Northward (cm)</t>
+  </si>
+  <si>
+    <t>Li-7500 west</t>
+  </si>
+  <si>
+    <t>Li-7700 west</t>
+  </si>
+  <si>
+    <t>Li-7500 east</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>To be verified</t>
+  </si>
+  <si>
+    <t>orientation: 325° geo north</t>
+  </si>
+  <si>
+    <t>orientation: 138° compass = 120° geo north</t>
+  </si>
+  <si>
+    <t>Orientation (geo north): 
+90° (CSAT east), 
+270° (CSAT west)</t>
+  </si>
+  <si>
+    <t>3DM-CV5-25</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Installed 2021-06</t>
+  </si>
+  <si>
+    <t>Distance between instruments (sonic as reference) in cm</t>
   </si>
 </sst>
 </file>
@@ -160,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -408,10 +492,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -421,53 +503,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -479,15 +526,224 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -501,27 +757,79 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,125 +1144,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE44D4E6-1DC8-5846-9613-DEB0E908B686}">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.296875" customWidth="1"/>
-    <col min="7" max="7" width="25.296875" customWidth="1"/>
-    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="17.9140625" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="8">
+        <v>50.653801000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-63.259498600000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="30">
+        <v>7.25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="29">
+        <v>7.25</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>7.4</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="9">
-        <v>50.653801000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6.65</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4">
-        <v>-63.259498600000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="C7" s="30">
+        <v>7.25</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11">
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="29">
+        <v>6.3</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="30">
+        <v>5.2</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="30">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1.3</v>
+      <c r="C12" s="39">
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+    </row>
+    <row r="16" spans="2:7" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="32"/>
+      <c r="C16" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="39">
+        <v>-21.5</v>
+      </c>
+      <c r="D17" s="14">
+        <v>-18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -962,707 +1318,1003 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE59413-D9F3-44A1-88DC-A59245E9D9B8}">
-  <dimension ref="B1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1D1867-B0BA-4CF9-B964-CDDBB5D9DD8C}">
+  <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F6"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="F2" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="22">
+        <v>50.861590999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-63.389947999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="30">
+        <v>4.3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="C7" s="30">
+        <v>4.3</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="40"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="29">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="39">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
-        <v>24</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="9">
-        <v>50.9020996</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="18">
-        <v>24</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4">
-        <v>-63.405101799999997</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="9">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="18">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
+      <c r="D12" s="14"/>
+    </row>
+    <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="32"/>
+      <c r="C16" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="39">
+        <v>-35</v>
+      </c>
+      <c r="D17" s="14">
         <v>15</v>
       </c>
-      <c r="C11" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="18">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="18">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="28">
-        <v>-0.09</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE247F88-6DDE-433E-81AC-06E8044E24FC}">
-  <dimension ref="B1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE59413-D9F3-44A1-88DC-A59245E9D9B8}">
+  <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F6"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="F2" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="56">
+        <v>50.9020996</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-63.405101799999997</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <v>24</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="53">
+        <v>24</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="48">
+        <v>24</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="C8" s="49">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="48">
+        <v>-0.1</v>
+      </c>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="49">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="48">
+        <v>20</v>
+      </c>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="49">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="48">
+        <v>10</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="49">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="48">
         <v>26</v>
       </c>
-      <c r="F4" s="9">
-        <v>50.688999199999998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="49">
+        <v>24</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="48">
+        <v>25</v>
+      </c>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="49">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="48">
+        <v>-0.03</v>
+      </c>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="4">
-        <v>-63.2494011</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13">
-        <v>2</v>
+      <c r="C20" s="50">
+        <v>-0.09</v>
+      </c>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="22" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="32"/>
+      <c r="C24" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="29">
+        <v>12</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="48">
+        <v>22</v>
+      </c>
+      <c r="D26" s="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="39">
+        <v>-12</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE247F88-6DDE-433E-81AC-06E8044E24FC}">
+  <dimension ref="B1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="12.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="8">
+        <v>50.688999199999998</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-63.2494011</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="30">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="39">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="8" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="32"/>
+      <c r="C10" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="39">
+        <v>85</v>
+      </c>
+      <c r="D11" s="39">
+        <v>-10</v>
+      </c>
+      <c r="E11" s="14">
+        <v>-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53111C9A-58C1-40C7-9383-CFE5F1F570E0}">
   <dimension ref="B1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="E2" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="32"/>
-    </row>
-    <row r="3" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="20" t="s">
+    <row r="1" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="E2" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="64"/>
+    </row>
+    <row r="3" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="24">
+      <c r="F3" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="19">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17">
         <v>0.2</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="17">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>21</v>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>0.4</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="19">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17">
         <v>0.6</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="17">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>21</v>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>0.8</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="19">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="E9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>21</v>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>1.4</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>21</v>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>21</v>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>1.8</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F11" s="1">
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>21</v>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F12" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="14">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="13">
         <v>2.6</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="E13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="13">
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>21</v>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="14">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13">
         <v>4</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="14">
+      <c r="E15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>21</v>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>21</v>
+      <c r="E16" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="14">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="13">
         <v>6</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="14">
+      <c r="E17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>21</v>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <v>7</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
+      <c r="E18" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F18" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="14">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="13">
         <v>8</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="14">
+      <c r="E19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>21</v>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <v>9</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>21</v>
+      <c r="E20" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F20" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="14">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="13">
         <v>10</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="14">
+      <c r="E21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>21</v>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>12.5</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>21</v>
+      <c r="E22" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F22" s="1">
         <v>12.5</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="15">
+    <row r="23" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="14">
         <v>15</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="14">
+      <c r="E23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E24" s="7" t="s">
-        <v>21</v>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E24" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F24" s="1">
         <v>17.5</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="E25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="14">
+    <row r="25" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="E25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="9">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8">
         <v>50.689498899999997</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>21</v>
+      <c r="E26" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F26" s="1">
         <v>22.5</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="4">
+    <row r="27" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
         <v>-63.249698600000002</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="14">
+      <c r="E27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E28" s="7" t="s">
-        <v>21</v>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E28" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F28" s="1">
         <v>27.5</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="14">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E30" s="7" t="s">
-        <v>21</v>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E30" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F30" s="1">
         <v>32.5</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="14">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E32" s="7" t="s">
-        <v>21</v>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E32" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F32" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="14">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="13">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="5:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E34" s="16" t="s">
-        <v>22</v>
+    <row r="34" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E34" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="F34" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="5:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="9">
+    <row r="36" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="8">
         <v>50.6753006</v>
       </c>
     </row>
-    <row r="38" spans="5:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="4">
+    <row r="38" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="3">
         <v>-63.2527008</v>
       </c>
     </row>
@@ -1675,61 +2327,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EED9BCF-AC84-402D-B7FA-16D351A40D85}">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+    <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="64"/>
+    </row>
+    <row r="3" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C6" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4">
+    <row r="7" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3">
         <v>1</v>
       </c>
     </row>

--- a/Resources/Metadata.xlsx
+++ b/Resources/Metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/anthi182_ulaval_ca/Documents/Documents/GitHub/Ro2_data_worflow/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{DD6382FE-130C-4706-8590-2E836291513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD2BF067-E247-4DD5-81E0-6E94993B8C72}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{DD6382FE-130C-4706-8590-2E836291513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10CA2BEC-F7CB-4DF4-B53D-DD6942BA1B11}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
   </bookViews>
@@ -1147,7 +1147,7 @@
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1301,10 +1301,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="39">
-        <v>-21.5</v>
+        <v>24</v>
       </c>
       <c r="D17" s="14">
-        <v>-18</v>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>
@@ -1495,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE59413-D9F3-44A1-88DC-A59245E9D9B8}">
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1714,7 +1714,7 @@
         <v>38</v>
       </c>
       <c r="C25" s="29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" s="13">
         <v>0</v>
@@ -1725,10 +1725,10 @@
         <v>39</v>
       </c>
       <c r="C26" s="48">
-        <v>22</v>
+        <v>6.5</v>
       </c>
       <c r="D26" s="16">
-        <v>28</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1736,7 +1736,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="39">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="D27" s="12">
         <v>0</v>

--- a/Resources/Metadata.xlsx
+++ b/Resources/Metadata.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/anthi182_ulaval_ca/Documents/Documents/GitHub/Ro2_data_worflow/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{DD6382FE-130C-4706-8590-2E836291513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10CA2BEC-F7CB-4DF4-B53D-DD6942BA1B11}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="13_ncr:1_{DD6382FE-130C-4706-8590-2E836291513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B01B1D07-6996-4435-8564-B0924EBCFFAD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge" sheetId="3" r:id="rId1"/>
-    <sheet name="Bernard" sheetId="8" r:id="rId2"/>
+    <sheet name="Bernard_lake" sheetId="8" r:id="rId2"/>
     <sheet name="Foret" sheetId="5" r:id="rId3"/>
     <sheet name="Reservoir" sheetId="4" r:id="rId4"/>
     <sheet name="Thermistors" sheetId="6" r:id="rId5"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="53">
   <si>
     <t>Instrument</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Distance between instruments (sonic as reference) in cm</t>
+  </si>
+  <si>
+    <t>Thermistors chain 1</t>
   </si>
 </sst>
 </file>
@@ -1146,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE44D4E6-1DC8-5846-9613-DEB0E908B686}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1322,7 +1325,7 @@
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1347,7 +1350,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="22">
-        <v>50.861590999999997</v>
+        <v>50.861454700000003</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1364,7 +1367,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="2">
-        <v>-63.389947999999997</v>
+        <v>-63.389840900000003</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
@@ -1476,10 +1479,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="39">
-        <v>-35</v>
+        <v>-37.5</v>
       </c>
       <c r="D17" s="14">
-        <v>15</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -1496,7 +1499,7 @@
   <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1879,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53111C9A-58C1-40C7-9383-CFE5F1F570E0}">
   <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1894,7 +1897,7 @@
     <row r="1" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="63" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C2" s="64"/>
       <c r="E2" s="63" t="s">

--- a/Resources/Metadata.xlsx
+++ b/Resources/Metadata.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/anthi182_ulaval_ca/Documents/Documents/GitHub/Ro2_data_worflow/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="258" documentId="13_ncr:1_{DD6382FE-130C-4706-8590-2E836291513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B01B1D07-6996-4435-8564-B0924EBCFFAD}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="13_ncr:1_{DD6382FE-130C-4706-8590-2E836291513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA390F7-3144-4AD5-96A6-B39F9EC0D2FA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge" sheetId="3" r:id="rId1"/>
     <sheet name="Bernard_lake" sheetId="8" r:id="rId2"/>
     <sheet name="Foret" sheetId="5" r:id="rId3"/>
     <sheet name="Reservoir" sheetId="4" r:id="rId4"/>
-    <sheet name="Thermistors" sheetId="6" r:id="rId5"/>
-    <sheet name="Natashquan" sheetId="7" r:id="rId6"/>
+    <sheet name="Romaine-2 thermistors" sheetId="6" r:id="rId5"/>
+    <sheet name="Bernard lake thermistors" sheetId="9" r:id="rId6"/>
+    <sheet name="Natashquan" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="55">
   <si>
     <t>Instrument</t>
   </si>
@@ -200,6 +201,12 @@
   </si>
   <si>
     <t>Thermistors chain 1</t>
+  </si>
+  <si>
+    <t>Thermistors chain</t>
+  </si>
+  <si>
+    <t>HOBO MX2202</t>
   </si>
 </sst>
 </file>
@@ -743,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -760,28 +767,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
@@ -791,20 +793,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1164,15 +1166,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
       <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
@@ -1181,13 +1183,13 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -1198,19 +1200,19 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>8</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="28">
         <v>7.25</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1218,92 +1220,92 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>7.25</v>
       </c>
       <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="28">
         <v>7.25</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <v>6.3</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="28">
         <v>5.2</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="27">
         <v>2.2999999999999998</v>
       </c>
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="34">
         <v>0.9</v>
       </c>
       <c r="D12" s="14"/>
     </row>
     <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-    </row>
-    <row r="16" spans="2:7" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="32"/>
-      <c r="C16" s="28" t="s">
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+    </row>
+    <row r="16" spans="2:7" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="29"/>
+      <c r="C16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="34">
         <v>24</v>
       </c>
       <c r="D17" s="14">
@@ -1336,17 +1338,14 @@
     <col min="7" max="7" width="14.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-    </row>
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="F2" s="42" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="F2" s="37" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="22">
@@ -1354,16 +1353,16 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="38" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="2">
@@ -1371,19 +1370,19 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>0.8</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="28">
         <v>4.3</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1391,28 +1390,28 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>4.3</v>
       </c>
       <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="28">
         <v>4.3</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <v>3.9</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1420,65 +1419,65 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="28">
         <v>0.8</v>
       </c>
-      <c r="D9" s="40"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="27">
         <v>2</v>
       </c>
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="28">
         <v>1.2</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="34">
         <v>1</v>
       </c>
       <c r="D12" s="14"/>
     </row>
     <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="32"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="34">
         <v>-37.5</v>
       </c>
       <c r="D17" s="14">
@@ -1511,26 +1510,26 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="F2" s="55" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="F2" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="51">
         <v>50.9020996</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -1541,182 +1540,182 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>24</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="48">
         <v>24</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="49" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="44">
         <v>-0.03</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="43">
         <v>24</v>
       </c>
       <c r="D7" s="16"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="44">
         <v>24</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="43">
         <v>-0.1</v>
       </c>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="44">
         <v>24</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="43">
         <v>20</v>
       </c>
       <c r="D11" s="16"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="44">
         <v>15</v>
       </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="43">
         <v>10</v>
       </c>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="44">
         <v>5</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="43">
         <v>26</v>
       </c>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="44">
         <v>24</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="43">
         <v>25</v>
       </c>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="44">
         <v>25</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="43">
         <v>-0.03</v>
       </c>
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="45">
         <v>-0.09</v>
       </c>
-      <c r="D20" s="25"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="22" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="32"/>
-      <c r="C24" s="28" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="27">
         <v>10</v>
       </c>
       <c r="D25" s="13">
@@ -1724,10 +1723,10 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="43">
         <v>6.5</v>
       </c>
       <c r="D26" s="16">
@@ -1735,10 +1734,10 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="34">
         <v>-10</v>
       </c>
       <c r="D27" s="12">
@@ -1771,15 +1770,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
       <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
@@ -1788,13 +1787,13 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -1805,10 +1804,10 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>1.5</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -1816,52 +1815,52 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="28">
         <v>2</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="34">
         <v>2</v>
       </c>
       <c r="D6" s="14"/>
     </row>
     <row r="8" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="32"/>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="34">
         <v>85</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="34">
         <v>-10</v>
       </c>
       <c r="E11" s="14">
@@ -1882,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53111C9A-58C1-40C7-9383-CFE5F1F570E0}">
   <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1896,14 +1895,14 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="E2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="E2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="18" t="s">
@@ -2208,8 +2207,8 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
       <c r="E25" s="9" t="s">
         <v>19</v>
       </c>
@@ -2302,8 +2301,8 @@
       </c>
     </row>
     <row r="36" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E37" s="7" t="s">
@@ -2331,6 +2330,227 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BF41A8-026E-451A-9D63-213454538E4C}">
+  <dimension ref="B1:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="59"/>
+    </row>
+    <row r="3" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="13">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="8">
+        <v>50.860754999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-63.389910999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EED9BCF-AC84-402D-B7FA-16D351A40D85}">
   <dimension ref="B1:C7"/>
   <sheetViews>
@@ -2345,10 +2565,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="64"/>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
@@ -2367,10 +2587,10 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>2</v>
       </c>
     </row>

--- a/Resources/Metadata.xlsx
+++ b/Resources/Metadata.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/anthi182_ulaval_ca/Documents/Documents/GitHub/Ro2_data_worflow/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="13_ncr:1_{DD6382FE-130C-4706-8590-2E836291513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA390F7-3144-4AD5-96A6-B39F9EC0D2FA}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="13_ncr:1_{DD6382FE-130C-4706-8590-2E836291513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC4DEE56-65E6-492E-A5E1-25375DE742FF}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
+    <workbookView minimized="1" xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11175" activeTab="3" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge" sheetId="3" r:id="rId1"/>
     <sheet name="Bernard_lake" sheetId="8" r:id="rId2"/>
     <sheet name="Foret" sheetId="5" r:id="rId3"/>
-    <sheet name="Reservoir" sheetId="4" r:id="rId4"/>
-    <sheet name="Romaine-2 thermistors" sheetId="6" r:id="rId5"/>
-    <sheet name="Bernard lake thermistors" sheetId="9" r:id="rId6"/>
-    <sheet name="Natashquan" sheetId="7" r:id="rId7"/>
+    <sheet name="Foret_neige" sheetId="11" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="10" r:id="rId5"/>
+    <sheet name="Reservoir" sheetId="4" r:id="rId6"/>
+    <sheet name="Romaine-2 thermistors" sheetId="6" r:id="rId7"/>
+    <sheet name="Bernard lake thermistors" sheetId="9" r:id="rId8"/>
+    <sheet name="Natashquan" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="87">
   <si>
     <t>Instrument</t>
   </si>
@@ -207,13 +209,109 @@
   </si>
   <si>
     <t>HOBO MX2202</t>
+  </si>
+  <si>
+    <t>(-25, -15)</t>
+  </si>
+  <si>
+    <t>Vol. liquid water content (0 -1)</t>
+  </si>
+  <si>
+    <t>HMP60</t>
+  </si>
+  <si>
+    <t>Relative humidity (%)</t>
+  </si>
+  <si>
+    <t>Air temp. (°C)</t>
+  </si>
+  <si>
+    <t>Si-111</t>
+  </si>
+  <si>
+    <t>Snow surf. temp. (°C)</t>
+  </si>
+  <si>
+    <t>(0, 15, 30, 45, 60, 75, 90, 105, 120)</t>
+  </si>
+  <si>
+    <t>Pt-1000 thermistor</t>
+  </si>
+  <si>
+    <t>Snow temp. (°C)</t>
+  </si>
+  <si>
+    <t>(-0.2, -0.1, -0.05)</t>
+  </si>
+  <si>
+    <t>Soil temp. (°C)</t>
+  </si>
+  <si>
+    <t>SR50</t>
+  </si>
+  <si>
+    <t>snow height (m)</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>(0, 15, 30, 45, 60, 75, 90, 105, 120, 135, 150)</t>
+  </si>
+  <si>
+    <t>2021-2022</t>
+  </si>
+  <si>
+    <t>(0, 15, 30, 45, 60, 75, 90, 105, 120, 135)</t>
+  </si>
+  <si>
+    <t>2020-2021</t>
+  </si>
+  <si>
+    <t>Judd communication sensor</t>
+  </si>
+  <si>
+    <t>snow height (cm)</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>(0, 15, 30, 45, 60, 75)</t>
+  </si>
+  <si>
+    <t>(0, 15, 30, 45, 60, 75, 90, 105)</t>
+  </si>
+  <si>
+    <t>(0, 15, 30, 45, 60, 75, 90)</t>
+  </si>
+  <si>
+    <t>SR50A</t>
+  </si>
+  <si>
+    <t>Canopy</t>
+  </si>
+  <si>
+    <t>height (m)</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>station</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,6 +321,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -746,11 +859,232 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -811,6 +1145,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,6 +1174,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -852,10 +1234,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -893,7 +1279,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -999,7 +1385,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1141,7 +1527,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1170,11 +1556,11 @@
       <c r="G1" s="25"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
@@ -1286,11 +1672,11 @@
     </row>
     <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
     </row>
     <row r="16" spans="2:7" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="29"/>
@@ -1340,11 +1726,11 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="F2" s="37" t="s">
         <v>24</v>
       </c>
@@ -1458,11 +1844,11 @@
     </row>
     <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="29"/>
@@ -1497,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE59413-D9F3-44A1-88DC-A59245E9D9B8}">
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1510,11 +1896,11 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="F2" s="50" t="s">
         <v>24</v>
       </c>
@@ -1696,11 +2082,11 @@
     </row>
     <row r="22" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="67"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="29"/>
@@ -1754,6 +2140,648 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D03A187-FF98-4B1B-892D-A571F19F5DA5}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="69"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="69"/>
+      <c r="B4" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="69"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="69"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="69"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="69"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="69"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="69"/>
+      <c r="B10" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="69"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="69"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="69"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="69"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="69"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="69"/>
+      <c r="B16" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="69"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="69"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="69"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="69"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="70"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="69"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="69"/>
+      <c r="B24" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="69"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="69"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="69"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="69"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="69"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="69"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="69"/>
+      <c r="B31" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="69"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="69"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="69"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="69"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="69"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="69"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="69"/>
+      <c r="B38" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="69"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="69"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="69"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="69"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="69"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="69"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A22:A44"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B16:B21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09720AAE-8591-438C-A715-1527441BF57F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE247F88-6DDE-433E-81AC-06E8044E24FC}">
   <dimension ref="B1:G11"/>
   <sheetViews>
@@ -1774,11 +2802,11 @@
       <c r="G1" s="25"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
       <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
@@ -1834,12 +2862,12 @@
     </row>
     <row r="8" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="29"/>
@@ -1877,7 +2905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53111C9A-58C1-40C7-9383-CFE5F1F570E0}">
   <dimension ref="B1:F38"/>
   <sheetViews>
@@ -1895,14 +2923,14 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="81"/>
+      <c r="E2" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="18" t="s">
@@ -2329,11 +3357,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BF41A8-026E-451A-9D63-213454538E4C}">
   <dimension ref="B1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -2341,10 +3369,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="81"/>
     </row>
     <row r="3" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="18" t="s">
@@ -2550,7 +3578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EED9BCF-AC84-402D-B7FA-16D351A40D85}">
   <dimension ref="B1:C7"/>
   <sheetViews>
@@ -2565,10 +3593,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="81"/>
     </row>
     <row r="3" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">

--- a/Resources/Metadata.xlsx
+++ b/Resources/Metadata.xlsx
@@ -5,23 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/anthi182_ulaval_ca/Documents/Documents/GitHub/Ro2_data_worflow/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anthi182\OneDrive - Université Laval\Documents\GitHub\Ro2_data_worflow\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="13_ncr:1_{DD6382FE-130C-4706-8590-2E836291513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC4DEE56-65E6-492E-A5E1-25375DE742FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F9FDD3-D468-48CE-9F9B-3166823F5CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11175" activeTab="3" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge" sheetId="3" r:id="rId1"/>
-    <sheet name="Bernard_lake" sheetId="8" r:id="rId2"/>
-    <sheet name="Foret" sheetId="5" r:id="rId3"/>
-    <sheet name="Foret_neige" sheetId="11" r:id="rId4"/>
-    <sheet name="Feuil1" sheetId="10" r:id="rId5"/>
-    <sheet name="Reservoir" sheetId="4" r:id="rId6"/>
-    <sheet name="Romaine-2 thermistors" sheetId="6" r:id="rId7"/>
-    <sheet name="Bernard lake thermistors" sheetId="9" r:id="rId8"/>
-    <sheet name="Natashquan" sheetId="7" r:id="rId9"/>
+    <sheet name="Reservoir" sheetId="4" r:id="rId2"/>
+    <sheet name="Romaine-2 thermistors" sheetId="6" r:id="rId3"/>
+    <sheet name="Bernard_lake" sheetId="8" r:id="rId4"/>
+    <sheet name="Bernard lake thermistors" sheetId="9" r:id="rId5"/>
+    <sheet name="Foret" sheetId="5" r:id="rId6"/>
+    <sheet name="Foret_neige" sheetId="11" r:id="rId7"/>
+    <sheet name="Natashquan" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="88">
   <si>
     <t>Instrument</t>
   </si>
@@ -168,9 +167,6 @@
   </si>
   <si>
     <t>Bernard</t>
-  </si>
-  <si>
-    <t>To be verified</t>
   </si>
   <si>
     <t>orientation: 325° geo north</t>
@@ -305,6 +301,12 @@
   </si>
   <si>
     <t>station</t>
+  </si>
+  <si>
+    <t>CS475a</t>
+  </si>
+  <si>
+    <t>Installed 2023-10-30</t>
   </si>
 </sst>
 </file>
@@ -341,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +368,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="54">
     <border>
@@ -1084,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1175,6 +1183,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,21 +1225,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1232,10 +1243,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1602,7 +1609,7 @@
         <v>7.25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
@@ -1709,11 +1716,587 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1D1867-B0BA-4CF9-B964-CDDBB5D9DD8C}">
-  <dimension ref="B1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE247F88-6DDE-433E-81AC-06E8044E24FC}">
+  <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="12.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="8">
+        <v>50.688999199999998</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-63.2494011</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="28">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="34">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="8" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
+      <c r="C10" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="34">
+        <v>85</v>
+      </c>
+      <c r="D11" s="34">
+        <v>-10</v>
+      </c>
+      <c r="E11" s="14">
+        <v>-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53111C9A-58C1-40C7-9383-CFE5F1F570E0}">
+  <dimension ref="B1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="E2" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="72"/>
+    </row>
+    <row r="3" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="13">
+        <v>2.6</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="13">
+        <v>6</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="13">
+        <v>8</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="13">
+        <v>10</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="14">
+        <v>15</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="E25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8">
+        <v>50.689498899999997</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-63.249698600000002</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="1">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="1">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="8">
+        <v>50.6753006</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="3">
+        <v>-63.2527008</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1D1867-B0BA-4CF9-B964-CDDBB5D9DD8C}">
+  <dimension ref="B1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1772,7 +2355,7 @@
         <v>4.3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
@@ -1829,57 +2412,287 @@
       <c r="C11" s="28">
         <v>1.2</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="33" t="s">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="27">
         <v>1</v>
       </c>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="65" t="s">
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="83">
+        <v>1</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="29"/>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="29"/>
+      <c r="C17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D17" s="30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="33" t="s">
+    <row r="18" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C18" s="34">
         <v>-37.5</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <v>5.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BF41A8-026E-451A-9D63-213454538E4C}">
+  <dimension ref="B1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="72"/>
+    </row>
+    <row r="3" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="13">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="8">
+        <v>50.860754999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-63.389910999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE59413-D9F3-44A1-88DC-A59245E9D9B8}">
   <dimension ref="B1:G27"/>
   <sheetViews>
@@ -1942,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
@@ -2139,11 +2952,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D03A187-FF98-4B1B-892D-A571F19F5DA5}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -2156,598 +2969,598 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="61" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>76</v>
+      <c r="A2" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>75</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="69"/>
-      <c r="B3" s="73"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="55">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="69"/>
-      <c r="B4" s="74" t="s">
-        <v>73</v>
+      <c r="A4" s="74"/>
+      <c r="B4" s="79" t="s">
+        <v>72</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="43">
         <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="69"/>
-      <c r="B5" s="75"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="74"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="69"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="52" t="s">
-        <v>64</v>
-      </c>
       <c r="D6" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="69"/>
-      <c r="B7" s="75"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="69"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="69"/>
-      <c r="B9" s="73"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="69"/>
-      <c r="B10" s="74" t="s">
-        <v>71</v>
+      <c r="A10" s="74"/>
+      <c r="B10" s="79" t="s">
+        <v>70</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="43">
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="69"/>
-      <c r="B11" s="75"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="74"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="69"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="52" t="s">
-        <v>64</v>
-      </c>
       <c r="D12" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="69"/>
-      <c r="B13" s="75"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="69"/>
-      <c r="B14" s="75"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="69"/>
-      <c r="B15" s="73"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="69"/>
-      <c r="B16" s="74" t="s">
-        <v>69</v>
+      <c r="A16" s="74"/>
+      <c r="B16" s="79" t="s">
+        <v>68</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="43">
         <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="69"/>
-      <c r="B17" s="75"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="74"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="69"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="52" t="s">
-        <v>64</v>
-      </c>
       <c r="D18" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="69"/>
-      <c r="B19" s="75"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="69"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="70"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="57" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="74" t="s">
+      <c r="A22" s="76" t="s">
         <v>76</v>
       </c>
+      <c r="B22" s="79" t="s">
+        <v>75</v>
+      </c>
       <c r="C22" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="69"/>
-      <c r="B23" s="73"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="78"/>
       <c r="C23" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="55">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="69"/>
-      <c r="B24" s="74" t="s">
-        <v>73</v>
+      <c r="A24" s="74"/>
+      <c r="B24" s="79" t="s">
+        <v>72</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="43">
         <v>2.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="69"/>
-      <c r="B25" s="75"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="74"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="69"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="52" t="s">
-        <v>64</v>
-      </c>
       <c r="D26" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="69"/>
-      <c r="B27" s="75"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="69"/>
-      <c r="B28" s="75"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="69"/>
-      <c r="B29" s="75"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="69"/>
-      <c r="B30" s="73"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="69"/>
-      <c r="B31" s="74" t="s">
-        <v>71</v>
+      <c r="A31" s="74"/>
+      <c r="B31" s="79" t="s">
+        <v>70</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="43">
         <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="69"/>
-      <c r="B32" s="75"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="74"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="69"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="52" t="s">
-        <v>64</v>
-      </c>
       <c r="D33" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="69"/>
-      <c r="B34" s="75"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="69"/>
-      <c r="B35" s="75"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E35" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="69"/>
-      <c r="B36" s="75"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="69"/>
-      <c r="B37" s="73"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="55" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="69"/>
-      <c r="B38" s="74" t="s">
-        <v>69</v>
+      <c r="A38" s="74"/>
+      <c r="B38" s="79" t="s">
+        <v>68</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="43">
         <v>2.5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="69"/>
-      <c r="B39" s="75"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="74"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="69"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="52" t="s">
-        <v>64</v>
-      </c>
       <c r="D40" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="69"/>
-      <c r="B41" s="75"/>
+      <c r="A41" s="74"/>
+      <c r="B41" s="80"/>
       <c r="C41" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="69"/>
-      <c r="B42" s="75"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="80"/>
       <c r="C42" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="69"/>
-      <c r="B43" s="75"/>
+      <c r="A43" s="74"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E43" s="28">
         <v>2.5</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="69"/>
-      <c r="B44" s="75"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="80"/>
       <c r="C44" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="28" t="s">
         <v>16</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2767,818 +3580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09720AAE-8591-438C-A715-1527441BF57F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE247F88-6DDE-433E-81AC-06E8044E24FC}">
-  <dimension ref="B1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="12.9140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="F2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="8">
-        <v>50.688999199999998</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3">
-        <v>-63.2494011</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="28">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="34">
-        <v>2</v>
-      </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="8" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
-      <c r="C10" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="34">
-        <v>85</v>
-      </c>
-      <c r="D11" s="34">
-        <v>-10</v>
-      </c>
-      <c r="E11" s="14">
-        <v>-10</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B9:E9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53111C9A-58C1-40C7-9383-CFE5F1F570E0}">
-  <dimension ref="B1:F38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="E2" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="81"/>
-    </row>
-    <row r="3" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="22">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="17">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2.6</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="13">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="13">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="13">
-        <v>6</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1">
-        <v>7</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="13">
-        <v>8</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1">
-        <v>9</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="13">
-        <v>10</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="1">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="14">
-        <v>15</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="1">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="E25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="8">
-        <v>50.689498899999997</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="1">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="3">
-        <v>-63.249698600000002</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="1">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E31" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E34" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="8">
-        <v>50.6753006</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E38" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="3">
-        <v>-63.2527008</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BF41A8-026E-451A-9D63-213454538E4C}">
-  <dimension ref="B1:C28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="81"/>
-    </row>
-    <row r="3" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="8">
-        <v>50.860754999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="3">
-        <v>-63.389910999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EED9BCF-AC84-402D-B7FA-16D351A40D85}">
   <dimension ref="B1:C7"/>
   <sheetViews>
@@ -3593,10 +3595,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="81"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">

--- a/Resources/Metadata.xlsx
+++ b/Resources/Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anthi182\OneDrive - Université Laval\Documents\GitHub\Ro2_data_worflow\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/anthi182_ulaval_ca/Documents/Documents/GitHub/Ro2_data_worflow/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F9FDD3-D468-48CE-9F9B-3166823F5CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{44F9FDD3-D468-48CE-9F9B-3166823F5CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4888630-AA1C-49F5-B471-F5B7D0228F79}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="107">
   <si>
     <t>Instrument</t>
   </si>
@@ -79,12 +79,6 @@
     <t>Foret</t>
   </si>
   <si>
-    <t>Li-7500</t>
-  </si>
-  <si>
-    <t>CSAT</t>
-  </si>
-  <si>
     <t>HMP155</t>
   </si>
   <si>
@@ -175,11 +169,6 @@
     <t>orientation: 138° compass = 120° geo north</t>
   </si>
   <si>
-    <t>Orientation (geo north): 
-90° (CSAT east), 
-270° (CSAT west)</t>
-  </si>
-  <si>
     <t>3DM-CV5-25</t>
   </si>
   <si>
@@ -307,6 +296,72 @@
   </si>
   <si>
     <t>Installed 2023-10-30</t>
+  </si>
+  <si>
+    <t>Removed 2022-10-22</t>
+  </si>
+  <si>
+    <t>CSAT (east)</t>
+  </si>
+  <si>
+    <t>CSAT (west)</t>
+  </si>
+  <si>
+    <t>Li-7500 (east)</t>
+  </si>
+  <si>
+    <t>Li-7500 (west)</t>
+  </si>
+  <si>
+    <t>Li-7700 (east)</t>
+  </si>
+  <si>
+    <t>Li-7700 (west)</t>
+  </si>
+  <si>
+    <t>Geonor</t>
+  </si>
+  <si>
+    <t>Orientation 90°. Removed 2022-10-22</t>
+  </si>
+  <si>
+    <t>Orientation 270°. Removed 2022-10-22</t>
+  </si>
+  <si>
+    <t>Installed 2021-06-11</t>
+  </si>
+  <si>
+    <t>Installed 2023-10-25</t>
+  </si>
+  <si>
+    <t>Irgason (east)</t>
+  </si>
+  <si>
+    <t>Irgason (west)</t>
+  </si>
+  <si>
+    <t>Installed 2024-06-02</t>
+  </si>
+  <si>
+    <t>Installed 2024-10-23</t>
+  </si>
+  <si>
+    <t>Orientation 90°. Installed 2022-10-22</t>
+  </si>
+  <si>
+    <t>Orientation 270°. Installed 2022-10-22</t>
+  </si>
+  <si>
+    <t>Installed 2021-10-21</t>
+  </si>
+  <si>
+    <t>Vertical (cm)</t>
+  </si>
+  <si>
+    <t>Li-7700 east</t>
+  </si>
+  <si>
+    <t>Installed the 2024-06-01</t>
   </si>
 </sst>
 </file>
@@ -375,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -840,19 +895,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1092,7 +1134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1105,7 +1147,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1117,7 +1158,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1137,11 +1177,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1153,15 +1190,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1171,9 +1211,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1186,7 +1226,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1198,19 +1238,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1222,12 +1262,32 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,7 +1306,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1542,173 +1602,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE44D4E6-1DC8-5846-9613-DEB0E908B686}">
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.9140625" customWidth="1"/>
     <col min="3" max="3" width="29.75" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="25.33203125" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="65" t="s">
+    <row r="1" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="8">
         <v>50.653801000000001</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>25</v>
+      <c r="C3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="G3" s="3">
         <v>-63.259498600000001</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <v>8</v>
       </c>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="32" t="s">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <v>7.25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="25">
         <v>7.25</v>
       </c>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="32" t="s">
+      <c r="D6" s="12"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="26">
         <v>7.25</v>
       </c>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="31" t="s">
+      <c r="F7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="32">
+        <v>26</v>
+      </c>
+      <c r="H7" s="32">
+        <v>-13.6</v>
+      </c>
+      <c r="I7" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C9" s="92">
         <v>6.3</v>
       </c>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="28">
+      <c r="D9" s="93"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="25">
         <v>5.2</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="31" t="s">
+      <c r="D10" s="90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C11" s="92">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="D11" s="93"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="25">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="33" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C13" s="95">
         <v>0.9</v>
       </c>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-    </row>
-    <row r="16" spans="2:7" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="29"/>
-      <c r="C16" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="34">
-        <v>24</v>
-      </c>
-      <c r="D17" s="14">
-        <v>-10</v>
-      </c>
+      <c r="D13" s="96"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1719,11 +1795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE247F88-6DDE-433E-81AC-06E8044E24FC}">
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
@@ -1732,100 +1806,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="8">
         <v>50.688999199999998</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>25</v>
+      <c r="D3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="G3" s="3">
         <v>-63.2494011</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <v>1.5</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>49</v>
+      <c r="D4" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <v>2</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="32">
         <v>2</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="8" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
+      <c r="B9" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
-      <c r="C10" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>48</v>
+      <c r="B10" s="27"/>
+      <c r="C10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="34">
+      <c r="B11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="32">
         <v>85</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="32">
         <v>-10</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>-10</v>
       </c>
     </row>
@@ -1843,11 +1917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53111C9A-58C1-40C7-9383-CFE5F1F570E0}">
   <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
     <col min="3" max="3" width="9.58203125" bestFit="1" customWidth="1"/>
@@ -1857,66 +1929,66 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="E2" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="72"/>
+      <c r="B2" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="E2" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="22">
+      <c r="B4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="21">
         <v>0</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="19">
+        <v>17</v>
+      </c>
+      <c r="F4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="17">
+        <v>17</v>
+      </c>
+      <c r="C5" s="16">
         <v>0.2</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="17">
+        <v>17</v>
+      </c>
+      <c r="F5" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>0.4</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1">
         <v>0.4</v>
@@ -1924,27 +1996,27 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="17">
+        <v>17</v>
+      </c>
+      <c r="C7" s="16">
         <v>0.6</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="17">
+        <v>17</v>
+      </c>
+      <c r="F7" s="16">
         <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>0.8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1">
         <v>0.8</v>
@@ -1952,27 +2024,27 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="17">
+        <v>17</v>
+      </c>
+      <c r="C9" s="16">
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="17">
+        <v>17</v>
+      </c>
+      <c r="F9" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>1.4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1">
         <v>1.4</v>
@@ -1980,13 +2052,13 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>1.8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1">
         <v>1.8</v>
@@ -1994,13 +2066,13 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1">
         <v>2.2000000000000002</v>
@@ -2008,27 +2080,27 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="13">
+        <v>17</v>
+      </c>
+      <c r="C13" s="12">
         <v>2.6</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="13">
+        <v>17</v>
+      </c>
+      <c r="F13" s="12">
         <v>2.6</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
@@ -2036,27 +2108,27 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="13">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12">
         <v>4</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="13">
+        <v>17</v>
+      </c>
+      <c r="F15" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
@@ -2064,27 +2136,27 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="13">
+        <v>17</v>
+      </c>
+      <c r="C17" s="12">
         <v>6</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="13">
+        <v>17</v>
+      </c>
+      <c r="F17" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
         <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1">
         <v>7</v>
@@ -2092,27 +2164,27 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="13">
+        <v>17</v>
+      </c>
+      <c r="C19" s="12">
         <v>8</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="13">
+        <v>17</v>
+      </c>
+      <c r="F19" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>9</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1">
         <v>9</v>
@@ -2120,27 +2192,27 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="13">
+        <v>17</v>
+      </c>
+      <c r="C21" s="12">
         <v>10</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="13">
+        <v>17</v>
+      </c>
+      <c r="F21" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1">
         <v>12.5</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="1">
         <v>12.5</v>
@@ -2148,67 +2220,67 @@
     </row>
     <row r="23" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="14">
+        <v>18</v>
+      </c>
+      <c r="C23" s="13">
         <v>15</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="13">
+        <v>17</v>
+      </c>
+      <c r="F23" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E24" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="1">
         <v>17.5</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
       <c r="E25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="13">
+        <v>17</v>
+      </c>
+      <c r="F25" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="8">
         <v>50.689498899999997</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F26" s="1">
         <v>22.5</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="15" t="s">
-        <v>25</v>
+      <c r="B27" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="C27" s="3">
         <v>-63.249698600000002</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="13">
+        <v>17</v>
+      </c>
+      <c r="F27" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E28" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" s="1">
         <v>27.5</v>
@@ -2216,15 +2288,15 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="13">
+        <v>17</v>
+      </c>
+      <c r="F29" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E30" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F30" s="1">
         <v>32.5</v>
@@ -2232,15 +2304,15 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E31" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="13">
+        <v>17</v>
+      </c>
+      <c r="F31" s="12">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E32" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F32" s="1">
         <v>50</v>
@@ -2248,35 +2320,35 @@
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="13">
+        <v>17</v>
+      </c>
+      <c r="F33" s="12">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E34" s="15" t="s">
-        <v>20</v>
+      <c r="E34" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="F34" s="2">
         <v>70</v>
       </c>
     </row>
     <row r="36" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E37" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F37" s="8">
         <v>50.6753006</v>
       </c>
     </row>
     <row r="38" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E38" s="15" t="s">
-        <v>25</v>
+      <c r="E38" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="F38" s="3">
         <v>-63.2527008</v>
@@ -2295,11 +2367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1D1867-B0BA-4CF9-B964-CDDBB5D9DD8C}">
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.08203125" bestFit="1" customWidth="1"/>
@@ -2309,156 +2379,156 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="F2" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="22">
+      <c r="B2" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="F2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="21">
         <v>50.861454700000003</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>25</v>
+      <c r="D3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>23</v>
       </c>
       <c r="G3" s="2">
         <v>-63.389840900000003</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <v>0.8</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <v>4.3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="25">
         <v>4.3</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="26">
         <v>4.3</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="25">
         <v>3.9</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>34</v>
+      <c r="D8" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="28">
+      <c r="B9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="26">
         <v>0.8</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="B10" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="25">
         <v>2</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="26">
         <v>1.2</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="25">
         <v>1</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="83">
+      <c r="B13" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="61">
         <v>1</v>
       </c>
-      <c r="D13" s="84" t="s">
-        <v>87</v>
+      <c r="D13" s="62" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="27"/>
+      <c r="C17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="29"/>
-      <c r="C17" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="18" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="32">
         <v>-37.5</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>5.5</v>
       </c>
     </row>
@@ -2475,46 +2545,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BF41A8-026E-451A-9D63-213454538E4C}">
   <dimension ref="B1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="72"/>
+      <c r="B2" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="70"/>
     </row>
     <row r="3" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="22">
+      <c r="B4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="17">
+        <v>50</v>
+      </c>
+      <c r="C5" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>0.4</v>
@@ -2522,15 +2590,15 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="17">
+        <v>50</v>
+      </c>
+      <c r="C7" s="16">
         <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <v>0.8</v>
@@ -2538,15 +2606,15 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="17">
+        <v>50</v>
+      </c>
+      <c r="C9" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1">
         <v>1.4</v>
@@ -2554,7 +2622,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1">
         <v>1.8</v>
@@ -2562,7 +2630,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1">
         <v>2.2000000000000002</v>
@@ -2570,15 +2638,15 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="13">
+        <v>50</v>
+      </c>
+      <c r="C13" s="12">
         <v>2.6</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -2586,15 +2654,15 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="13">
+        <v>50</v>
+      </c>
+      <c r="C15" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
@@ -2602,15 +2670,15 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="13">
+        <v>50</v>
+      </c>
+      <c r="C17" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1">
         <v>7</v>
@@ -2618,15 +2686,15 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="13">
+        <v>50</v>
+      </c>
+      <c r="C19" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1">
         <v>9</v>
@@ -2634,15 +2702,15 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="13">
+        <v>50</v>
+      </c>
+      <c r="C21" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1">
         <v>12.5</v>
@@ -2650,7 +2718,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1">
         <v>15</v>
@@ -2658,27 +2726,27 @@
     </row>
     <row r="24" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="14">
+        <v>18</v>
+      </c>
+      <c r="C24" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="8">
         <v>50.860754999999997</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="15" t="s">
-        <v>25</v>
+      <c r="B28" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="C28" s="3">
         <v>-63.389910999999998</v>
@@ -2694,259 +2762,357 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE59413-D9F3-44A1-88DC-A59245E9D9B8}">
-  <dimension ref="B1:G27"/>
+  <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.58203125" customWidth="1"/>
+    <col min="4" max="4" width="35.08203125" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="65" t="s">
+    <row r="1" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="F2" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="51">
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="F2" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="46">
         <v>50.9020996</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>25</v>
+      <c r="D3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="G3" s="3">
         <v>-63.405101799999997</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="39" t="s">
+    <row r="4" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <v>24</v>
       </c>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="2:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="47" t="s">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="43">
+        <v>24</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="81">
+        <v>24</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="40">
+        <v>24</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="92">
+        <v>-10</v>
+      </c>
+      <c r="H7" s="92">
+        <v>0</v>
+      </c>
+      <c r="I7" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="41">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="25">
+        <v>10</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="84">
+        <v>24</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="26">
+        <v>-46</v>
+      </c>
+      <c r="H9" s="26">
+        <v>-16</v>
+      </c>
+      <c r="I9" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="41">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="32">
+        <v>6.5</v>
+      </c>
+      <c r="H10" s="32">
+        <v>33.5</v>
+      </c>
+      <c r="I10" s="13">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="84">
+        <v>24</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="41">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="84">
+        <v>-0.03</v>
+      </c>
+      <c r="D13" s="85"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="40">
+        <v>-0.1</v>
+      </c>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="41">
+        <v>24</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="40">
+        <v>20</v>
+      </c>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="41">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="40">
+        <v>10</v>
+      </c>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="41">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C21" s="40">
+        <v>26</v>
+      </c>
+      <c r="D21" s="85" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="41">
         <v>24</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="44">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="40">
+        <v>25</v>
+      </c>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="41">
+        <v>5</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="84">
+        <v>25</v>
+      </c>
+      <c r="D25" s="85"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="41">
         <v>-0.03</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="43">
-        <v>24</v>
-      </c>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="44">
-        <v>24</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="43">
-        <v>-0.1</v>
-      </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="44">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="43">
-        <v>20</v>
-      </c>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="44">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="43">
-        <v>10</v>
-      </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="44">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="43">
-        <v>26</v>
-      </c>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="44">
-        <v>24</v>
-      </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="43">
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="44">
-        <v>25</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="43">
-        <v>-0.03</v>
-      </c>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="45">
+      <c r="C27" s="87">
         <v>-0.09</v>
       </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="22" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="29"/>
-      <c r="C24" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="27">
-        <v>10</v>
-      </c>
-      <c r="D25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="43">
-        <v>6.5</v>
-      </c>
-      <c r="D26" s="16">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="34">
-        <v>-10</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
+      <c r="D27" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2956,11 +3122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D03A187-FF98-4B1B-892D-A571F19F5DA5}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
@@ -2968,599 +3132,599 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="61" t="s">
+      <c r="A1" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="61" t="s">
-        <v>82</v>
+      <c r="E1" s="56" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="77" t="s">
+      <c r="A2" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="72"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="72"/>
+      <c r="B4" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="40">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="72"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="72"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="72"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="72"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="72"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="72"/>
+      <c r="B10" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="40">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="72"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="72"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="60" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="72"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="72"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="72"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="72"/>
+      <c r="B16" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="40">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="72"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="72"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="59" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="72"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="72"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="73"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="59">
+      <c r="B22" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="40">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="74"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="56" t="s">
+    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="72"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="72"/>
+      <c r="B24" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="40">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="72"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="72"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="72"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="72"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="72"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="72"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="72"/>
+      <c r="B31" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="40">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="72"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="72"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="72"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="72"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="72"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="72"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="72"/>
+      <c r="B38" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="40">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="72"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="72"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="74"/>
-      <c r="B4" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="43">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="72"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="26">
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="74"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="74"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="74"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="28">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="72"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="26">
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="74"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="28">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="72"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="26">
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="74"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="74"/>
-      <c r="B10" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="43">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="74"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="74"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="74"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="74"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="74"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="74"/>
-      <c r="B16" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="43">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="74"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="74"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="74"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="74"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="75"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="74"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="74"/>
-      <c r="B24" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="43">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="74"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="74"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="74"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="74"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="74"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="74"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="74"/>
-      <c r="B31" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="43">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="74"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="74"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="74"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="74"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="74"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="74"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="74"/>
-      <c r="B38" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="43">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="74"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="74"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="74"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="74"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="74"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="28">
-        <v>2.5</v>
-      </c>
-    </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="74"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>54</v>
+      <c r="A44" s="72"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3584,21 +3748,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EED9BCF-AC84-402D-B7FA-16D351A40D85}">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="72"/>
+      <c r="B2" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="70"/>
     </row>
     <row r="3" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
@@ -3620,7 +3782,7 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>2</v>
       </c>
     </row>
@@ -3633,8 +3795,8 @@
       </c>
     </row>
     <row r="7" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="15" t="s">
-        <v>22</v>
+      <c r="B7" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>

--- a/Resources/Metadata.xlsx
+++ b/Resources/Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/anthi182_ulaval_ca/Documents/Documents/GitHub/Ro2_data_worflow/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{44F9FDD3-D468-48CE-9F9B-3166823F5CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4888630-AA1C-49F5-B471-F5B7D0228F79}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="13_ncr:1_{44F9FDD3-D468-48CE-9F9B-3166823F5CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4151B120-129D-4234-B13F-CBB9E0596F66}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="131">
   <si>
     <t>Instrument</t>
   </si>
@@ -362,6 +362,80 @@
   </si>
   <si>
     <t>Installed the 2024-06-01</t>
+  </si>
+  <si>
+    <t>Instrument type</t>
+  </si>
+  <si>
+    <t>Net radiometer</t>
+  </si>
+  <si>
+    <t>Open-path CO2/H2O analyzer 
+and sonic anemometer</t>
+  </si>
+  <si>
+    <t>Open-path CH4 analyzer</t>
+  </si>
+  <si>
+    <t>Propeller anemometer</t>
+  </si>
+  <si>
+    <t>Infrared radiometer sensor</t>
+  </si>
+  <si>
+    <t>Temperature/humidity sensor</t>
+  </si>
+  <si>
+    <t>Atmospheric pressure</t>
+  </si>
+  <si>
+    <t>Tipping rain bucket</t>
+  </si>
+  <si>
+    <t>Water level radar</t>
+  </si>
+  <si>
+    <t>Open-path CO2/H2O analyzer and sonic anemometer</t>
+  </si>
+  <si>
+    <t>Water temperature logger</t>
+  </si>
+  <si>
+    <t>Temperature/light intensity logger</t>
+  </si>
+  <si>
+    <t>Temperature/pressure logger</t>
+  </si>
+  <si>
+    <t>Pressure/temperature logger</t>
+  </si>
+  <si>
+    <t>Measurement type</t>
+  </si>
+  <si>
+    <t>Sonic anemometer</t>
+  </si>
+  <si>
+    <t>Open-path CO2/H2O analyzer</t>
+  </si>
+  <si>
+    <t>Open-path CO2/H2O analyzer
+and sonic anemometer</t>
+  </si>
+  <si>
+    <t>Soil water content</t>
+  </si>
+  <si>
+    <t>Total precipitation</t>
+  </si>
+  <si>
+    <t>Heat flux plate</t>
+  </si>
+  <si>
+    <t>Disdrometer</t>
+  </si>
+  <si>
+    <t>Soil temperature sensor</t>
   </si>
 </sst>
 </file>
@@ -430,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -469,9 +543,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -482,10 +584,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -497,10 +623,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="double">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -512,8 +638,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
         <color indexed="64"/>
       </right>
       <top/>
@@ -523,8 +651,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -536,8 +666,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -549,130 +681,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1130,164 +1148,183 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1303,6 +1340,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1602,189 +1643,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE44D4E6-1DC8-5846-9613-DEB0E908B686}">
-  <dimension ref="B1:I14"/>
+  <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.9140625" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="63" t="s">
+    <row r="1" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="8">
         <v>50.653801000000001</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>-63.259498600000001</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="19">
         <v>8</v>
       </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="20">
         <v>7.25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="66" t="s">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19">
+        <v>7.25</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="20">
+        <v>7.25</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="20">
+        <v>6.3</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="25">
-        <v>7.25</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="24" t="s">
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="21"/>
+      <c r="C16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="D16" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="E16" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="30" t="s">
+    <row r="17" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="26">
-        <v>7.25</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="F7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="32">
+      <c r="C17" s="26">
         <v>26</v>
       </c>
-      <c r="H7" s="32">
+      <c r="D17" s="26">
         <v>-13.6</v>
       </c>
-      <c r="I7" s="13">
+      <c r="E17" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="25">
-        <v>2.5</v>
-      </c>
-      <c r="D8" s="89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="92">
-        <v>6.3</v>
-      </c>
-      <c r="D9" s="93"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="D10" s="90" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="92">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D11" s="93"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="25">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="94" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="95">
-        <v>0.9</v>
-      </c>
-      <c r="D13" s="96"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1793,120 +1873,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE247F88-6DDE-433E-81AC-06E8044E24FC}">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="12.9140625" customWidth="1"/>
+    <col min="3" max="3" width="25.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="66" t="s">
+    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="8">
         <v>50.688999199999998</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>-63.2494011</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="19">
         <v>1.5</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="2:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="20">
         <v>2</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="31" t="s">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="68"/>
+      <c r="D6" s="26">
         <v>2</v>
       </c>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="8" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="66" t="s">
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="27"/>
-      <c r="C10" s="24" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="75"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="21"/>
+      <c r="C9" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E9" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="31" t="s">
+    <row r="10" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C10" s="26">
         <v>85</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D10" s="26">
         <v>-10</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E10" s="12">
         <v>-10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1915,449 +2005,649 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53111C9A-58C1-40C7-9383-CFE5F1F570E0}">
-  <dimension ref="B1:F38"/>
+  <dimension ref="B1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="69" t="s">
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="E2" s="69" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="8">
+        <v>50.689498899999997</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-63.249698600000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="70"/>
-    </row>
-    <row r="3" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
+      <c r="F25" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="40">
+        <v>50.6753006</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C26" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-63.2527008</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="19" t="s">
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="11">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="12">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="12">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="12">
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="11">
         <v>6</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="1">
         <v>7</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="12">
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="11">
         <v>8</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1">
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="1">
         <v>9</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="12">
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="11">
         <v>10</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="1">
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="1">
         <v>12.5</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="1">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="11" t="s">
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="1">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="1">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="13">
-        <v>15</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="1">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="E25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="8">
-        <v>50.689498899999997</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="1">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="3">
-        <v>-63.249698600000002</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="1">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="1">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E34" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="C57" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="2">
         <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="8">
-        <v>50.6753006</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E38" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="3">
-        <v>-63.2527008</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2365,177 +2655,217 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1D1867-B0BA-4CF9-B964-CDDBB5D9DD8C}">
-  <dimension ref="B1:G18"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="63" t="s">
+    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="F2" s="35" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="G2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="21">
+      <c r="H2" s="15">
         <v>50.861454700000003</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="G3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>-63.389840900000003</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="19">
         <v>0.8</v>
       </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="2:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="20">
         <v>4.3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="29" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19">
         <v>4.3</v>
       </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="30" t="s">
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="20">
         <v>4.3</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="19">
         <v>3.9</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="30" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="20">
         <v>0.8</v>
       </c>
-      <c r="D9" s="33"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="29" t="s">
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="19">
         <v>2</v>
       </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="30" t="s">
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="20">
         <v>1.2</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="29" t="s">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="19">
         <v>1</v>
       </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="60" t="s">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="55">
         <v>1</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="E13" s="56" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="63" t="s">
+    <row r="14" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="27"/>
-      <c r="C17" s="24" t="s">
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="21"/>
+      <c r="C16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D16" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="31" t="s">
+      <c r="E16" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C17" s="26">
         <v>-37.5</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D17" s="26">
         <v>5.5</v>
+      </c>
+      <c r="E17" s="12">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2543,218 +2873,281 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BF41A8-026E-451A-9D63-213454538E4C}">
-  <dimension ref="B1:C28"/>
+  <dimension ref="B1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.4140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="69" t="s">
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="70"/>
-    </row>
-    <row r="3" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="F2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="40">
+        <v>50.860754999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="F3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-63.389910999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="11">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="11">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="1">
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="11">
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="1">
         <v>12.5</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="11" t="s">
+    <row r="24" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="12">
         <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="8">
-        <v>50.860754999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="3">
-        <v>-63.389910999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2762,357 +3155,434 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE59413-D9F3-44A1-88DC-A59245E9D9B8}">
-  <dimension ref="B1:I27"/>
+  <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.08203125" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.08203125" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="63" t="s">
+    <row r="1" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="F2" s="45" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="G2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="46">
+      <c r="H2" s="40">
         <v>50.9020996</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>-63.405101799999997</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="37" t="s">
+    <row r="4" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="19">
         <v>24</v>
       </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="42" t="s">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="37">
         <v>24</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="E5" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="80" t="s">
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="58">
         <v>24</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="E6" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="I6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="J6" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="34">
         <v>24</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="91" t="s">
+      <c r="G7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="92">
+      <c r="H7" s="20">
         <v>-10</v>
       </c>
-      <c r="H7" s="92">
+      <c r="I7" s="20">
         <v>0</v>
       </c>
-      <c r="I7" s="93">
+      <c r="J7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="35">
         <v>24</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="G8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="25">
+      <c r="H8" s="19">
         <v>10</v>
       </c>
-      <c r="H8" s="25">
+      <c r="I8" s="19">
         <v>0</v>
       </c>
-      <c r="I8" s="12">
+      <c r="J8" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="83" t="s">
+    <row r="9" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="34">
         <v>24</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="E9" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="26">
+      <c r="H9" s="20">
         <v>-46</v>
       </c>
-      <c r="H9" s="26">
+      <c r="I9" s="20">
         <v>-16</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="39" t="s">
+    <row r="10" spans="2:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="35">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="G10" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="32">
+      <c r="H10" s="26">
         <v>6.5</v>
       </c>
-      <c r="H10" s="32">
+      <c r="I10" s="26">
         <v>33.5</v>
       </c>
-      <c r="I10" s="13">
+      <c r="J10" s="12">
         <v>24.5</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="83" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="34">
         <v>24</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="E11" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="39" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="35">
         <v>24</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="83" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="34">
         <v>-0.03</v>
       </c>
-      <c r="D13" s="85"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="39" t="s">
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="35">
         <v>2.5</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="38" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="34">
         <v>-0.1</v>
       </c>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="39" t="s">
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="35">
         <v>24</v>
       </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="38" t="s">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="34">
         <v>20</v>
       </c>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="39" t="s">
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="35">
         <v>15</v>
       </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="38" t="s">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="34">
         <v>10</v>
       </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="39" t="s">
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="35">
         <v>5</v>
       </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="38" t="s">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="34">
         <v>26</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="E21" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="39" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="35">
         <v>24</v>
       </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="38" t="s">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="34">
         <v>25</v>
       </c>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="39" t="s">
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="35">
         <v>5</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="83" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="34">
         <v>25</v>
       </c>
-      <c r="D25" s="85"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="39" t="s">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="35">
         <v>-0.03</v>
       </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="86" t="s">
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="87">
+      <c r="C27" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="61">
         <v>-0.09</v>
       </c>
-      <c r="D27" s="88"/>
+      <c r="E27" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3132,598 +3602,598 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="72"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="51" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="72"/>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="34">
         <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="72"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="72"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="47" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="72"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="47" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="72"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="47" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="72"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="51" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
-      <c r="B10" s="77" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="34">
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="72"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="47" t="s">
+      <c r="A11" s="80"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="47" t="s">
+      <c r="A12" s="80"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="47" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="47" t="s">
+      <c r="A14" s="80"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="72"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="51" t="s">
+      <c r="A15" s="80"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="72"/>
-      <c r="B16" s="77" t="s">
+      <c r="A16" s="80"/>
+      <c r="B16" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="34">
         <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="47" t="s">
+      <c r="A17" s="80"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="47" t="s">
+      <c r="A18" s="80"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="47" t="s">
+      <c r="A19" s="80"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="47" t="s">
+      <c r="A20" s="80"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="73"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="53" t="s">
+      <c r="A21" s="81"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="72"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="51" t="s">
+      <c r="A23" s="80"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E23" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="72"/>
-      <c r="B24" s="77" t="s">
+      <c r="A24" s="80"/>
+      <c r="B24" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="34">
         <v>2.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="72"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="47" t="s">
+      <c r="A25" s="80"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="72"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="47" t="s">
+      <c r="A26" s="80"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="47" t="s">
+      <c r="A27" s="80"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="47" t="s">
+      <c r="A28" s="80"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="47" t="s">
+      <c r="A29" s="80"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="72"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="51" t="s">
+      <c r="A30" s="80"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="72"/>
-      <c r="B31" s="77" t="s">
+      <c r="A31" s="80"/>
+      <c r="B31" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="34">
         <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="72"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="47" t="s">
+      <c r="A32" s="80"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="47" t="s">
+      <c r="A33" s="80"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="47" t="s">
+      <c r="A34" s="80"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="47" t="s">
+      <c r="A35" s="80"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="72"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="47" t="s">
+      <c r="A36" s="80"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="72"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="51" t="s">
+      <c r="A37" s="80"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
-      <c r="B38" s="77" t="s">
+      <c r="A38" s="80"/>
+      <c r="B38" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="40">
+      <c r="E38" s="34">
         <v>2.5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="47" t="s">
+      <c r="A39" s="80"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="47" t="s">
+      <c r="A40" s="80"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="42" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="72"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="47" t="s">
+      <c r="A41" s="80"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="72"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="47" t="s">
+      <c r="A42" s="80"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="47" t="s">
+      <c r="A43" s="80"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="72"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="47" t="s">
+      <c r="A44" s="80"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="20" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3748,7 +4218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EED9BCF-AC84-402D-B7FA-16D351A40D85}">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3757,10 +4227,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="78"/>
     </row>
     <row r="3" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
@@ -3782,7 +4252,7 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="16">
         <v>2</v>
       </c>
     </row>
@@ -3795,7 +4265,7 @@
       </c>
     </row>
     <row r="7" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="3">

--- a/Resources/Metadata.xlsx
+++ b/Resources/Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/anthi182_ulaval_ca/Documents/Documents/GitHub/Ro2_data_worflow/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peisa\Documents\GitHub\EVAP_data_worflow\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="13_ncr:1_{44F9FDD3-D468-48CE-9F9B-3166823F5CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4151B120-129D-4234-B13F-CBB9E0596F66}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C442D26B-0E19-42CE-BE8C-E84AB63E4583}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
+    <workbookView xWindow="-27525" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,10 @@
     <sheet name="Foret" sheetId="5" r:id="rId6"/>
     <sheet name="Foret_neige" sheetId="11" r:id="rId7"/>
     <sheet name="Natashquan" sheetId="7" r:id="rId8"/>
+    <sheet name="Juvenile" sheetId="12" r:id="rId9"/>
+    <sheet name="Sapling" sheetId="13" r:id="rId10"/>
+    <sheet name="Regeneration" sheetId="14" r:id="rId11"/>
+    <sheet name="Neige" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="131">
   <si>
     <t>Instrument</t>
   </si>
@@ -1262,6 +1266,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1281,12 +1294,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1316,14 +1323,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1347,9 +1351,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1387,7 +1391,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1493,7 +1497,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1635,7 +1639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1645,31 +1649,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE44D4E6-1DC8-5846-9613-DEB0E908B686}">
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.9140625" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
     <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="25.375" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="70" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>50.653801000000001</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1703,7 @@
         <v>-63.259498600000001</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
@@ -1709,7 +1715,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
@@ -1733,7 +1739,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>5</v>
       </c>
@@ -1745,7 +1751,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>92</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>7</v>
       </c>
@@ -1771,7 +1777,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>30</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
         <v>8</v>
       </c>
@@ -1797,7 +1803,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
         <v>21</v>
       </c>
@@ -1809,7 +1815,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="30" t="s">
         <v>9</v>
       </c>
@@ -1821,21 +1827,21 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="73" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
       <c r="C16" s="18" t="s">
         <v>34</v>
@@ -1847,7 +1853,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
         <v>5</v>
       </c>
@@ -1871,32 +1877,618 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEA2BDB-C3E1-44CB-9C55-0D4DAE7C9E21}">
+  <dimension ref="B1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="25.375" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="G2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="8">
+        <v>50.653801000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-63.259498600000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="19">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="20">
+        <v>7.25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19">
+        <v>7.25</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="20">
+        <v>7.25</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="20">
+        <v>6.3</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="26">
+        <v>26</v>
+      </c>
+      <c r="D17" s="26">
+        <v>-13.6</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B15:E15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC421A3-3246-4411-B419-5D8153201591}">
+  <dimension ref="B1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="G2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="15">
+        <v>50.861454700000003</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-63.389840900000003</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="20">
+        <v>4.3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="20">
+        <v>4.3</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3.9</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="19">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="55">
+        <v>1</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="26">
+        <v>-37.5</v>
+      </c>
+      <c r="D17" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="E17" s="12">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B15:E15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408C8F62-9799-4BD2-83D2-D7B5BA3D880C}">
+  <dimension ref="B1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="G2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="8">
+        <v>50.688999199999998</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-63.2494011</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="20">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="26">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="26">
+        <v>85</v>
+      </c>
+      <c r="D10" s="26">
+        <v>-10</v>
+      </c>
+      <c r="E10" s="12">
+        <v>-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B8:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE247F88-6DDE-433E-81AC-06E8044E24FC}">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="12.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="73" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
@@ -1904,7 +2496,7 @@
         <v>50.688999199999998</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -1922,7 +2514,7 @@
         <v>-63.2494011</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
@@ -1936,7 +2528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
@@ -1948,7 +2540,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
@@ -1958,16 +2550,16 @@
       </c>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="73" t="s">
+    <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="21"/>
       <c r="C9" s="18" t="s">
         <v>43</v>
@@ -1979,7 +2571,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>42</v>
       </c>
@@ -2009,25 +2601,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="24.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="73" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
       <c r="F2" s="7" t="s">
         <v>22</v>
       </c>
@@ -2035,7 +2627,7 @@
         <v>50.689498899999997</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2644,7 @@
         <v>-63.249698600000002</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>17</v>
       </c>
@@ -2063,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>17</v>
       </c>
@@ -2074,7 +2666,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
@@ -2085,7 +2677,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -2096,7 +2688,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
@@ -2107,7 +2699,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
         <v>17</v>
       </c>
@@ -2118,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
@@ -2129,7 +2721,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
         <v>17</v>
       </c>
@@ -2140,7 +2732,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>17</v>
       </c>
@@ -2151,7 +2743,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
         <v>17</v>
       </c>
@@ -2162,7 +2754,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
@@ -2173,7 +2765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
         <v>17</v>
       </c>
@@ -2184,7 +2776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -2195,7 +2787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>17</v>
       </c>
@@ -2206,7 +2798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
@@ -2217,7 +2809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>17</v>
       </c>
@@ -2228,7 +2820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>17</v>
       </c>
@@ -2239,7 +2831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
         <v>17</v>
       </c>
@@ -2250,7 +2842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
@@ -2261,7 +2853,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="25" t="s">
         <v>18</v>
       </c>
@@ -2272,13 +2864,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="73" t="s">
+    <row r="24" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
       <c r="F25" s="39" t="s">
         <v>22</v>
       </c>
@@ -2286,7 +2878,7 @@
         <v>50.6753006</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
         <v>0</v>
       </c>
@@ -2303,7 +2895,7 @@
         <v>-63.2527008</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>17</v>
       </c>
@@ -2314,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="s">
         <v>17</v>
       </c>
@@ -2325,7 +2917,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>17</v>
       </c>
@@ -2336,7 +2928,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="23" t="s">
         <v>17</v>
       </c>
@@ -2347,7 +2939,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>17</v>
       </c>
@@ -2358,7 +2950,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="s">
         <v>17</v>
       </c>
@@ -2369,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
@@ -2380,7 +2972,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>17</v>
       </c>
@@ -2391,7 +2983,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="24" t="s">
         <v>17</v>
       </c>
@@ -2402,7 +2994,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
         <v>17</v>
       </c>
@@ -2413,7 +3005,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="24" t="s">
         <v>17</v>
       </c>
@@ -2424,7 +3016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="23" t="s">
         <v>17</v>
       </c>
@@ -2435,7 +3027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="24" t="s">
         <v>17</v>
       </c>
@@ -2446,7 +3038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="23" t="s">
         <v>17</v>
       </c>
@@ -2457,7 +3049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="24" t="s">
         <v>17</v>
       </c>
@@ -2468,7 +3060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="23" t="s">
         <v>17</v>
       </c>
@@ -2479,7 +3071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
@@ -2490,7 +3082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="23" t="s">
         <v>17</v>
       </c>
@@ -2501,7 +3093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
         <v>17</v>
       </c>
@@ -2512,7 +3104,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="23" t="s">
         <v>17</v>
       </c>
@@ -2523,7 +3115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="24" t="s">
         <v>17</v>
       </c>
@@ -2534,7 +3126,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="23" t="s">
         <v>17</v>
       </c>
@@ -2545,7 +3137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="24" t="s">
         <v>17</v>
       </c>
@@ -2556,7 +3148,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="23" t="s">
         <v>17</v>
       </c>
@@ -2567,7 +3159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="24" t="s">
         <v>17</v>
       </c>
@@ -2578,7 +3170,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="23" t="s">
         <v>17</v>
       </c>
@@ -2589,7 +3181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
@@ -2600,7 +3192,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="23" t="s">
         <v>17</v>
       </c>
@@ -2611,7 +3203,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="24" t="s">
         <v>17</v>
       </c>
@@ -2622,7 +3214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="23" t="s">
         <v>17</v>
       </c>
@@ -2633,7 +3225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="30" t="s">
         <v>18</v>
       </c>
@@ -2657,25 +3249,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1D1867-B0BA-4CF9-B964-CDDBB5D9DD8C}">
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="70" t="s">
+    <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
       <c r="G2" s="29" t="s">
         <v>22</v>
       </c>
@@ -2683,7 +3277,7 @@
         <v>50.861454700000003</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -2703,7 +3297,7 @@
         <v>-63.389840900000003</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
@@ -2715,7 +3309,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
@@ -2729,7 +3323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
@@ -2739,7 +3333,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>5</v>
       </c>
@@ -2751,7 +3345,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
@@ -2765,7 +3359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>30</v>
       </c>
@@ -2777,7 +3371,7 @@
       </c>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>31</v>
       </c>
@@ -2789,7 +3383,7 @@
       </c>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
         <v>21</v>
       </c>
@@ -2801,7 +3395,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
@@ -2813,7 +3407,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="54" t="s">
         <v>83</v>
       </c>
@@ -2827,16 +3421,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="73" t="s">
+    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
       <c r="C16" s="18" t="s">
         <v>34</v>
@@ -2848,7 +3442,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
         <v>5</v>
       </c>
@@ -2875,21 +3469,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BF41A8-026E-451A-9D63-213454538E4C}">
   <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="73" t="s">
+    <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
       <c r="F2" s="39" t="s">
         <v>22</v>
       </c>
@@ -2897,7 +3491,7 @@
         <v>50.860754999999997</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -2914,7 +3508,7 @@
         <v>-63.389910999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>50</v>
       </c>
@@ -2925,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>50</v>
       </c>
@@ -2936,7 +3530,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>50</v>
       </c>
@@ -2947,7 +3541,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>50</v>
       </c>
@@ -2958,7 +3552,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>50</v>
       </c>
@@ -2969,7 +3563,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
         <v>50</v>
       </c>
@@ -2980,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>50</v>
       </c>
@@ -2991,7 +3585,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
         <v>50</v>
       </c>
@@ -3002,7 +3596,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>50</v>
       </c>
@@ -3013,7 +3607,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
         <v>50</v>
       </c>
@@ -3024,7 +3618,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>50</v>
       </c>
@@ -3035,7 +3629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
         <v>50</v>
       </c>
@@ -3046,7 +3640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>50</v>
       </c>
@@ -3057,7 +3651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>50</v>
       </c>
@@ -3068,7 +3662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>50</v>
       </c>
@@ -3079,7 +3673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>50</v>
       </c>
@@ -3090,7 +3684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>50</v>
       </c>
@@ -3101,7 +3695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
         <v>50</v>
       </c>
@@ -3112,7 +3706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>50</v>
       </c>
@@ -3123,7 +3717,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
         <v>50</v>
       </c>
@@ -3134,7 +3728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
         <v>18</v>
       </c>
@@ -3157,27 +3751,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE59413-D9F3-44A1-88DC-A59245E9D9B8}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.08203125" customWidth="1"/>
+    <col min="5" max="5" width="35.125" customWidth="1"/>
     <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="70" t="s">
+    <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
       <c r="G2" s="39" t="s">
         <v>22</v>
       </c>
@@ -3185,7 +3781,7 @@
         <v>50.9020996</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3205,7 +3801,7 @@
         <v>-63.405101799999997</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
@@ -3217,11 +3813,11 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="70" t="s">
         <v>123</v>
       </c>
       <c r="D5" s="37">
@@ -3230,18 +3826,18 @@
       <c r="E5" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="71" t="s">
         <v>123</v>
       </c>
       <c r="D6" s="58">
@@ -3261,7 +3857,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>88</v>
       </c>
@@ -3287,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>89</v>
       </c>
@@ -3313,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B9" s="32" t="s">
         <v>97</v>
       </c>
@@ -3339,11 +3935,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="72" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="35">
@@ -3365,7 +3961,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>90</v>
       </c>
@@ -3379,7 +3975,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
         <v>91</v>
       </c>
@@ -3393,7 +3989,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>14</v>
       </c>
@@ -3405,7 +4001,7 @@
       </c>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="33" t="s">
         <v>92</v>
       </c>
@@ -3419,7 +4015,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
         <v>15</v>
       </c>
@@ -3431,7 +4027,7 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
         <v>8</v>
       </c>
@@ -3443,7 +4039,7 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
         <v>12</v>
       </c>
@@ -3455,7 +4051,7 @@
       </c>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
         <v>12</v>
       </c>
@@ -3467,7 +4063,7 @@
       </c>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>12</v>
       </c>
@@ -3479,7 +4075,7 @@
       </c>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
         <v>12</v>
       </c>
@@ -3491,7 +4087,7 @@
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
         <v>13</v>
       </c>
@@ -3505,7 +4101,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>21</v>
       </c>
@@ -3517,7 +4113,7 @@
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>7</v>
       </c>
@@ -3529,7 +4125,7 @@
       </c>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
         <v>7</v>
       </c>
@@ -3543,7 +4139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
         <v>9</v>
       </c>
@@ -3555,7 +4151,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="s">
         <v>24</v>
       </c>
@@ -3567,7 +4163,7 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="60" t="s">
         <v>25</v>
       </c>
@@ -3594,14 +4190,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>82</v>
       </c>
@@ -3618,11 +4214,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+    <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="84" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="49" t="s">
@@ -3635,9 +4231,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="80"/>
-      <c r="B3" s="84"/>
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="81"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="45" t="s">
         <v>55</v>
       </c>
@@ -3648,9 +4244,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="80"/>
-      <c r="B4" s="85" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="81"/>
+      <c r="B4" s="86" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -3663,9 +4259,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="80"/>
-      <c r="B5" s="86"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="41" t="s">
         <v>62</v>
       </c>
@@ -3676,9 +4272,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="80"/>
-      <c r="B6" s="86"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="81"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="41" t="s">
         <v>60</v>
       </c>
@@ -3689,9 +4285,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="80"/>
-      <c r="B7" s="86"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="81"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="41" t="s">
         <v>55</v>
       </c>
@@ -3702,9 +4298,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="80"/>
-      <c r="B8" s="86"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="81"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="41" t="s">
         <v>54</v>
       </c>
@@ -3715,9 +4311,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="80"/>
-      <c r="B9" s="84"/>
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="81"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="45" t="s">
         <v>52</v>
       </c>
@@ -3728,9 +4324,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="80"/>
-      <c r="B10" s="85" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="81"/>
+      <c r="B10" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="43" t="s">
@@ -3743,9 +4339,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="80"/>
-      <c r="B11" s="86"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="81"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="41" t="s">
         <v>62</v>
       </c>
@@ -3756,9 +4352,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="80"/>
-      <c r="B12" s="86"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="81"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="41" t="s">
         <v>60</v>
       </c>
@@ -3769,9 +4365,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="80"/>
-      <c r="B13" s="86"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="81"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="41" t="s">
         <v>55</v>
       </c>
@@ -3782,9 +4378,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="80"/>
-      <c r="B14" s="86"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="81"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="41" t="s">
         <v>54</v>
       </c>
@@ -3795,9 +4391,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="80"/>
-      <c r="B15" s="84"/>
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="81"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="45" t="s">
         <v>52</v>
       </c>
@@ -3808,9 +4404,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="80"/>
-      <c r="B16" s="85" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="86" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="43" t="s">
@@ -3823,9 +4419,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="80"/>
-      <c r="B17" s="86"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="41" t="s">
         <v>62</v>
       </c>
@@ -3836,9 +4432,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="80"/>
-      <c r="B18" s="86"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="81"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="41" t="s">
         <v>60</v>
       </c>
@@ -3849,9 +4445,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="80"/>
-      <c r="B19" s="86"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="81"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="41" t="s">
         <v>55</v>
       </c>
@@ -3862,9 +4458,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="80"/>
-      <c r="B20" s="86"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="81"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="41" t="s">
         <v>54</v>
       </c>
@@ -3875,9 +4471,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="81"/>
-      <c r="B21" s="87"/>
+    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="82"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="47" t="s">
         <v>52</v>
       </c>
@@ -3888,11 +4484,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="82" t="s">
+    <row r="22" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="86" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="43" t="s">
@@ -3905,9 +4501,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="80"/>
-      <c r="B23" s="84"/>
+    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="81"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="45" t="s">
         <v>55</v>
       </c>
@@ -3918,9 +4514,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="80"/>
-      <c r="B24" s="85" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="81"/>
+      <c r="B24" s="86" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -3933,9 +4529,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="80"/>
-      <c r="B25" s="86"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="81"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="41" t="s">
         <v>62</v>
       </c>
@@ -3946,9 +4542,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="80"/>
-      <c r="B26" s="86"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="81"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="41" t="s">
         <v>60</v>
       </c>
@@ -3959,9 +4555,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="80"/>
-      <c r="B27" s="86"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="81"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="41" t="s">
         <v>57</v>
       </c>
@@ -3972,9 +4568,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="80"/>
-      <c r="B28" s="86"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="81"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="41" t="s">
         <v>55</v>
       </c>
@@ -3985,9 +4581,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="80"/>
-      <c r="B29" s="86"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="81"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="41" t="s">
         <v>54</v>
       </c>
@@ -3998,9 +4594,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="80"/>
-      <c r="B30" s="84"/>
+    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="81"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="45" t="s">
         <v>52</v>
       </c>
@@ -4011,9 +4607,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="80"/>
-      <c r="B31" s="85" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="81"/>
+      <c r="B31" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="43" t="s">
@@ -4026,9 +4622,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="80"/>
-      <c r="B32" s="86"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="81"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="41" t="s">
         <v>62</v>
       </c>
@@ -4039,9 +4635,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="80"/>
-      <c r="B33" s="86"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="81"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="41" t="s">
         <v>60</v>
       </c>
@@ -4052,9 +4648,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="80"/>
-      <c r="B34" s="86"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="81"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="41" t="s">
         <v>57</v>
       </c>
@@ -4065,9 +4661,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="80"/>
-      <c r="B35" s="86"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="81"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="41" t="s">
         <v>55</v>
       </c>
@@ -4078,9 +4674,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="80"/>
-      <c r="B36" s="86"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="81"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="41" t="s">
         <v>54</v>
       </c>
@@ -4091,9 +4687,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="80"/>
-      <c r="B37" s="84"/>
+    <row r="37" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="81"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="45" t="s">
         <v>52</v>
       </c>
@@ -4104,9 +4700,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="80"/>
-      <c r="B38" s="85" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="81"/>
+      <c r="B38" s="86" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -4119,9 +4715,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="80"/>
-      <c r="B39" s="86"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="81"/>
+      <c r="B39" s="87"/>
       <c r="C39" s="41" t="s">
         <v>62</v>
       </c>
@@ -4132,9 +4728,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="80"/>
-      <c r="B40" s="86"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="81"/>
+      <c r="B40" s="87"/>
       <c r="C40" s="41" t="s">
         <v>60</v>
       </c>
@@ -4145,9 +4741,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="80"/>
-      <c r="B41" s="86"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="81"/>
+      <c r="B41" s="87"/>
       <c r="C41" s="41" t="s">
         <v>57</v>
       </c>
@@ -4158,9 +4754,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="80"/>
-      <c r="B42" s="86"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="81"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="41" t="s">
         <v>55</v>
       </c>
@@ -4171,9 +4767,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="80"/>
-      <c r="B43" s="86"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="81"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="41" t="s">
         <v>54</v>
       </c>
@@ -4184,9 +4780,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="80"/>
-      <c r="B44" s="86"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="81"/>
+      <c r="B44" s="87"/>
       <c r="C44" s="41" t="s">
         <v>52</v>
       </c>
@@ -4218,21 +4814,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EED9BCF-AC84-402D-B7FA-16D351A40D85}">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="77" t="s">
+    <row r="1" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="78"/>
-    </row>
-    <row r="3" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="90"/>
+    </row>
+    <row r="3" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -4240,7 +4836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -4248,7 +4844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -4256,7 +4852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
@@ -4264,7 +4860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4278,4 +4874,441 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87885471-7CC2-479B-9C76-A0AAB2D0375D}">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.125" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="G2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="40">
+        <v>50.9020996</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-63.405101799999997</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="19">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="37">
+        <v>24</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="58">
+        <v>24</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="34">
+        <v>24</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="20">
+        <v>-10</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="35">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="19">
+        <v>10</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="34">
+        <v>24</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="20">
+        <v>-46</v>
+      </c>
+      <c r="I9" s="20">
+        <v>-16</v>
+      </c>
+      <c r="J9" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="35">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="26">
+        <v>6.5</v>
+      </c>
+      <c r="I10" s="26">
+        <v>33.5</v>
+      </c>
+      <c r="J10" s="12">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="34">
+        <v>24</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="35">
+        <v>24</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="34">
+        <v>-0.03</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="34">
+        <v>-0.1</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="35">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="34">
+        <v>20</v>
+      </c>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="35">
+        <v>15</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="34">
+        <v>10</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="35">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="34">
+        <v>26</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="35">
+        <v>24</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="34">
+        <v>25</v>
+      </c>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="35">
+        <v>5</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="34">
+        <v>25</v>
+      </c>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="35">
+        <v>-0.03</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="61">
+        <v>-0.09</v>
+      </c>
+      <c r="E27" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resources/Metadata.xlsx
+++ b/Resources/Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peisa\Documents\GitHub\EVAP_data_worflow\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C442D26B-0E19-42CE-BE8C-E84AB63E4583}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6983D7D3-A322-4149-A22B-9F8F3383839B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27525" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
+    <workbookView xWindow="-23340" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge" sheetId="3" r:id="rId1"/>
@@ -25,27 +25,23 @@
     <sheet name="Sapling" sheetId="13" r:id="rId10"/>
     <sheet name="Regeneration" sheetId="14" r:id="rId11"/>
     <sheet name="Neige" sheetId="15" r:id="rId12"/>
+    <sheet name="Juvenile_Schematics_2015_2020" sheetId="17" r:id="rId13"/>
+    <sheet name="Juvenile_Schematics_2021" sheetId="16" r:id="rId14"/>
+    <sheet name="Sapling_Schematics_2015_2022" sheetId="18" r:id="rId15"/>
+    <sheet name="Sapling Schematics_2023" sheetId="19" r:id="rId16"/>
+    <sheet name="Regeneration_Schematics_2024" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="242">
   <si>
     <t>Instrument</t>
   </si>
@@ -440,15 +436,356 @@
   </si>
   <si>
     <t>Soil temperature sensor</t>
+  </si>
+  <si>
+    <t>Juvenile</t>
+  </si>
+  <si>
+    <t>Schematics Juvenile, EVAP2 (65 ft)</t>
+  </si>
+  <si>
+    <t>TOWER</t>
+  </si>
+  <si>
+    <t>Instruments</t>
+  </si>
+  <si>
+    <t>Height (ft)</t>
+  </si>
+  <si>
+    <t>Height slope-normal (m)</t>
+  </si>
+  <si>
+    <t>T/RH</t>
+  </si>
+  <si>
+    <t>WS/WD</t>
+  </si>
+  <si>
+    <t>Radiation</t>
+  </si>
+  <si>
+    <t>Fluxes</t>
+  </si>
+  <si>
+    <t>Schematics Juvenile, EVAP1 (50 ft)</t>
+  </si>
+  <si>
+    <t>Schematics Sapling, EVAP1 (UT30)</t>
+  </si>
+  <si>
+    <t>Schematics Sapling, EVAP2 (50 ft)</t>
+  </si>
+  <si>
+    <t>Schematics Regeneration, EVAP2 (UT30)</t>
+  </si>
+  <si>
+    <t>*** CNR4 is installed on a tirpod away from the clearing made for the tower.</t>
+  </si>
+  <si>
+    <t>HCS 1</t>
+  </si>
+  <si>
+    <t>HCS 2</t>
+  </si>
+  <si>
+    <t>HCS 3</t>
+  </si>
+  <si>
+    <t>HCS 4</t>
+  </si>
+  <si>
+    <t>RMY 1</t>
+  </si>
+  <si>
+    <t>RMY 2</t>
+  </si>
+  <si>
+    <t>JSE</t>
+  </si>
+  <si>
+    <t>JNO</t>
+  </si>
+  <si>
+    <t>JNO , JSE</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>HCS</t>
+  </si>
+  <si>
+    <t>RMY</t>
+  </si>
+  <si>
+    <t>R***</t>
+  </si>
+  <si>
+    <t>*** Same height for both IRGASON and CPEC</t>
+  </si>
+  <si>
+    <t>Sapling</t>
+  </si>
+  <si>
+    <t>Elevation</t>
+  </si>
+  <si>
+    <t>Tree height</t>
+  </si>
+  <si>
+    <t>856 m</t>
+  </si>
+  <si>
+    <t>8-12 m</t>
+  </si>
+  <si>
+    <t>806 m</t>
+  </si>
+  <si>
+    <t>4-8 m</t>
+  </si>
+  <si>
+    <t>788 m</t>
+  </si>
+  <si>
+    <t>1-2 m</t>
+  </si>
+  <si>
+    <t>666 m</t>
+  </si>
+  <si>
+    <t>0 m</t>
+  </si>
+  <si>
+    <t>14 / 18.6</t>
+  </si>
+  <si>
+    <t>Height changed on 2020-10-01</t>
+  </si>
+  <si>
+    <t>IRGASON (northwest)</t>
+  </si>
+  <si>
+    <t>IRGASON (southeast)</t>
+  </si>
+  <si>
+    <t>14.6 / 17.7</t>
+  </si>
+  <si>
+    <t>PTB110 (northwest)</t>
+  </si>
+  <si>
+    <t>PTB110 (southeast)</t>
+  </si>
+  <si>
+    <t>Orientation: 302.5°. Height changed on 2020-10-01</t>
+  </si>
+  <si>
+    <t>Orientation: 117.7°. Height changed on 2020-10-01</t>
+  </si>
+  <si>
+    <t>CS650_1</t>
+  </si>
+  <si>
+    <t>CS650_2</t>
+  </si>
+  <si>
+    <t>-0.04 / -0.02</t>
+  </si>
+  <si>
+    <t>Depth changed on 2023-07-18</t>
+  </si>
+  <si>
+    <t>-0.04 / -0.2</t>
+  </si>
+  <si>
+    <t>HFP01SC (2x)</t>
+  </si>
+  <si>
+    <t>Installed 2020-02-21</t>
+  </si>
+  <si>
+    <t>T200B Geonor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTES: </t>
+  </si>
+  <si>
+    <t>All soil instruments (HFP01SC, CS650, TCAV) were replaced and moved on 2023-07-18. Data was then stored on a independant CR1000X.</t>
+  </si>
+  <si>
+    <t>Scaffolding was raised from 50 feet to 65 feet on 2020-10-01, several instruments were also raised then.</t>
+  </si>
+  <si>
+    <t>TCAV (2x)</t>
+  </si>
+  <si>
+    <t>RMYoung 05103_1</t>
+  </si>
+  <si>
+    <t>RMYoung 05103_2</t>
+  </si>
+  <si>
+    <t>HCS_3</t>
+  </si>
+  <si>
+    <t>HCS_4</t>
+  </si>
+  <si>
+    <t>HCS_2</t>
+  </si>
+  <si>
+    <t>HCS_1</t>
+  </si>
+  <si>
+    <t>107 probe (northwest)</t>
+  </si>
+  <si>
+    <t>107 probe (southeast)</t>
+  </si>
+  <si>
+    <t>Temperature sensor</t>
+  </si>
+  <si>
+    <t>temperature sensor</t>
+  </si>
+  <si>
+    <t>3.4 / 4.6</t>
+  </si>
+  <si>
+    <t>5.8 / 9.1</t>
+  </si>
+  <si>
+    <t>11.0 / 13.7</t>
+  </si>
+  <si>
+    <t>15.2 / 18.3</t>
+  </si>
+  <si>
+    <t>Data logger</t>
+  </si>
+  <si>
+    <t>CR3000 (northeast, top)</t>
+  </si>
+  <si>
+    <t>CR3000 (soutwest, bottom)</t>
+  </si>
+  <si>
+    <t>CR1000X (soil, bottom)</t>
+  </si>
+  <si>
+    <t>Installed on 2027-07-18.</t>
+  </si>
+  <si>
+    <t>All soil instruments (HFP01SC, CS650, TCAV) were replaced and moved on 2023-07-19. Data was then stored on a independant CR1000X.</t>
+  </si>
+  <si>
+    <t>Depth changed on 2023-07-19</t>
+  </si>
+  <si>
+    <t>IRGASON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR3000 </t>
+  </si>
+  <si>
+    <t>CR1000X (soil)</t>
+  </si>
+  <si>
+    <t>107 probe</t>
+  </si>
+  <si>
+    <t>From 2015-12-27 to 2018-04-27</t>
+  </si>
+  <si>
+    <t>8.5 / 13.1</t>
+  </si>
+  <si>
+    <t>Installed on 2023-03-13.</t>
+  </si>
+  <si>
+    <t>UT30 tower was changed for a 50 feet scaffolding on 2022-11-15. Several instruments changed height then.</t>
+  </si>
+  <si>
+    <t>Height changed on 2022-11-15</t>
+  </si>
+  <si>
+    <t>Installed on 2023-07-19.</t>
+  </si>
+  <si>
+    <t>Orientation: 308.6° / 335°. Height and orientation changed on 2022-11-15</t>
+  </si>
+  <si>
+    <t>7.0 / 15.5</t>
+  </si>
+  <si>
+    <t>Installed on 2023-06-08</t>
+  </si>
+  <si>
+    <t>Regeneration</t>
+  </si>
+  <si>
+    <t>Station was installed on 2023-11-02.</t>
+  </si>
+  <si>
+    <t>CR6</t>
+  </si>
+  <si>
+    <t>CPEC</t>
+  </si>
+  <si>
+    <t>Closed-path CO2/H2O analyzer 
+and sonic anemometer</t>
+  </si>
+  <si>
+    <t>On a tripod away from the tower</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>Orientation: 270°</t>
+  </si>
+  <si>
+    <t>On a tripod.</t>
+  </si>
+  <si>
+    <t>Orientation: 230°</t>
+  </si>
+  <si>
+    <t>CR5000 (flux)</t>
+  </si>
+  <si>
+    <t>CR1000X (radiation)</t>
+  </si>
+  <si>
+    <t>Flux station was installed on 2021-11-09.</t>
+  </si>
+  <si>
+    <t>Neige</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -471,6 +808,31 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -508,7 +870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1165,11 +1527,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1220,7 +1641,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
@@ -1228,16 +1649,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1275,6 +1696,90 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="52" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="53" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="54" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1296,31 +1801,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1329,9 +1834,70 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CD75930C-F0BD-42CF-84E2-7F175C037988}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1344,6 +1910,898 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>727364</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Groupe 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0DD0EB2-A62D-4041-A1FC-BD5D5034C284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3399311" y="5235038"/>
+          <a:ext cx="893124" cy="5143500"/>
+          <a:chOff x="3065318" y="5264727"/>
+          <a:chExt cx="1004455" cy="5143500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE570D48-60CC-4DB7-A62B-380CCDF5979D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3463636" y="9213273"/>
+            <a:ext cx="207819" cy="1194954"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Triangle isocèle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C839F8D-2C64-46B6-A78B-2830A7D6E2C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3065318" y="5264727"/>
+            <a:ext cx="1004455" cy="4000500"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>727364</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Groupe 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B1D7CC-012D-4DA1-8619-93B94E751560}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3099954" y="6759039"/>
+          <a:ext cx="893124" cy="6476999"/>
+          <a:chOff x="3065318" y="5264727"/>
+          <a:chExt cx="1004455" cy="5143500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B45C55-8313-4BC1-B694-CFC413F19A38}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3463636" y="9213273"/>
+            <a:ext cx="207819" cy="1194954"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Triangle isocèle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB66AEB-B946-472D-BE3B-41659A741941}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3065318" y="5264727"/>
+            <a:ext cx="1004455" cy="4000500"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>727364</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>173180</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Groupe 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689DBAD5-8CFA-4043-AEFF-0DFC4A5861F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1780061" y="3565070"/>
+          <a:ext cx="893124" cy="3003467"/>
+          <a:chOff x="3065318" y="5264727"/>
+          <a:chExt cx="1004455" cy="5143500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E262E0-ADCD-4ABF-B228-D1656142E1C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3463636" y="9213273"/>
+            <a:ext cx="207819" cy="1194954"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Triangle isocèle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5EB9687-5298-4820-9928-1CA950B44841}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3065318" y="5264727"/>
+            <a:ext cx="1004455" cy="4000500"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4" descr="UT30 30 ft Universal Tower with Adjustable Mast">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AB4A2E-33B7-48A9-8DF6-E25120200EE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2928257" y="0"/>
+          <a:ext cx="312964" cy="6581775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>727364</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Groupe 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715D8000-6473-4D35-B603-8C12934C419F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1780061" y="6858000"/>
+          <a:ext cx="893124" cy="3901538"/>
+          <a:chOff x="3065318" y="5264727"/>
+          <a:chExt cx="1004455" cy="5143500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DFD8E7-2A19-4355-8835-91F3969B73D2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3463636" y="9213273"/>
+            <a:ext cx="207819" cy="1194954"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Triangle isocèle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A108AF7-0A3E-4FAE-964F-CF2EDB967477}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3065318" y="5264727"/>
+            <a:ext cx="1004455" cy="4000500"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>201632</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>173180</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Groupe 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CFA197C-CCC3-43EB-BFF6-20446E8B7331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2147453" y="6109607"/>
+          <a:ext cx="288225" cy="458930"/>
+          <a:chOff x="3065318" y="5264727"/>
+          <a:chExt cx="1004455" cy="5143500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3979DA7A-3C76-4F54-ADB2-196FE8D01B65}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3463636" y="9213273"/>
+            <a:ext cx="207819" cy="1194954"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Triangle isocèle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C26E90-CD3C-4F66-8F8C-02B8D4786300}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3065318" y="5264727"/>
+            <a:ext cx="1004455" cy="4000500"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4" descr="UT30 30 ft Universal Tower with Adjustable Mast">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C51AC2-536E-44EC-911D-BBBD69805F16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2928257" y="0"/>
+          <a:ext cx="312964" cy="6581775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1649,9 +3107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE44D4E6-1DC8-5846-9613-DEB0E908B686}">
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1670,12 +3126,12 @@
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
@@ -1834,12 +3290,12 @@
       <c r="J14" s="28"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="136"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
@@ -1872,25 +3328,23 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B15:E15"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEA2BDB-C3E1-44CB-9C55-0D4DAE7C9E21}">
-  <dimension ref="B1:J17"/>
+  <dimension ref="B1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
     <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="25.375" customWidth="1"/>
@@ -1902,207 +3356,313 @@
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-      <c r="G2" s="7" t="s">
+      <c r="B2" s="131" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="G2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="8">
-        <v>50.653801000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="128">
+        <v>47.284790000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3">
-        <v>-63.259498600000001</v>
+      <c r="H3" s="129">
+        <v>-71.151439999999994</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="151" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="152" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="171" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="123" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C5" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="19">
-        <v>8</v>
-      </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="D5" s="172" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="124" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="157" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="152" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="172">
+        <v>1</v>
+      </c>
+      <c r="E6" s="153" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="157" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="152" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="172">
         <v>2</v>
       </c>
-      <c r="C5" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="20">
-        <v>7.25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19">
-        <v>7.25</v>
-      </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="20">
-        <v>7.25</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="153"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>106</v>
+      <c r="B8" s="157" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="152" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="173" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="160" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="20">
-        <v>6.3</v>
-      </c>
-      <c r="E9" s="1"/>
+      <c r="B9" s="157" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="152" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="173" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="160" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="157" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="152" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="19">
-        <v>5.2</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>28</v>
-      </c>
+      <c r="D10" s="172">
+        <v>2.1</v>
+      </c>
+      <c r="E10" s="159"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="20">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E11" s="1"/>
+      <c r="B11" s="157" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="152" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="172">
+        <v>5.3</v>
+      </c>
+      <c r="E11" s="159" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="44">
-        <v>0.9</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="157" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="152" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="172">
+        <v>9.1</v>
+      </c>
+      <c r="E12" s="159" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="157" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="152" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="172">
+        <v>12.9</v>
+      </c>
+      <c r="E13" s="159" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="157" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="172">
+        <v>-0.08</v>
+      </c>
+      <c r="E14" s="153"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
+    <row r="15" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="157" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="158" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="171" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="159" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="26">
-        <v>26</v>
-      </c>
-      <c r="D17" s="26">
-        <v>-13.6</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="B16" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="152" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="171" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="159" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="157" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="172">
         <v>3</v>
       </c>
-    </row>
+      <c r="E17" s="160"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="157" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="172">
+        <v>14.9</v>
+      </c>
+      <c r="E18" s="160" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="157" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="152" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="172">
+        <v>2.5</v>
+      </c>
+      <c r="E19" s="160" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="161" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="162" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="174">
+        <v>-0.04</v>
+      </c>
+      <c r="E20" s="163"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+    </row>
+    <row r="24" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="169" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+    </row>
+    <row r="28" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <sortState ref="B4:E20">
+    <sortCondition ref="B4:B20"/>
+  </sortState>
+  <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2110,16 +3670,14 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC421A3-3246-4411-B419-5D8153201591}">
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
     <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
@@ -2127,202 +3685,228 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-      <c r="G2" s="29" t="s">
+      <c r="B2" s="131" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="G2" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="15">
-        <v>50.861454700000003</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="128">
+        <v>47.267270000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2">
-        <v>-63.389840900000003</v>
+      <c r="H3" s="129">
+        <v>-71.175120000000007</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="151" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="152" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="171">
+        <v>3.65</v>
+      </c>
+      <c r="E4" s="159"/>
+      <c r="G4" s="127" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="123" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C5" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="67" t="s">
+      <c r="D5" s="172">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="159" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="157" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="158" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="172">
+        <v>3.65</v>
+      </c>
+      <c r="E6" s="153" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="157" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="152" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="172">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="153"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="157" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="152" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="173" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="160"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="157" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="152" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="160"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="157" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="152" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="172">
+        <v>2.4</v>
+      </c>
+      <c r="E10" s="159"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="157" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="172">
+        <v>-0.08</v>
+      </c>
+      <c r="E11" s="153"/>
+    </row>
+    <row r="12" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="157" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="20">
-        <v>4.3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="20">
-        <v>4.3</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="D12" s="171">
+        <v>3.65</v>
+      </c>
+      <c r="E12" s="159" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="152" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="171">
+        <v>3.65</v>
+      </c>
+      <c r="E13" s="159"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="157" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="19">
-        <v>3.9</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="19">
-        <v>2</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="19">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="55">
-        <v>1</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="26">
-        <v>-37.5</v>
-      </c>
-      <c r="D17" s="26">
-        <v>5.5</v>
-      </c>
-      <c r="E17" s="12">
-        <v>7</v>
-      </c>
+      <c r="D14" s="172">
+        <v>5.4</v>
+      </c>
+      <c r="E14" s="160"/>
+    </row>
+    <row r="15" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="161" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="162" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="174">
+        <v>-0.04</v>
+      </c>
+      <c r="E15" s="163"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="168" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="168"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="169"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <sortState ref="B4:E15">
+    <sortCondition ref="B4:B15"/>
+  </sortState>
+  <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2330,11 +3914,4865 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408C8F62-9799-4BD2-83D2-D7B5BA3D880C}">
+  <dimension ref="B1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="131" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="G2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="40">
+        <v>47.322539999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="121">
+        <v>-71.151210000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="151" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="152" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="171">
+        <v>2.4</v>
+      </c>
+      <c r="E4" s="159"/>
+      <c r="G4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="152" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="172">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="159" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="157" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="152" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="172">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="153"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="157" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="152" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="173" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="160"/>
+    </row>
+    <row r="8" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="157" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="158" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="171">
+        <v>2.4</v>
+      </c>
+      <c r="E8" s="159" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="161" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="175">
+        <v>2.4</v>
+      </c>
+      <c r="E9" s="176"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="168" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE56C769-9962-4024-9DC3-A48D7248A933}">
+  <dimension ref="A1:N54"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="11" style="74"/>
+    <col min="3" max="3" width="21.25" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="74" customWidth="1"/>
+    <col min="5" max="9" width="11" style="75"/>
+    <col min="10" max="10" width="3.625" style="75" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="75" customWidth="1"/>
+    <col min="12" max="12" width="11" style="75"/>
+    <col min="13" max="13" width="9.25" style="75" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="75" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E2" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="74">
+        <v>50</v>
+      </c>
+      <c r="B4" s="76">
+        <f t="shared" ref="B4:B54" si="0">0.3048*A4</f>
+        <v>15.24</v>
+      </c>
+      <c r="C4" s="76">
+        <f>B4*COS(12*PI()/180)</f>
+        <v>14.906969435183198</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="74">
+        <v>49</v>
+      </c>
+      <c r="B5" s="76">
+        <f t="shared" si="0"/>
+        <v>14.9352</v>
+      </c>
+      <c r="C5" s="76">
+        <f t="shared" ref="C5:C54" si="1">B5*COS(12*PI()/180)</f>
+        <v>14.608830046479534</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="92"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="74">
+        <v>48</v>
+      </c>
+      <c r="B6" s="76">
+        <f t="shared" si="0"/>
+        <v>14.630400000000002</v>
+      </c>
+      <c r="C6" s="76">
+        <f t="shared" si="1"/>
+        <v>14.310690657775872</v>
+      </c>
+      <c r="D6" s="76"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="92"/>
+      <c r="L6" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6" s="75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="74">
+        <v>47</v>
+      </c>
+      <c r="B7" s="76">
+        <f t="shared" si="0"/>
+        <v>14.325600000000001</v>
+      </c>
+      <c r="C7" s="76">
+        <f t="shared" si="1"/>
+        <v>14.012551269072208</v>
+      </c>
+      <c r="D7" s="76"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="92"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="74">
+        <v>46</v>
+      </c>
+      <c r="B8" s="76">
+        <f t="shared" si="0"/>
+        <v>14.020800000000001</v>
+      </c>
+      <c r="C8" s="76">
+        <f t="shared" si="1"/>
+        <v>13.714411880368544</v>
+      </c>
+      <c r="D8" s="76"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="92"/>
+      <c r="M8" s="75" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="74">
+        <v>45</v>
+      </c>
+      <c r="B9" s="76">
+        <f t="shared" si="0"/>
+        <v>13.716000000000001</v>
+      </c>
+      <c r="C9" s="76">
+        <f t="shared" si="1"/>
+        <v>13.416272491664881</v>
+      </c>
+      <c r="D9" s="76"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="92"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="74">
+        <v>44</v>
+      </c>
+      <c r="B10" s="76">
+        <f t="shared" si="0"/>
+        <v>13.411200000000001</v>
+      </c>
+      <c r="C10" s="76">
+        <f t="shared" si="1"/>
+        <v>13.118133102961215</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="92"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="74">
+        <v>43</v>
+      </c>
+      <c r="B11" s="76">
+        <f t="shared" si="0"/>
+        <v>13.106400000000001</v>
+      </c>
+      <c r="C11" s="76">
+        <f t="shared" si="1"/>
+        <v>12.819993714257551</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="92"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="74">
+        <v>42</v>
+      </c>
+      <c r="B12" s="76">
+        <f t="shared" si="0"/>
+        <v>12.801600000000001</v>
+      </c>
+      <c r="C12" s="76">
+        <f t="shared" si="1"/>
+        <v>12.521854325553887</v>
+      </c>
+      <c r="D12" s="76"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="92"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="74">
+        <v>41</v>
+      </c>
+      <c r="B13" s="76">
+        <f t="shared" si="0"/>
+        <v>12.4968</v>
+      </c>
+      <c r="C13" s="76">
+        <f t="shared" si="1"/>
+        <v>12.223714936850223</v>
+      </c>
+      <c r="D13" s="76"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="92"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="74">
+        <v>40</v>
+      </c>
+      <c r="B14" s="76">
+        <f t="shared" si="0"/>
+        <v>12.192</v>
+      </c>
+      <c r="C14" s="76">
+        <f t="shared" si="1"/>
+        <v>11.92557554814656</v>
+      </c>
+      <c r="D14" s="76"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="92"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="74">
+        <v>39</v>
+      </c>
+      <c r="B15" s="76">
+        <f t="shared" si="0"/>
+        <v>11.8872</v>
+      </c>
+      <c r="C15" s="76">
+        <f t="shared" si="1"/>
+        <v>11.627436159442896</v>
+      </c>
+      <c r="D15" s="76"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="92"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="74">
+        <v>38</v>
+      </c>
+      <c r="B16" s="76">
+        <f t="shared" si="0"/>
+        <v>11.5824</v>
+      </c>
+      <c r="C16" s="76">
+        <f t="shared" si="1"/>
+        <v>11.32929677073923</v>
+      </c>
+      <c r="D16" s="76"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="92"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="74">
+        <v>37</v>
+      </c>
+      <c r="B17" s="76">
+        <f t="shared" si="0"/>
+        <v>11.277600000000001</v>
+      </c>
+      <c r="C17" s="76">
+        <f t="shared" si="1"/>
+        <v>11.031157382035568</v>
+      </c>
+      <c r="D17" s="76"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="92"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="74">
+        <v>36</v>
+      </c>
+      <c r="B18" s="76">
+        <f t="shared" si="0"/>
+        <v>10.972800000000001</v>
+      </c>
+      <c r="C18" s="76">
+        <f t="shared" si="1"/>
+        <v>10.733017993331904</v>
+      </c>
+      <c r="D18" s="76"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="74">
+        <v>35</v>
+      </c>
+      <c r="B19" s="76">
+        <f t="shared" si="0"/>
+        <v>10.668000000000001</v>
+      </c>
+      <c r="C19" s="76">
+        <f t="shared" si="1"/>
+        <v>10.43487860462824</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="92"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="74">
+        <v>34</v>
+      </c>
+      <c r="B20" s="76">
+        <f t="shared" si="0"/>
+        <v>10.363200000000001</v>
+      </c>
+      <c r="C20" s="76">
+        <f t="shared" si="1"/>
+        <v>10.136739215924576</v>
+      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="92"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="74">
+        <v>33</v>
+      </c>
+      <c r="B21" s="76">
+        <f t="shared" si="0"/>
+        <v>10.058400000000001</v>
+      </c>
+      <c r="C21" s="76">
+        <f t="shared" si="1"/>
+        <v>9.8385998272209125</v>
+      </c>
+      <c r="D21" s="76"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="92"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="74">
+        <v>32</v>
+      </c>
+      <c r="B22" s="76">
+        <f t="shared" si="0"/>
+        <v>9.7536000000000005</v>
+      </c>
+      <c r="C22" s="76">
+        <f t="shared" si="1"/>
+        <v>9.5404604385172469</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="92"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="74">
+        <v>31</v>
+      </c>
+      <c r="B23" s="76">
+        <f t="shared" si="0"/>
+        <v>9.4488000000000003</v>
+      </c>
+      <c r="C23" s="76">
+        <f t="shared" si="1"/>
+        <v>9.242321049813583</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="92"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="74">
+        <v>30</v>
+      </c>
+      <c r="B24" s="76">
+        <f t="shared" si="0"/>
+        <v>9.1440000000000001</v>
+      </c>
+      <c r="C24" s="76">
+        <f t="shared" si="1"/>
+        <v>8.9441816611099192</v>
+      </c>
+      <c r="D24" s="76"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="92"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="74">
+        <v>29</v>
+      </c>
+      <c r="B25" s="76">
+        <f t="shared" si="0"/>
+        <v>8.8391999999999999</v>
+      </c>
+      <c r="C25" s="76">
+        <f t="shared" si="1"/>
+        <v>8.6460422724062553</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="92"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="74">
+        <v>28</v>
+      </c>
+      <c r="B26" s="76">
+        <f t="shared" si="0"/>
+        <v>8.5343999999999998</v>
+      </c>
+      <c r="C26" s="76">
+        <f t="shared" si="1"/>
+        <v>8.3479028837025915</v>
+      </c>
+      <c r="D26" s="76"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="92"/>
+      <c r="L26" s="75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="74">
+        <v>27</v>
+      </c>
+      <c r="B27" s="76">
+        <f t="shared" si="0"/>
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="C27" s="76">
+        <f t="shared" si="1"/>
+        <v>8.0497634949989276</v>
+      </c>
+      <c r="D27" s="76"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="92"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="74">
+        <v>26</v>
+      </c>
+      <c r="B28" s="76">
+        <f t="shared" si="0"/>
+        <v>7.9248000000000003</v>
+      </c>
+      <c r="C28" s="76">
+        <f t="shared" si="1"/>
+        <v>7.7516241062952638</v>
+      </c>
+      <c r="D28" s="76"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="92"/>
+      <c r="M28" s="75" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="74">
+        <v>25</v>
+      </c>
+      <c r="B29" s="76">
+        <f t="shared" si="0"/>
+        <v>7.62</v>
+      </c>
+      <c r="C29" s="76">
+        <f t="shared" si="1"/>
+        <v>7.453484717591599</v>
+      </c>
+      <c r="D29" s="76"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="92"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="74">
+        <v>24</v>
+      </c>
+      <c r="B30" s="76">
+        <f t="shared" si="0"/>
+        <v>7.3152000000000008</v>
+      </c>
+      <c r="C30" s="76">
+        <f t="shared" si="1"/>
+        <v>7.1553453288879361</v>
+      </c>
+      <c r="D30" s="76"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="92"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="74">
+        <v>23</v>
+      </c>
+      <c r="B31" s="76">
+        <f t="shared" si="0"/>
+        <v>7.0104000000000006</v>
+      </c>
+      <c r="C31" s="76">
+        <f t="shared" si="1"/>
+        <v>6.8572059401842722</v>
+      </c>
+      <c r="D31" s="76"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="92"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="74">
+        <v>22</v>
+      </c>
+      <c r="B32" s="76">
+        <f t="shared" si="0"/>
+        <v>6.7056000000000004</v>
+      </c>
+      <c r="C32" s="76">
+        <f t="shared" si="1"/>
+        <v>6.5590665514806075</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="92"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="74">
+        <v>21</v>
+      </c>
+      <c r="B33" s="76">
+        <f t="shared" si="0"/>
+        <v>6.4008000000000003</v>
+      </c>
+      <c r="C33" s="76">
+        <f t="shared" si="1"/>
+        <v>6.2609271627769436</v>
+      </c>
+      <c r="D33" s="76"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="92"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="74">
+        <v>20</v>
+      </c>
+      <c r="B34" s="76">
+        <f t="shared" si="0"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="C34" s="76">
+        <f t="shared" si="1"/>
+        <v>5.9627877740732798</v>
+      </c>
+      <c r="D34" s="76"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="92"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="74">
+        <v>19</v>
+      </c>
+      <c r="B35" s="76">
+        <f t="shared" si="0"/>
+        <v>5.7911999999999999</v>
+      </c>
+      <c r="C35" s="76">
+        <f t="shared" si="1"/>
+        <v>5.664648385369615</v>
+      </c>
+      <c r="D35" s="76"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="74">
+        <v>18</v>
+      </c>
+      <c r="B36" s="76">
+        <f t="shared" si="0"/>
+        <v>5.4864000000000006</v>
+      </c>
+      <c r="C36" s="76">
+        <f t="shared" si="1"/>
+        <v>5.366508996665952</v>
+      </c>
+      <c r="D36" s="76"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="92"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="74">
+        <v>17</v>
+      </c>
+      <c r="B37" s="76">
+        <f t="shared" si="0"/>
+        <v>5.1816000000000004</v>
+      </c>
+      <c r="C37" s="76">
+        <f t="shared" si="1"/>
+        <v>5.0683696079622882</v>
+      </c>
+      <c r="D37" s="76"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="92"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="74">
+        <v>16</v>
+      </c>
+      <c r="B38" s="76">
+        <f t="shared" si="0"/>
+        <v>4.8768000000000002</v>
+      </c>
+      <c r="C38" s="76">
+        <f t="shared" si="1"/>
+        <v>4.7702302192586234</v>
+      </c>
+      <c r="D38" s="76"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="92"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="74">
+        <v>15</v>
+      </c>
+      <c r="B39" s="76">
+        <f t="shared" si="0"/>
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="C39" s="76">
+        <f t="shared" si="1"/>
+        <v>4.4720908305549596</v>
+      </c>
+      <c r="D39" s="76"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="92"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="74">
+        <v>14</v>
+      </c>
+      <c r="B40" s="76">
+        <f t="shared" si="0"/>
+        <v>4.2671999999999999</v>
+      </c>
+      <c r="C40" s="76">
+        <f t="shared" si="1"/>
+        <v>4.1739514418512957</v>
+      </c>
+      <c r="D40" s="76"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="92"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="74">
+        <v>13</v>
+      </c>
+      <c r="B41" s="76">
+        <f t="shared" si="0"/>
+        <v>3.9624000000000001</v>
+      </c>
+      <c r="C41" s="76">
+        <f t="shared" si="1"/>
+        <v>3.8758120531476319</v>
+      </c>
+      <c r="D41" s="76"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="92"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="74">
+        <v>12</v>
+      </c>
+      <c r="B42" s="76">
+        <f t="shared" si="0"/>
+        <v>3.6576000000000004</v>
+      </c>
+      <c r="C42" s="76">
+        <f t="shared" si="1"/>
+        <v>3.577672664443968</v>
+      </c>
+      <c r="D42" s="76"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="92"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="74">
+        <v>11</v>
+      </c>
+      <c r="B43" s="76">
+        <f t="shared" si="0"/>
+        <v>3.3528000000000002</v>
+      </c>
+      <c r="C43" s="76">
+        <f t="shared" si="1"/>
+        <v>3.2795332757403037</v>
+      </c>
+      <c r="D43" s="76"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="74">
+        <v>10</v>
+      </c>
+      <c r="B44" s="76">
+        <f t="shared" si="0"/>
+        <v>3.048</v>
+      </c>
+      <c r="C44" s="76">
+        <f t="shared" si="1"/>
+        <v>2.9813938870366399</v>
+      </c>
+      <c r="D44" s="76"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="101"/>
+      <c r="J44" s="92"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="74">
+        <v>9</v>
+      </c>
+      <c r="B45" s="76">
+        <f t="shared" si="0"/>
+        <v>2.7432000000000003</v>
+      </c>
+      <c r="C45" s="76">
+        <f t="shared" si="1"/>
+        <v>2.683254498332976</v>
+      </c>
+      <c r="D45" s="76"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="92"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="74">
+        <v>8</v>
+      </c>
+      <c r="B46" s="76">
+        <f t="shared" si="0"/>
+        <v>2.4384000000000001</v>
+      </c>
+      <c r="C46" s="76">
+        <f t="shared" si="1"/>
+        <v>2.3851151096293117</v>
+      </c>
+      <c r="D46" s="76"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="92"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="74">
+        <v>7</v>
+      </c>
+      <c r="B47" s="76">
+        <f t="shared" si="0"/>
+        <v>2.1335999999999999</v>
+      </c>
+      <c r="C47" s="76">
+        <f t="shared" si="1"/>
+        <v>2.0869757209256479</v>
+      </c>
+      <c r="D47" s="76"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="92"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="74">
+        <v>6</v>
+      </c>
+      <c r="B48" s="76">
+        <f t="shared" si="0"/>
+        <v>1.8288000000000002</v>
+      </c>
+      <c r="C48" s="76">
+        <f t="shared" si="1"/>
+        <v>1.788836332221984</v>
+      </c>
+      <c r="D48" s="76"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="92"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="74">
+        <v>5</v>
+      </c>
+      <c r="B49" s="76">
+        <f t="shared" si="0"/>
+        <v>1.524</v>
+      </c>
+      <c r="C49" s="76">
+        <f t="shared" si="1"/>
+        <v>1.4906969435183199</v>
+      </c>
+      <c r="D49" s="76"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="92"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="74">
+        <v>4</v>
+      </c>
+      <c r="B50" s="76">
+        <f t="shared" si="0"/>
+        <v>1.2192000000000001</v>
+      </c>
+      <c r="C50" s="76">
+        <f t="shared" si="1"/>
+        <v>1.1925575548146559</v>
+      </c>
+      <c r="D50" s="76"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="92"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="74">
+        <v>3</v>
+      </c>
+      <c r="B51" s="76">
+        <f t="shared" si="0"/>
+        <v>0.9144000000000001</v>
+      </c>
+      <c r="C51" s="76">
+        <f t="shared" si="1"/>
+        <v>0.89441816611099201</v>
+      </c>
+      <c r="D51" s="76"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="92"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="74">
+        <v>2</v>
+      </c>
+      <c r="B52" s="76">
+        <f t="shared" si="0"/>
+        <v>0.60960000000000003</v>
+      </c>
+      <c r="C52" s="76">
+        <f t="shared" si="1"/>
+        <v>0.59627877740732793</v>
+      </c>
+      <c r="D52" s="76"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="92"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="74">
+        <v>1</v>
+      </c>
+      <c r="B53" s="76">
+        <f t="shared" si="0"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="C53" s="76">
+        <f t="shared" si="1"/>
+        <v>0.29813938870366397</v>
+      </c>
+      <c r="D53" s="76"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="92"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="74">
+        <v>0</v>
+      </c>
+      <c r="B54" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="76"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:J3"/>
+    <mergeCell ref="K2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F08D047-F0FC-4BFB-97BC-1391B65AB4E5}">
+  <dimension ref="A1:O69"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="11" style="74"/>
+    <col min="3" max="3" width="17.25" style="74" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="74" customWidth="1"/>
+    <col min="5" max="10" width="11" style="75"/>
+    <col min="11" max="11" width="11.25" style="75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="75"/>
+    <col min="14" max="14" width="15.625" style="75" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="11" style="75"/>
+    <col min="22" max="23" width="17" style="75" customWidth="1"/>
+    <col min="24" max="16384" width="11" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E2" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="74">
+        <v>65</v>
+      </c>
+      <c r="B4" s="76">
+        <f t="shared" ref="B4:B67" si="0">0.3048*A4</f>
+        <v>19.812000000000001</v>
+      </c>
+      <c r="C4" s="76">
+        <f t="shared" ref="C4:C18" si="1">B4*COS(12*PI()/180)</f>
+        <v>19.379060265738161</v>
+      </c>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="74">
+        <v>64</v>
+      </c>
+      <c r="B5" s="76">
+        <f t="shared" si="0"/>
+        <v>19.507200000000001</v>
+      </c>
+      <c r="C5" s="76">
+        <f t="shared" si="1"/>
+        <v>19.080920877034494</v>
+      </c>
+      <c r="E5" s="77"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="74">
+        <v>63</v>
+      </c>
+      <c r="B6" s="76">
+        <f t="shared" si="0"/>
+        <v>19.202400000000001</v>
+      </c>
+      <c r="C6" s="76">
+        <f t="shared" si="1"/>
+        <v>18.78278148833083</v>
+      </c>
+      <c r="E6" s="77"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="74">
+        <v>62</v>
+      </c>
+      <c r="B7" s="76">
+        <f t="shared" si="0"/>
+        <v>18.897600000000001</v>
+      </c>
+      <c r="C7" s="76">
+        <f t="shared" si="1"/>
+        <v>18.484642099627166</v>
+      </c>
+      <c r="E7" s="77"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="74">
+        <v>61</v>
+      </c>
+      <c r="B8" s="76">
+        <f t="shared" si="0"/>
+        <v>18.5928</v>
+      </c>
+      <c r="C8" s="76">
+        <f t="shared" si="1"/>
+        <v>18.186502710923502</v>
+      </c>
+      <c r="E8" s="77"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="74">
+        <v>60</v>
+      </c>
+      <c r="B9" s="76">
+        <f t="shared" si="0"/>
+        <v>18.288</v>
+      </c>
+      <c r="C9" s="76">
+        <f t="shared" si="1"/>
+        <v>17.888363322219838</v>
+      </c>
+      <c r="E9" s="77"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="74">
+        <v>59</v>
+      </c>
+      <c r="B10" s="76">
+        <f t="shared" si="0"/>
+        <v>17.9832</v>
+      </c>
+      <c r="C10" s="76">
+        <f t="shared" si="1"/>
+        <v>17.590223933516175</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="74">
+        <v>58</v>
+      </c>
+      <c r="B11" s="76">
+        <f t="shared" si="0"/>
+        <v>17.6784</v>
+      </c>
+      <c r="C11" s="76">
+        <f t="shared" si="1"/>
+        <v>17.292084544812511</v>
+      </c>
+      <c r="E11" s="77"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="O11" s="81"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="74">
+        <v>57</v>
+      </c>
+      <c r="B12" s="76">
+        <f t="shared" si="0"/>
+        <v>17.3736</v>
+      </c>
+      <c r="C12" s="76">
+        <f t="shared" si="1"/>
+        <v>16.993945156108847</v>
+      </c>
+      <c r="E12" s="77"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="74">
+        <v>56</v>
+      </c>
+      <c r="B13" s="76">
+        <f t="shared" si="0"/>
+        <v>17.0688</v>
+      </c>
+      <c r="C13" s="76">
+        <f t="shared" si="1"/>
+        <v>16.695805767405183</v>
+      </c>
+      <c r="E13" s="77"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="74">
+        <v>55</v>
+      </c>
+      <c r="B14" s="76">
+        <f t="shared" si="0"/>
+        <v>16.763999999999999</v>
+      </c>
+      <c r="C14" s="76">
+        <f t="shared" si="1"/>
+        <v>16.397666378701519</v>
+      </c>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="74">
+        <v>54</v>
+      </c>
+      <c r="B15" s="76">
+        <f t="shared" si="0"/>
+        <v>16.459199999999999</v>
+      </c>
+      <c r="C15" s="76">
+        <f t="shared" si="1"/>
+        <v>16.099526989997855</v>
+      </c>
+      <c r="E15" s="77"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="74">
+        <v>53</v>
+      </c>
+      <c r="B16" s="76">
+        <f t="shared" si="0"/>
+        <v>16.154400000000003</v>
+      </c>
+      <c r="C16" s="76">
+        <f t="shared" si="1"/>
+        <v>15.801387601294193</v>
+      </c>
+      <c r="E16" s="77"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="74">
+        <v>52</v>
+      </c>
+      <c r="B17" s="76">
+        <f t="shared" si="0"/>
+        <v>15.849600000000001</v>
+      </c>
+      <c r="C17" s="76">
+        <f t="shared" si="1"/>
+        <v>15.503248212590528</v>
+      </c>
+      <c r="E17" s="77"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="74">
+        <v>51</v>
+      </c>
+      <c r="B18" s="76">
+        <f t="shared" si="0"/>
+        <v>15.5448</v>
+      </c>
+      <c r="C18" s="76">
+        <f t="shared" si="1"/>
+        <v>15.205108823886864</v>
+      </c>
+      <c r="E18" s="77"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="74">
+        <v>50</v>
+      </c>
+      <c r="B19" s="76">
+        <f t="shared" si="0"/>
+        <v>15.24</v>
+      </c>
+      <c r="C19" s="76">
+        <f>B19*COS(12*PI()/180)</f>
+        <v>14.906969435183198</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="74">
+        <v>49</v>
+      </c>
+      <c r="B20" s="76">
+        <f t="shared" si="0"/>
+        <v>14.9352</v>
+      </c>
+      <c r="C20" s="76">
+        <f t="shared" ref="C20:C69" si="2">B20*COS(12*PI()/180)</f>
+        <v>14.608830046479534</v>
+      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="74">
+        <v>48</v>
+      </c>
+      <c r="B21" s="76">
+        <f t="shared" si="0"/>
+        <v>14.630400000000002</v>
+      </c>
+      <c r="C21" s="76">
+        <f t="shared" si="2"/>
+        <v>14.310690657775872</v>
+      </c>
+      <c r="D21" s="76"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="74">
+        <v>47</v>
+      </c>
+      <c r="B22" s="76">
+        <f t="shared" si="0"/>
+        <v>14.325600000000001</v>
+      </c>
+      <c r="C22" s="76">
+        <f t="shared" si="2"/>
+        <v>14.012551269072208</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="74">
+        <v>46</v>
+      </c>
+      <c r="B23" s="76">
+        <f t="shared" si="0"/>
+        <v>14.020800000000001</v>
+      </c>
+      <c r="C23" s="76">
+        <f t="shared" si="2"/>
+        <v>13.714411880368544</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="74">
+        <v>45</v>
+      </c>
+      <c r="B24" s="76">
+        <f t="shared" si="0"/>
+        <v>13.716000000000001</v>
+      </c>
+      <c r="C24" s="76">
+        <f t="shared" si="2"/>
+        <v>13.416272491664881</v>
+      </c>
+      <c r="D24" s="76"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="74">
+        <v>44</v>
+      </c>
+      <c r="B25" s="76">
+        <f t="shared" si="0"/>
+        <v>13.411200000000001</v>
+      </c>
+      <c r="C25" s="76">
+        <f t="shared" si="2"/>
+        <v>13.118133102961215</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="74">
+        <v>43</v>
+      </c>
+      <c r="B26" s="76">
+        <f t="shared" si="0"/>
+        <v>13.106400000000001</v>
+      </c>
+      <c r="C26" s="76">
+        <f t="shared" si="2"/>
+        <v>12.819993714257551</v>
+      </c>
+      <c r="D26" s="76"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="74">
+        <v>42</v>
+      </c>
+      <c r="B27" s="76">
+        <f t="shared" si="0"/>
+        <v>12.801600000000001</v>
+      </c>
+      <c r="C27" s="76">
+        <f t="shared" si="2"/>
+        <v>12.521854325553887</v>
+      </c>
+      <c r="D27" s="76"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="74">
+        <v>41</v>
+      </c>
+      <c r="B28" s="76">
+        <f t="shared" si="0"/>
+        <v>12.4968</v>
+      </c>
+      <c r="C28" s="76">
+        <f t="shared" si="2"/>
+        <v>12.223714936850223</v>
+      </c>
+      <c r="D28" s="76"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="74">
+        <v>40</v>
+      </c>
+      <c r="B29" s="76">
+        <f t="shared" si="0"/>
+        <v>12.192</v>
+      </c>
+      <c r="C29" s="76">
+        <f t="shared" si="2"/>
+        <v>11.92557554814656</v>
+      </c>
+      <c r="D29" s="76"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="74">
+        <v>39</v>
+      </c>
+      <c r="B30" s="76">
+        <f t="shared" si="0"/>
+        <v>11.8872</v>
+      </c>
+      <c r="C30" s="76">
+        <f t="shared" si="2"/>
+        <v>11.627436159442896</v>
+      </c>
+      <c r="D30" s="76"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="74">
+        <v>38</v>
+      </c>
+      <c r="B31" s="76">
+        <f t="shared" si="0"/>
+        <v>11.5824</v>
+      </c>
+      <c r="C31" s="76">
+        <f t="shared" si="2"/>
+        <v>11.32929677073923</v>
+      </c>
+      <c r="D31" s="76"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="74">
+        <v>37</v>
+      </c>
+      <c r="B32" s="76">
+        <f t="shared" si="0"/>
+        <v>11.277600000000001</v>
+      </c>
+      <c r="C32" s="76">
+        <f t="shared" si="2"/>
+        <v>11.031157382035568</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="74">
+        <v>36</v>
+      </c>
+      <c r="B33" s="76">
+        <f t="shared" si="0"/>
+        <v>10.972800000000001</v>
+      </c>
+      <c r="C33" s="76">
+        <f t="shared" si="2"/>
+        <v>10.733017993331904</v>
+      </c>
+      <c r="D33" s="76"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="74">
+        <v>35</v>
+      </c>
+      <c r="B34" s="76">
+        <f t="shared" si="0"/>
+        <v>10.668000000000001</v>
+      </c>
+      <c r="C34" s="76">
+        <f t="shared" si="2"/>
+        <v>10.43487860462824</v>
+      </c>
+      <c r="D34" s="76"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="74">
+        <v>34</v>
+      </c>
+      <c r="B35" s="76">
+        <f t="shared" si="0"/>
+        <v>10.363200000000001</v>
+      </c>
+      <c r="C35" s="76">
+        <f t="shared" si="2"/>
+        <v>10.136739215924576</v>
+      </c>
+      <c r="D35" s="76"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="74">
+        <v>33</v>
+      </c>
+      <c r="B36" s="76">
+        <f t="shared" si="0"/>
+        <v>10.058400000000001</v>
+      </c>
+      <c r="C36" s="76">
+        <f t="shared" si="2"/>
+        <v>9.8385998272209125</v>
+      </c>
+      <c r="D36" s="76"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="74">
+        <v>32</v>
+      </c>
+      <c r="B37" s="76">
+        <f t="shared" si="0"/>
+        <v>9.7536000000000005</v>
+      </c>
+      <c r="C37" s="76">
+        <f t="shared" si="2"/>
+        <v>9.5404604385172469</v>
+      </c>
+      <c r="D37" s="76"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="74">
+        <v>31</v>
+      </c>
+      <c r="B38" s="76">
+        <f t="shared" si="0"/>
+        <v>9.4488000000000003</v>
+      </c>
+      <c r="C38" s="76">
+        <f t="shared" si="2"/>
+        <v>9.242321049813583</v>
+      </c>
+      <c r="D38" s="76"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="81"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="74">
+        <v>30</v>
+      </c>
+      <c r="B39" s="76">
+        <f t="shared" si="0"/>
+        <v>9.1440000000000001</v>
+      </c>
+      <c r="C39" s="76">
+        <f t="shared" si="2"/>
+        <v>8.9441816611099192</v>
+      </c>
+      <c r="D39" s="76"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="81"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="74">
+        <v>29</v>
+      </c>
+      <c r="B40" s="76">
+        <f t="shared" si="0"/>
+        <v>8.8391999999999999</v>
+      </c>
+      <c r="C40" s="76">
+        <f t="shared" si="2"/>
+        <v>8.6460422724062553</v>
+      </c>
+      <c r="D40" s="76"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="74">
+        <v>28</v>
+      </c>
+      <c r="B41" s="76">
+        <f t="shared" si="0"/>
+        <v>8.5343999999999998</v>
+      </c>
+      <c r="C41" s="76">
+        <f t="shared" si="2"/>
+        <v>8.3479028837025915</v>
+      </c>
+      <c r="D41" s="76"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="81"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="74">
+        <v>27</v>
+      </c>
+      <c r="B42" s="76">
+        <f t="shared" si="0"/>
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="C42" s="76">
+        <f t="shared" si="2"/>
+        <v>8.0497634949989276</v>
+      </c>
+      <c r="D42" s="76"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="81"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="74">
+        <v>26</v>
+      </c>
+      <c r="B43" s="76">
+        <f t="shared" si="0"/>
+        <v>7.9248000000000003</v>
+      </c>
+      <c r="C43" s="76">
+        <f t="shared" si="2"/>
+        <v>7.7516241062952638</v>
+      </c>
+      <c r="D43" s="76"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="74">
+        <v>25</v>
+      </c>
+      <c r="B44" s="76">
+        <f t="shared" si="0"/>
+        <v>7.62</v>
+      </c>
+      <c r="C44" s="76">
+        <f t="shared" si="2"/>
+        <v>7.453484717591599</v>
+      </c>
+      <c r="D44" s="76"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="81"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="74">
+        <v>24</v>
+      </c>
+      <c r="B45" s="76">
+        <f t="shared" si="0"/>
+        <v>7.3152000000000008</v>
+      </c>
+      <c r="C45" s="76">
+        <f t="shared" si="2"/>
+        <v>7.1553453288879361</v>
+      </c>
+      <c r="D45" s="76"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="74">
+        <v>23</v>
+      </c>
+      <c r="B46" s="76">
+        <f t="shared" si="0"/>
+        <v>7.0104000000000006</v>
+      </c>
+      <c r="C46" s="76">
+        <f t="shared" si="2"/>
+        <v>6.8572059401842722</v>
+      </c>
+      <c r="D46" s="76"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="74">
+        <v>22</v>
+      </c>
+      <c r="B47" s="76">
+        <f t="shared" si="0"/>
+        <v>6.7056000000000004</v>
+      </c>
+      <c r="C47" s="76">
+        <f t="shared" si="2"/>
+        <v>6.5590665514806075</v>
+      </c>
+      <c r="D47" s="76"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="74">
+        <v>21</v>
+      </c>
+      <c r="B48" s="76">
+        <f t="shared" si="0"/>
+        <v>6.4008000000000003</v>
+      </c>
+      <c r="C48" s="76">
+        <f t="shared" si="2"/>
+        <v>6.2609271627769436</v>
+      </c>
+      <c r="D48" s="76"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="74">
+        <v>20</v>
+      </c>
+      <c r="B49" s="76">
+        <f t="shared" si="0"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="C49" s="76">
+        <f t="shared" si="2"/>
+        <v>5.9627877740732798</v>
+      </c>
+      <c r="D49" s="76"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="81"/>
+      <c r="O49" s="81"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="74">
+        <v>19</v>
+      </c>
+      <c r="B50" s="76">
+        <f t="shared" si="0"/>
+        <v>5.7911999999999999</v>
+      </c>
+      <c r="C50" s="76">
+        <f t="shared" si="2"/>
+        <v>5.664648385369615</v>
+      </c>
+      <c r="D50" s="76"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="81"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="81"/>
+      <c r="O50" s="81"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="74">
+        <v>18</v>
+      </c>
+      <c r="B51" s="76">
+        <f t="shared" si="0"/>
+        <v>5.4864000000000006</v>
+      </c>
+      <c r="C51" s="76">
+        <f t="shared" si="2"/>
+        <v>5.366508996665952</v>
+      </c>
+      <c r="D51" s="76"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="81"/>
+      <c r="O51" s="81"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="74">
+        <v>17</v>
+      </c>
+      <c r="B52" s="76">
+        <f t="shared" si="0"/>
+        <v>5.1816000000000004</v>
+      </c>
+      <c r="C52" s="76">
+        <f t="shared" si="2"/>
+        <v>5.0683696079622882</v>
+      </c>
+      <c r="D52" s="76"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="81"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="74">
+        <v>16</v>
+      </c>
+      <c r="B53" s="76">
+        <f t="shared" si="0"/>
+        <v>4.8768000000000002</v>
+      </c>
+      <c r="C53" s="76">
+        <f t="shared" si="2"/>
+        <v>4.7702302192586234</v>
+      </c>
+      <c r="D53" s="76"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="81"/>
+      <c r="O53" s="81"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="74">
+        <v>15</v>
+      </c>
+      <c r="B54" s="76">
+        <f t="shared" si="0"/>
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="C54" s="76">
+        <f t="shared" si="2"/>
+        <v>4.4720908305549596</v>
+      </c>
+      <c r="D54" s="76"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="86"/>
+      <c r="K54" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="L54" s="81"/>
+      <c r="M54" s="81"/>
+      <c r="N54" s="81"/>
+      <c r="O54" s="81"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="74">
+        <v>14</v>
+      </c>
+      <c r="B55" s="76">
+        <f t="shared" si="0"/>
+        <v>4.2671999999999999</v>
+      </c>
+      <c r="C55" s="76">
+        <f t="shared" si="2"/>
+        <v>4.1739514418512957</v>
+      </c>
+      <c r="D55" s="76"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="81"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="81"/>
+      <c r="N55" s="81"/>
+      <c r="O55" s="81"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="74">
+        <v>13</v>
+      </c>
+      <c r="B56" s="76">
+        <f t="shared" si="0"/>
+        <v>3.9624000000000001</v>
+      </c>
+      <c r="C56" s="76">
+        <f t="shared" si="2"/>
+        <v>3.8758120531476319</v>
+      </c>
+      <c r="D56" s="76"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="81"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="81"/>
+      <c r="N56" s="81"/>
+      <c r="O56" s="81"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="74">
+        <v>12</v>
+      </c>
+      <c r="B57" s="76">
+        <f t="shared" si="0"/>
+        <v>3.6576000000000004</v>
+      </c>
+      <c r="C57" s="76">
+        <f t="shared" si="2"/>
+        <v>3.577672664443968</v>
+      </c>
+      <c r="D57" s="76"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="86"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
+      <c r="M57" s="81"/>
+      <c r="N57" s="81"/>
+      <c r="O57" s="81"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="74">
+        <v>11</v>
+      </c>
+      <c r="B58" s="76">
+        <f t="shared" si="0"/>
+        <v>3.3528000000000002</v>
+      </c>
+      <c r="C58" s="76">
+        <f t="shared" si="2"/>
+        <v>3.2795332757403037</v>
+      </c>
+      <c r="D58" s="76"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="84"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="81"/>
+      <c r="N58" s="81"/>
+      <c r="O58" s="81"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="74">
+        <v>10</v>
+      </c>
+      <c r="B59" s="76">
+        <f t="shared" si="0"/>
+        <v>3.048</v>
+      </c>
+      <c r="C59" s="76">
+        <f t="shared" si="2"/>
+        <v>2.9813938870366399</v>
+      </c>
+      <c r="D59" s="76"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="86"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="81"/>
+      <c r="M59" s="81"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="81"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="74">
+        <v>9</v>
+      </c>
+      <c r="B60" s="76">
+        <f t="shared" si="0"/>
+        <v>2.7432000000000003</v>
+      </c>
+      <c r="C60" s="76">
+        <f t="shared" si="2"/>
+        <v>2.683254498332976</v>
+      </c>
+      <c r="D60" s="76"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="86"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="74">
+        <v>8</v>
+      </c>
+      <c r="B61" s="76">
+        <f t="shared" si="0"/>
+        <v>2.4384000000000001</v>
+      </c>
+      <c r="C61" s="76">
+        <f t="shared" si="2"/>
+        <v>2.3851151096293117</v>
+      </c>
+      <c r="D61" s="76"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="86"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="81"/>
+      <c r="O61" s="81"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="74">
+        <v>7</v>
+      </c>
+      <c r="B62" s="76">
+        <f t="shared" si="0"/>
+        <v>2.1335999999999999</v>
+      </c>
+      <c r="C62" s="76">
+        <f t="shared" si="2"/>
+        <v>2.0869757209256479</v>
+      </c>
+      <c r="D62" s="76"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="87"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="81"/>
+      <c r="L62" s="81"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="81"/>
+      <c r="O62" s="81"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="74">
+        <v>6</v>
+      </c>
+      <c r="B63" s="76">
+        <f t="shared" si="0"/>
+        <v>1.8288000000000002</v>
+      </c>
+      <c r="C63" s="76">
+        <f t="shared" si="2"/>
+        <v>1.788836332221984</v>
+      </c>
+      <c r="D63" s="76"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="86"/>
+      <c r="K63" s="81"/>
+      <c r="L63" s="81"/>
+      <c r="M63" s="81"/>
+      <c r="N63" s="81"/>
+      <c r="O63" s="81"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="74">
+        <v>5</v>
+      </c>
+      <c r="B64" s="76">
+        <f t="shared" si="0"/>
+        <v>1.524</v>
+      </c>
+      <c r="C64" s="76">
+        <f t="shared" si="2"/>
+        <v>1.4906969435183199</v>
+      </c>
+      <c r="D64" s="76"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="91"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="86"/>
+      <c r="K64" s="81"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="81"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="74">
+        <v>4</v>
+      </c>
+      <c r="B65" s="76">
+        <f t="shared" si="0"/>
+        <v>1.2192000000000001</v>
+      </c>
+      <c r="C65" s="76">
+        <f t="shared" si="2"/>
+        <v>1.1925575548146559</v>
+      </c>
+      <c r="D65" s="76"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="86"/>
+      <c r="K65" s="81"/>
+      <c r="L65" s="81"/>
+      <c r="M65" s="81"/>
+      <c r="N65" s="81"/>
+      <c r="O65" s="81"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="74">
+        <v>3</v>
+      </c>
+      <c r="B66" s="76">
+        <f t="shared" si="0"/>
+        <v>0.9144000000000001</v>
+      </c>
+      <c r="C66" s="76">
+        <f t="shared" si="2"/>
+        <v>0.89441816611099201</v>
+      </c>
+      <c r="D66" s="76"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="86"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="74">
+        <v>2</v>
+      </c>
+      <c r="B67" s="76">
+        <f t="shared" si="0"/>
+        <v>0.60960000000000003</v>
+      </c>
+      <c r="C67" s="76">
+        <f t="shared" si="2"/>
+        <v>0.59627877740732793</v>
+      </c>
+      <c r="D67" s="76"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="86"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="74">
+        <v>1</v>
+      </c>
+      <c r="B68" s="76">
+        <f t="shared" ref="B68:B69" si="3">0.3048*A68</f>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="C68" s="76">
+        <f t="shared" si="2"/>
+        <v>0.29813938870366397</v>
+      </c>
+      <c r="D68" s="76"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="86"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="74">
+        <v>0</v>
+      </c>
+      <c r="B69" s="76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C69" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D69" s="76"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="89"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:J3"/>
+    <mergeCell ref="K2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A54061-D842-48D6-BC83-5179935F2CE7}">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="11" style="74"/>
+    <col min="3" max="3" width="2.875" style="74" customWidth="1"/>
+    <col min="4" max="5" width="11" style="75"/>
+    <col min="6" max="6" width="3.625" style="75" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="75" customWidth="1"/>
+    <col min="8" max="8" width="11" style="75"/>
+    <col min="9" max="9" width="9.25" style="75" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="75" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="74">
+        <v>30</v>
+      </c>
+      <c r="B4" s="76">
+        <f t="shared" ref="B4:B34" si="0">0.3048*A4</f>
+        <v>9.1440000000000001</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="74">
+        <v>29</v>
+      </c>
+      <c r="B5" s="76">
+        <f t="shared" si="0"/>
+        <v>8.8391999999999999</v>
+      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="74">
+        <v>28</v>
+      </c>
+      <c r="B6" s="76">
+        <f t="shared" si="0"/>
+        <v>8.5343999999999998</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="J6" s="75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="74">
+        <v>27</v>
+      </c>
+      <c r="B7" s="76">
+        <f t="shared" si="0"/>
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="74">
+        <v>26</v>
+      </c>
+      <c r="B8" s="76">
+        <f t="shared" si="0"/>
+        <v>7.9248000000000003</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="74">
+        <v>25</v>
+      </c>
+      <c r="B9" s="76">
+        <f t="shared" si="0"/>
+        <v>7.62</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="I9" s="75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="74">
+        <v>24</v>
+      </c>
+      <c r="B10" s="76">
+        <f t="shared" si="0"/>
+        <v>7.3152000000000008</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="74">
+        <v>23</v>
+      </c>
+      <c r="B11" s="76">
+        <f t="shared" si="0"/>
+        <v>7.0104000000000006</v>
+      </c>
+      <c r="C11" s="76"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="74">
+        <v>22</v>
+      </c>
+      <c r="B12" s="76">
+        <f t="shared" si="0"/>
+        <v>6.7056000000000004</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="74">
+        <v>21</v>
+      </c>
+      <c r="B13" s="76">
+        <f t="shared" si="0"/>
+        <v>6.4008000000000003</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="74">
+        <v>20</v>
+      </c>
+      <c r="B14" s="76">
+        <f t="shared" si="0"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="74">
+        <v>19</v>
+      </c>
+      <c r="B15" s="76">
+        <f t="shared" si="0"/>
+        <v>5.7911999999999999</v>
+      </c>
+      <c r="C15" s="76"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="74">
+        <v>18</v>
+      </c>
+      <c r="B16" s="76">
+        <f t="shared" si="0"/>
+        <v>5.4864000000000006</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="74">
+        <v>17</v>
+      </c>
+      <c r="B17" s="76">
+        <f t="shared" si="0"/>
+        <v>5.1816000000000004</v>
+      </c>
+      <c r="C17" s="76"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="74">
+        <v>16</v>
+      </c>
+      <c r="B18" s="76">
+        <f t="shared" si="0"/>
+        <v>4.8768000000000002</v>
+      </c>
+      <c r="C18" s="76"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="74">
+        <v>15</v>
+      </c>
+      <c r="B19" s="76">
+        <f t="shared" si="0"/>
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="C19" s="76"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="74">
+        <v>14</v>
+      </c>
+      <c r="B20" s="76">
+        <f t="shared" si="0"/>
+        <v>4.2671999999999999</v>
+      </c>
+      <c r="C20" s="76"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="74">
+        <v>13</v>
+      </c>
+      <c r="B21" s="76">
+        <f t="shared" si="0"/>
+        <v>3.9624000000000001</v>
+      </c>
+      <c r="C21" s="76"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="74">
+        <v>12</v>
+      </c>
+      <c r="B22" s="76">
+        <f t="shared" si="0"/>
+        <v>3.6576000000000004</v>
+      </c>
+      <c r="C22" s="76"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="74">
+        <v>11</v>
+      </c>
+      <c r="B23" s="76">
+        <f t="shared" si="0"/>
+        <v>3.3528000000000002</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="74">
+        <v>10</v>
+      </c>
+      <c r="B24" s="76">
+        <f t="shared" si="0"/>
+        <v>3.048</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="H24" s="75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="74">
+        <v>9</v>
+      </c>
+      <c r="B25" s="76">
+        <f t="shared" si="0"/>
+        <v>2.7432000000000003</v>
+      </c>
+      <c r="C25" s="76"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="74">
+        <v>8</v>
+      </c>
+      <c r="B26" s="76">
+        <f t="shared" si="0"/>
+        <v>2.4384000000000001</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="74">
+        <v>7</v>
+      </c>
+      <c r="B27" s="76">
+        <f t="shared" si="0"/>
+        <v>2.1335999999999999</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="74">
+        <v>6</v>
+      </c>
+      <c r="B28" s="76">
+        <f t="shared" si="0"/>
+        <v>1.8288000000000002</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="74">
+        <v>5</v>
+      </c>
+      <c r="B29" s="76">
+        <f t="shared" si="0"/>
+        <v>1.524</v>
+      </c>
+      <c r="C29" s="76"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="74">
+        <v>4</v>
+      </c>
+      <c r="B30" s="76">
+        <f t="shared" si="0"/>
+        <v>1.2192000000000001</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="74">
+        <v>3</v>
+      </c>
+      <c r="B31" s="76">
+        <f t="shared" si="0"/>
+        <v>0.9144000000000001</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="74">
+        <v>2</v>
+      </c>
+      <c r="B32" s="76">
+        <f t="shared" si="0"/>
+        <v>0.60960000000000003</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="74">
+        <v>1</v>
+      </c>
+      <c r="B33" s="76">
+        <f t="shared" si="0"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="74">
+        <v>0</v>
+      </c>
+      <c r="B34" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="E34" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="G2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD52CBF-D6A2-4A23-B04A-BA9A88472FF0}">
+  <dimension ref="A1:N56"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="11" style="74"/>
+    <col min="3" max="3" width="2.875" style="74" customWidth="1"/>
+    <col min="4" max="8" width="11" style="75"/>
+    <col min="9" max="9" width="3.625" style="75" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="75" customWidth="1"/>
+    <col min="11" max="11" width="11" style="75"/>
+    <col min="12" max="12" width="9.25" style="75" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="75" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D2" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" s="105"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="74">
+        <v>52</v>
+      </c>
+      <c r="B4" s="76">
+        <f t="shared" ref="B4:B56" si="0">0.3048*A4</f>
+        <v>15.849600000000001</v>
+      </c>
+      <c r="D4" s="106"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="106"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="74">
+        <v>51</v>
+      </c>
+      <c r="B5" s="76">
+        <f t="shared" si="0"/>
+        <v>15.5448</v>
+      </c>
+      <c r="D5" s="106"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="106"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="74">
+        <v>50</v>
+      </c>
+      <c r="B6" s="76">
+        <f t="shared" si="0"/>
+        <v>15.24</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="92"/>
+      <c r="L6" s="75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="74">
+        <v>49</v>
+      </c>
+      <c r="B7" s="76">
+        <f t="shared" si="0"/>
+        <v>14.9352</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="92"/>
+      <c r="K7" s="107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="74">
+        <v>48</v>
+      </c>
+      <c r="B8" s="76">
+        <f t="shared" si="0"/>
+        <v>14.630400000000002</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="92"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="74">
+        <v>47</v>
+      </c>
+      <c r="B9" s="76">
+        <f t="shared" si="0"/>
+        <v>14.325600000000001</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="92"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="74">
+        <v>46</v>
+      </c>
+      <c r="B10" s="76">
+        <f t="shared" si="0"/>
+        <v>14.020800000000001</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="92"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="74">
+        <v>45</v>
+      </c>
+      <c r="B11" s="76">
+        <f t="shared" si="0"/>
+        <v>13.716000000000001</v>
+      </c>
+      <c r="C11" s="76"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="92"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="74">
+        <v>44</v>
+      </c>
+      <c r="B12" s="76">
+        <f t="shared" si="0"/>
+        <v>13.411200000000001</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="92"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="74">
+        <v>43</v>
+      </c>
+      <c r="B13" s="76">
+        <f t="shared" si="0"/>
+        <v>13.106400000000001</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" s="75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="74">
+        <v>42</v>
+      </c>
+      <c r="B14" s="76">
+        <f t="shared" si="0"/>
+        <v>12.801600000000001</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="107"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="74">
+        <v>41</v>
+      </c>
+      <c r="B15" s="76">
+        <f t="shared" si="0"/>
+        <v>12.4968</v>
+      </c>
+      <c r="C15" s="76"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="92"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="74">
+        <v>40</v>
+      </c>
+      <c r="B16" s="76">
+        <f t="shared" si="0"/>
+        <v>12.192</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="107"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="74">
+        <v>39</v>
+      </c>
+      <c r="B17" s="76">
+        <f t="shared" si="0"/>
+        <v>11.8872</v>
+      </c>
+      <c r="C17" s="76"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="107"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="74">
+        <v>38</v>
+      </c>
+      <c r="B18" s="76">
+        <f t="shared" si="0"/>
+        <v>11.5824</v>
+      </c>
+      <c r="C18" s="76"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="107"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="74">
+        <v>37</v>
+      </c>
+      <c r="B19" s="76">
+        <f t="shared" si="0"/>
+        <v>11.277600000000001</v>
+      </c>
+      <c r="C19" s="76"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="107"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="74">
+        <v>36</v>
+      </c>
+      <c r="B20" s="76">
+        <f t="shared" si="0"/>
+        <v>10.972800000000001</v>
+      </c>
+      <c r="C20" s="76"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="107"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="74">
+        <v>35</v>
+      </c>
+      <c r="B21" s="76">
+        <f t="shared" si="0"/>
+        <v>10.668000000000001</v>
+      </c>
+      <c r="C21" s="76"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="107"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="74">
+        <v>34</v>
+      </c>
+      <c r="B22" s="76">
+        <f t="shared" si="0"/>
+        <v>10.363200000000001</v>
+      </c>
+      <c r="C22" s="76"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="107"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="74">
+        <v>33</v>
+      </c>
+      <c r="B23" s="76">
+        <f t="shared" si="0"/>
+        <v>10.058400000000001</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="107"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="74">
+        <v>32</v>
+      </c>
+      <c r="B24" s="76">
+        <f t="shared" si="0"/>
+        <v>9.7536000000000005</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="107"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="74">
+        <v>31</v>
+      </c>
+      <c r="B25" s="76">
+        <f t="shared" si="0"/>
+        <v>9.4488000000000003</v>
+      </c>
+      <c r="C25" s="76"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="107"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="74">
+        <v>30</v>
+      </c>
+      <c r="B26" s="76">
+        <f t="shared" si="0"/>
+        <v>9.1440000000000001</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="107" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="74">
+        <v>29</v>
+      </c>
+      <c r="B27" s="76">
+        <f t="shared" si="0"/>
+        <v>8.8391999999999999</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="107"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="74">
+        <v>28</v>
+      </c>
+      <c r="B28" s="76">
+        <f t="shared" si="0"/>
+        <v>8.5343999999999998</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="107"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="74">
+        <v>27</v>
+      </c>
+      <c r="B29" s="76">
+        <f t="shared" si="0"/>
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="C29" s="76"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="107"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="74">
+        <v>26</v>
+      </c>
+      <c r="B30" s="76">
+        <f t="shared" si="0"/>
+        <v>7.9248000000000003</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="107"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="74">
+        <v>25</v>
+      </c>
+      <c r="B31" s="76">
+        <f t="shared" si="0"/>
+        <v>7.62</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="107"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="74">
+        <v>24</v>
+      </c>
+      <c r="B32" s="76">
+        <f t="shared" si="0"/>
+        <v>7.3152000000000008</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="107"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="74">
+        <v>23</v>
+      </c>
+      <c r="B33" s="76">
+        <f t="shared" si="0"/>
+        <v>7.0104000000000006</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="107"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="74">
+        <v>22</v>
+      </c>
+      <c r="B34" s="76">
+        <f t="shared" si="0"/>
+        <v>6.7056000000000004</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="107"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="74">
+        <v>21</v>
+      </c>
+      <c r="B35" s="76">
+        <f t="shared" si="0"/>
+        <v>6.4008000000000003</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="74">
+        <v>20</v>
+      </c>
+      <c r="B36" s="76">
+        <f t="shared" si="0"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="107"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="74">
+        <v>19</v>
+      </c>
+      <c r="B37" s="76">
+        <f t="shared" si="0"/>
+        <v>5.7911999999999999</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="107"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="74">
+        <v>18</v>
+      </c>
+      <c r="B38" s="76">
+        <f t="shared" si="0"/>
+        <v>5.4864000000000006</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="74">
+        <v>17</v>
+      </c>
+      <c r="B39" s="76">
+        <f t="shared" si="0"/>
+        <v>5.1816000000000004</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="92"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="74">
+        <v>16</v>
+      </c>
+      <c r="B40" s="76">
+        <f t="shared" si="0"/>
+        <v>4.8768000000000002</v>
+      </c>
+      <c r="C40" s="76"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="107"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="74">
+        <v>15</v>
+      </c>
+      <c r="B41" s="76">
+        <f t="shared" si="0"/>
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="C41" s="76"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="107"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="74">
+        <v>14</v>
+      </c>
+      <c r="B42" s="76">
+        <f t="shared" si="0"/>
+        <v>4.2671999999999999</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="107"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="74">
+        <v>13</v>
+      </c>
+      <c r="B43" s="76">
+        <f t="shared" si="0"/>
+        <v>3.9624000000000001</v>
+      </c>
+      <c r="C43" s="76"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="107"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="74">
+        <v>12</v>
+      </c>
+      <c r="B44" s="76">
+        <f t="shared" si="0"/>
+        <v>3.6576000000000004</v>
+      </c>
+      <c r="C44" s="76"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="107"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="74">
+        <v>11</v>
+      </c>
+      <c r="B45" s="76">
+        <f t="shared" si="0"/>
+        <v>3.3528000000000002</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="107"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="74">
+        <v>10</v>
+      </c>
+      <c r="B46" s="76">
+        <f t="shared" si="0"/>
+        <v>3.048</v>
+      </c>
+      <c r="C46" s="76"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="107"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="74">
+        <v>9</v>
+      </c>
+      <c r="B47" s="76">
+        <f t="shared" si="0"/>
+        <v>2.7432000000000003</v>
+      </c>
+      <c r="C47" s="76"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="107"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="74">
+        <v>8</v>
+      </c>
+      <c r="B48" s="76">
+        <f t="shared" si="0"/>
+        <v>2.4384000000000001</v>
+      </c>
+      <c r="C48" s="76"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="92"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="74">
+        <v>7</v>
+      </c>
+      <c r="B49" s="76">
+        <f t="shared" si="0"/>
+        <v>2.1335999999999999</v>
+      </c>
+      <c r="C49" s="76"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="74">
+        <v>6</v>
+      </c>
+      <c r="B50" s="76">
+        <f t="shared" si="0"/>
+        <v>1.8288000000000002</v>
+      </c>
+      <c r="C50" s="76"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="92"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="74">
+        <v>5</v>
+      </c>
+      <c r="B51" s="76">
+        <f t="shared" si="0"/>
+        <v>1.524</v>
+      </c>
+      <c r="C51" s="76"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="92"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="74">
+        <v>4</v>
+      </c>
+      <c r="B52" s="76">
+        <f t="shared" si="0"/>
+        <v>1.2192000000000001</v>
+      </c>
+      <c r="C52" s="76"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="92"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="74">
+        <v>3</v>
+      </c>
+      <c r="B53" s="76">
+        <f t="shared" si="0"/>
+        <v>0.9144000000000001</v>
+      </c>
+      <c r="C53" s="76"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="92"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="74">
+        <v>2</v>
+      </c>
+      <c r="B54" s="76">
+        <f t="shared" si="0"/>
+        <v>0.60960000000000003</v>
+      </c>
+      <c r="C54" s="76"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="92"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="74">
+        <v>1</v>
+      </c>
+      <c r="B55" s="76">
+        <f t="shared" si="0"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="C55" s="76"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="92"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="74">
+        <v>0</v>
+      </c>
+      <c r="B56" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="76"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="J2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39FC881-A3CB-406E-9F4D-21C24E806799}">
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="11" style="74"/>
+    <col min="3" max="3" width="2.875" style="74" customWidth="1"/>
+    <col min="4" max="5" width="11" style="75"/>
+    <col min="6" max="6" width="3.625" style="75" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="75" customWidth="1"/>
+    <col min="8" max="8" width="11" style="75"/>
+    <col min="9" max="9" width="9.25" style="75" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="75" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="74">
+        <v>30</v>
+      </c>
+      <c r="B4" s="76">
+        <f t="shared" ref="B4:B34" si="0">0.3048*A4</f>
+        <v>9.1440000000000001</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="74">
+        <v>29</v>
+      </c>
+      <c r="B5" s="76">
+        <f t="shared" si="0"/>
+        <v>8.8391999999999999</v>
+      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="74">
+        <v>28</v>
+      </c>
+      <c r="B6" s="76">
+        <f t="shared" si="0"/>
+        <v>8.5343999999999998</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="74">
+        <v>27</v>
+      </c>
+      <c r="B7" s="76">
+        <f t="shared" si="0"/>
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="74">
+        <v>26</v>
+      </c>
+      <c r="B8" s="76">
+        <f t="shared" si="0"/>
+        <v>7.9248000000000003</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="74">
+        <v>25</v>
+      </c>
+      <c r="B9" s="76">
+        <f t="shared" si="0"/>
+        <v>7.62</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="74">
+        <v>24</v>
+      </c>
+      <c r="B10" s="76">
+        <f t="shared" si="0"/>
+        <v>7.3152000000000008</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="74">
+        <v>23</v>
+      </c>
+      <c r="B11" s="76">
+        <f t="shared" si="0"/>
+        <v>7.0104000000000006</v>
+      </c>
+      <c r="C11" s="76"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="74">
+        <v>22</v>
+      </c>
+      <c r="B12" s="76">
+        <f t="shared" si="0"/>
+        <v>6.7056000000000004</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="74">
+        <v>21</v>
+      </c>
+      <c r="B13" s="76">
+        <f t="shared" si="0"/>
+        <v>6.4008000000000003</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="74">
+        <v>20</v>
+      </c>
+      <c r="B14" s="76">
+        <f t="shared" si="0"/>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="74">
+        <v>19</v>
+      </c>
+      <c r="B15" s="76">
+        <f t="shared" si="0"/>
+        <v>5.7911999999999999</v>
+      </c>
+      <c r="C15" s="76"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="74">
+        <v>18</v>
+      </c>
+      <c r="B16" s="76">
+        <f t="shared" si="0"/>
+        <v>5.4864000000000006</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="H16" s="75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="74">
+        <v>17</v>
+      </c>
+      <c r="B17" s="76">
+        <f t="shared" si="0"/>
+        <v>5.1816000000000004</v>
+      </c>
+      <c r="C17" s="76"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="74">
+        <v>16</v>
+      </c>
+      <c r="B18" s="76">
+        <f t="shared" si="0"/>
+        <v>4.8768000000000002</v>
+      </c>
+      <c r="C18" s="76"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="74">
+        <v>15</v>
+      </c>
+      <c r="B19" s="76">
+        <f t="shared" si="0"/>
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="C19" s="76"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="74">
+        <v>14</v>
+      </c>
+      <c r="B20" s="76">
+        <f t="shared" si="0"/>
+        <v>4.2671999999999999</v>
+      </c>
+      <c r="C20" s="76"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="74">
+        <v>13</v>
+      </c>
+      <c r="B21" s="76">
+        <f t="shared" si="0"/>
+        <v>3.9624000000000001</v>
+      </c>
+      <c r="C21" s="76"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="74">
+        <v>12</v>
+      </c>
+      <c r="B22" s="76">
+        <f t="shared" si="0"/>
+        <v>3.6576000000000004</v>
+      </c>
+      <c r="C22" s="76"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="J22" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="74">
+        <v>11</v>
+      </c>
+      <c r="B23" s="76">
+        <f t="shared" si="0"/>
+        <v>3.3528000000000002</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="74">
+        <v>10</v>
+      </c>
+      <c r="B24" s="76">
+        <f t="shared" si="0"/>
+        <v>3.048</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="74">
+        <v>9</v>
+      </c>
+      <c r="B25" s="76">
+        <f t="shared" si="0"/>
+        <v>2.7432000000000003</v>
+      </c>
+      <c r="C25" s="76"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="74">
+        <v>8</v>
+      </c>
+      <c r="B26" s="76">
+        <f t="shared" si="0"/>
+        <v>2.4384000000000001</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="74">
+        <v>7</v>
+      </c>
+      <c r="B27" s="76">
+        <f t="shared" si="0"/>
+        <v>2.1335999999999999</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="74">
+        <v>6</v>
+      </c>
+      <c r="B28" s="76">
+        <f t="shared" si="0"/>
+        <v>1.8288000000000002</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="74">
+        <v>5</v>
+      </c>
+      <c r="B29" s="76">
+        <f t="shared" si="0"/>
+        <v>1.524</v>
+      </c>
+      <c r="C29" s="76"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="74">
+        <v>4</v>
+      </c>
+      <c r="B30" s="76">
+        <f t="shared" si="0"/>
+        <v>1.2192000000000001</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="74">
+        <v>3</v>
+      </c>
+      <c r="B31" s="76">
+        <f t="shared" si="0"/>
+        <v>0.9144000000000001</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="74">
+        <v>2</v>
+      </c>
+      <c r="B32" s="76">
+        <f t="shared" si="0"/>
+        <v>0.60960000000000003</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="74">
+        <v>1</v>
+      </c>
+      <c r="B33" s="76">
+        <f t="shared" si="0"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="74">
+        <v>0</v>
+      </c>
+      <c r="B34" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="E34" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="G2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE247F88-6DDE-433E-81AC-06E8044E24FC}">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2350,12 +8788,12 @@
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="136"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
@@ -2419,145 +8857,12 @@
     </row>
     <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="26">
-        <v>85</v>
-      </c>
-      <c r="D10" s="26">
-        <v>-10</v>
-      </c>
-      <c r="E10" s="12">
-        <v>-10</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B8:E8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE247F88-6DDE-433E-81AC-06E8044E24FC}">
-  <dimension ref="B1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
-      <c r="G2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="8">
-        <v>50.688999199999998</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3">
-        <v>-63.2494011</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="20">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="26">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="136"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="21"/>
@@ -2615,11 +8920,11 @@
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
       <c r="F2" s="7" t="s">
         <v>22</v>
       </c>
@@ -2866,11 +9171,11 @@
     </row>
     <row r="24" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="136"/>
       <c r="F25" s="39" t="s">
         <v>22</v>
       </c>
@@ -3249,9 +9554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1D1867-B0BA-4CF9-B964-CDDBB5D9DD8C}">
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3264,12 +9567,12 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
       <c r="G2" s="29" t="s">
         <v>22</v>
       </c>
@@ -3423,12 +9726,12 @@
     </row>
     <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="136"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
@@ -3469,7 +9772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BF41A8-026E-451A-9D63-213454538E4C}">
   <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3479,11 +9782,11 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
       <c r="F2" s="39" t="s">
         <v>22</v>
       </c>
@@ -3751,9 +10054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE59413-D9F3-44A1-88DC-A59245E9D9B8}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3768,12 +10069,12 @@
   <sheetData>
     <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
       <c r="G2" s="39" t="s">
         <v>22</v>
       </c>
@@ -3826,12 +10127,12 @@
       <c r="E5" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="136"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="57" t="s">
@@ -4215,10 +10516,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="142" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="49" t="s">
@@ -4232,8 +10533,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="143"/>
       <c r="C3" s="45" t="s">
         <v>55</v>
       </c>
@@ -4245,8 +10546,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="139"/>
+      <c r="B4" s="144" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -4260,8 +10561,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="87"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="145"/>
       <c r="C5" s="41" t="s">
         <v>62</v>
       </c>
@@ -4273,8 +10574,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="139"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="41" t="s">
         <v>60</v>
       </c>
@@ -4286,8 +10587,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="145"/>
       <c r="C7" s="41" t="s">
         <v>55</v>
       </c>
@@ -4299,8 +10600,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="145"/>
       <c r="C8" s="41" t="s">
         <v>54</v>
       </c>
@@ -4312,8 +10613,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="45" t="s">
         <v>52</v>
       </c>
@@ -4325,8 +10626,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="86" t="s">
+      <c r="A10" s="139"/>
+      <c r="B10" s="144" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="43" t="s">
@@ -4340,8 +10641,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="87"/>
+      <c r="A11" s="139"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="41" t="s">
         <v>62</v>
       </c>
@@ -4353,8 +10654,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="87"/>
+      <c r="A12" s="139"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="41" t="s">
         <v>60</v>
       </c>
@@ -4366,8 +10667,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="87"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="41" t="s">
         <v>55</v>
       </c>
@@ -4379,8 +10680,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="87"/>
+      <c r="A14" s="139"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="41" t="s">
         <v>54</v>
       </c>
@@ -4392,8 +10693,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
-      <c r="B15" s="85"/>
+      <c r="A15" s="139"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="45" t="s">
         <v>52</v>
       </c>
@@ -4405,8 +10706,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="86" t="s">
+      <c r="A16" s="139"/>
+      <c r="B16" s="144" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="43" t="s">
@@ -4420,8 +10721,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="139"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="41" t="s">
         <v>62</v>
       </c>
@@ -4433,8 +10734,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="87"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="41" t="s">
         <v>60</v>
       </c>
@@ -4446,8 +10747,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="87"/>
+      <c r="A19" s="139"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="41" t="s">
         <v>55</v>
       </c>
@@ -4459,8 +10760,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="87"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="41" t="s">
         <v>54</v>
       </c>
@@ -4472,8 +10773,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="88"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="47" t="s">
         <v>52</v>
       </c>
@@ -4485,10 +10786,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="144" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="43" t="s">
@@ -4502,8 +10803,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81"/>
-      <c r="B23" s="85"/>
+      <c r="A23" s="139"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="45" t="s">
         <v>55</v>
       </c>
@@ -4515,8 +10816,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="86" t="s">
+      <c r="A24" s="139"/>
+      <c r="B24" s="144" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -4530,8 +10831,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="87"/>
+      <c r="A25" s="139"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="41" t="s">
         <v>62</v>
       </c>
@@ -4543,8 +10844,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="87"/>
+      <c r="A26" s="139"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="41" t="s">
         <v>60</v>
       </c>
@@ -4556,8 +10857,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="87"/>
+      <c r="A27" s="139"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="41" t="s">
         <v>57</v>
       </c>
@@ -4569,8 +10870,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="87"/>
+      <c r="A28" s="139"/>
+      <c r="B28" s="145"/>
       <c r="C28" s="41" t="s">
         <v>55</v>
       </c>
@@ -4582,8 +10883,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="87"/>
+      <c r="A29" s="139"/>
+      <c r="B29" s="145"/>
       <c r="C29" s="41" t="s">
         <v>54</v>
       </c>
@@ -4595,8 +10896,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="81"/>
-      <c r="B30" s="85"/>
+      <c r="A30" s="139"/>
+      <c r="B30" s="143"/>
       <c r="C30" s="45" t="s">
         <v>52</v>
       </c>
@@ -4608,8 +10909,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="86" t="s">
+      <c r="A31" s="139"/>
+      <c r="B31" s="144" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="43" t="s">
@@ -4623,8 +10924,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="87"/>
+      <c r="A32" s="139"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="41" t="s">
         <v>62</v>
       </c>
@@ -4636,8 +10937,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="87"/>
+      <c r="A33" s="139"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="41" t="s">
         <v>60</v>
       </c>
@@ -4649,8 +10950,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="87"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="145"/>
       <c r="C34" s="41" t="s">
         <v>57</v>
       </c>
@@ -4662,8 +10963,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="87"/>
+      <c r="A35" s="139"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="41" t="s">
         <v>55</v>
       </c>
@@ -4675,8 +10976,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="87"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="145"/>
       <c r="C36" s="41" t="s">
         <v>54</v>
       </c>
@@ -4688,8 +10989,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="81"/>
-      <c r="B37" s="85"/>
+      <c r="A37" s="139"/>
+      <c r="B37" s="143"/>
       <c r="C37" s="45" t="s">
         <v>52</v>
       </c>
@@ -4701,8 +11002,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="86" t="s">
+      <c r="A38" s="139"/>
+      <c r="B38" s="144" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -4716,8 +11017,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="87"/>
+      <c r="A39" s="139"/>
+      <c r="B39" s="145"/>
       <c r="C39" s="41" t="s">
         <v>62</v>
       </c>
@@ -4729,8 +11030,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="87"/>
+      <c r="A40" s="139"/>
+      <c r="B40" s="145"/>
       <c r="C40" s="41" t="s">
         <v>60</v>
       </c>
@@ -4742,8 +11043,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="87"/>
+      <c r="A41" s="139"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="41" t="s">
         <v>57</v>
       </c>
@@ -4755,8 +11056,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="87"/>
+      <c r="A42" s="139"/>
+      <c r="B42" s="145"/>
       <c r="C42" s="41" t="s">
         <v>55</v>
       </c>
@@ -4768,8 +11069,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="87"/>
+      <c r="A43" s="139"/>
+      <c r="B43" s="145"/>
       <c r="C43" s="41" t="s">
         <v>54</v>
       </c>
@@ -4781,8 +11082,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="81"/>
-      <c r="B44" s="87"/>
+      <c r="A44" s="139"/>
+      <c r="B44" s="145"/>
       <c r="C44" s="41" t="s">
         <v>52</v>
       </c>
@@ -4823,10 +11124,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="90"/>
+      <c r="C2" s="148"/>
     </row>
     <row r="3" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
@@ -4878,18 +11179,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87885471-7CC2-479B-9C76-A0AAB2D0375D}">
-  <dimension ref="B1:J27"/>
+  <dimension ref="B1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.125" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13.875" bestFit="1" customWidth="1"/>
@@ -4897,20 +11196,20 @@
   <sheetData>
     <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-      <c r="G2" s="39" t="s">
+      <c r="B2" s="131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="G2" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="40">
-        <v>50.9020996</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="165">
+        <v>47.287930000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -4923,392 +11222,413 @@
       <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3">
-        <v>-63.405101799999997</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
+      <c r="H3" s="167">
+        <v>-71.167720000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="152" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="171" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="159" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="154"/>
+      <c r="G4" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="156" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="157" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="152" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="172" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="159" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="154"/>
+      <c r="G5" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="130" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C6" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="19">
-        <v>24</v>
-      </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="37">
-        <v>24</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="58">
-        <v>24</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>104</v>
-      </c>
+      <c r="D6" s="172" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="153" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="154"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="34">
-        <v>24</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="20">
-        <v>-10</v>
-      </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
+      <c r="B7" s="157" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="152" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="172">
+        <v>1</v>
+      </c>
+      <c r="E7" s="153" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="154"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="35">
-        <v>24</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="19">
-        <v>10</v>
-      </c>
-      <c r="I8" s="19">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="67" t="s">
+      <c r="B8" s="157" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="152" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="172">
+        <v>2</v>
+      </c>
+      <c r="E8" s="153"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="157" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="152" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="172">
+        <v>1</v>
+      </c>
+      <c r="E9" s="160"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="157" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="152" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="173" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="160" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="154"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="157" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="152" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="173" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="160" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="154"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="157" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="152" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="172" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="170" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="154"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="157" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="152" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="172" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="159" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="157" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="152" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="172" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="159" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="157" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="152" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="172" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="159" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="157" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="172">
+        <v>-0.08</v>
+      </c>
+      <c r="E16" s="153"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+    </row>
+    <row r="17" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="157" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="34">
-        <v>24</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="20">
-        <v>-46</v>
-      </c>
-      <c r="I9" s="20">
-        <v>-16</v>
-      </c>
-      <c r="J9" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="72" t="s">
+      <c r="D17" s="172" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="159" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+    </row>
+    <row r="18" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="35">
-        <v>24</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="26">
-        <v>6.5</v>
-      </c>
-      <c r="I10" s="26">
-        <v>33.5</v>
-      </c>
-      <c r="J10" s="12">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="34">
-        <v>24</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="35">
-        <v>24</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="34">
-        <v>-0.03</v>
-      </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="D18" s="172" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="159" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="152" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="172" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="157" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="152" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="172" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="157" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="172">
+        <v>8.5</v>
+      </c>
+      <c r="E21" s="160"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="157" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="172">
+        <v>14.6</v>
+      </c>
+      <c r="E22" s="160"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="157" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D23" s="172">
         <v>2.5</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="34">
-        <v>-0.1</v>
-      </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="35">
-        <v>24</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="34">
-        <v>20</v>
-      </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="35">
-        <v>15</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="34">
-        <v>10</v>
-      </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="35">
-        <v>5</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="34">
-        <v>26</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="35">
-        <v>24</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="34">
-        <v>25</v>
-      </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="35">
-        <v>5</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="34">
-        <v>25</v>
-      </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="19" t="s">
+      <c r="E23" s="160" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+    </row>
+    <row r="24" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="161" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="35">
-        <v>-0.03</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="61">
-        <v>-0.09</v>
-      </c>
-      <c r="E27" s="62"/>
+      <c r="D24" s="174">
+        <v>-0.04</v>
+      </c>
+      <c r="E24" s="163"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="168" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+    </row>
+    <row r="28" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <sortState ref="B4:E24">
+    <sortCondition ref="B4:B24"/>
+  </sortState>
+  <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/Metadata.xlsx
+++ b/Resources/Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peisa\Documents\GitHub\EVAP_data_worflow\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/anthi182_ulaval_ca/Documents/Documents/GitHub/Ro2_data_worflow/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6983D7D3-A322-4149-A22B-9F8F3383839B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{6983D7D3-A322-4149-A22B-9F8F3383839B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EFE9012-1AD4-4EC7-BD00-EB4AB18C122F}"/>
   <bookViews>
-    <workbookView xWindow="-23340" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge" sheetId="3" r:id="rId1"/>
@@ -36,12 +36,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="243">
   <si>
     <t>Instrument</t>
   </si>
@@ -770,6 +781,9 @@
   </si>
   <si>
     <t>1.5</t>
+  </si>
+  <si>
+    <t>Total precipitometer</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1710,18 +1724,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="52" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="53" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="54" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyBorder="1"/>
@@ -1738,28 +1749,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1777,8 +1775,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1834,65 +1867,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1940,8 +1925,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3399311" y="5235038"/>
-          <a:ext cx="893124" cy="5143500"/>
+          <a:off x="3390240" y="5008252"/>
+          <a:ext cx="893124" cy="4898572"/>
           <a:chOff x="3065318" y="5264727"/>
           <a:chExt cx="1004455" cy="5143500"/>
         </a:xfrm>
@@ -2094,8 +2079,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3099954" y="6759039"/>
-          <a:ext cx="893124" cy="6476999"/>
+          <a:off x="3081811" y="6459682"/>
+          <a:ext cx="893124" cy="6168570"/>
           <a:chOff x="3065318" y="5264727"/>
           <a:chExt cx="1004455" cy="5143500"/>
         </a:xfrm>
@@ -2248,8 +2233,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1780061" y="3565070"/>
-          <a:ext cx="893124" cy="3003467"/>
+          <a:off x="1766454" y="3410856"/>
+          <a:ext cx="893124" cy="2867395"/>
           <a:chOff x="3065318" y="5264727"/>
           <a:chExt cx="1004455" cy="5143500"/>
         </a:xfrm>
@@ -2463,8 +2448,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1780061" y="6858000"/>
-          <a:ext cx="893124" cy="3901538"/>
+          <a:off x="1766454" y="6549572"/>
+          <a:ext cx="893124" cy="3720109"/>
           <a:chOff x="3065318" y="5264727"/>
           <a:chExt cx="1004455" cy="5143500"/>
         </a:xfrm>
@@ -2617,8 +2602,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2147453" y="6109607"/>
-          <a:ext cx="288225" cy="458930"/>
+          <a:off x="2133846" y="5837464"/>
+          <a:ext cx="288225" cy="440787"/>
           <a:chOff x="3065318" y="5264727"/>
           <a:chExt cx="1004455" cy="5143500"/>
         </a:xfrm>
@@ -2809,9 +2794,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2849,7 +2834,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2955,7 +2940,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3097,7 +3082,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3105,33 +3090,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE44D4E6-1DC8-5846-9613-DEB0E908B686}">
-  <dimension ref="B1:J17"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
     <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="131" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
@@ -3139,7 +3126,7 @@
         <v>50.653801000000001</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3159,7 +3146,7 @@
         <v>-63.259498600000001</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
@@ -3171,7 +3158,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
@@ -3185,7 +3172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
@@ -3195,7 +3182,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
         <v>5</v>
       </c>
@@ -3207,12 +3194,12 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="23" t="s">
         <v>92</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="D8" s="19">
         <v>2.5</v>
@@ -3221,24 +3208,24 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="20">
         <v>6.3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="19">
         <v>5.2</v>
@@ -3247,86 +3234,74 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20">
         <v>2.2999999999999998</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="19" t="s">
+    <row r="12" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="44">
+      <c r="D12" s="26">
         <v>0.9</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="134" t="s">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="136"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="18" t="s">
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="133"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+      <c r="C15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E15" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
+    <row r="16" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C16" s="26">
         <v>26</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D16" s="26">
         <v>-13.6</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E16" s="12">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3339,37 +3314,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="32.125" customWidth="1"/>
+    <col min="5" max="5" width="32.08203125" customWidth="1"/>
     <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="131" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
       <c r="G2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="128">
+      <c r="H2" s="112">
         <v>47.284790000000001</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3382,281 +3357,281 @@
       <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="120" t="s">
+      <c r="G3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="129">
+      <c r="H3" s="113">
         <v>-71.151439999999994</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="151" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="171" t="s">
+      <c r="D4" s="122" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="159" t="s">
+      <c r="E4" s="117" t="s">
         <v>221</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="107" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="157" t="s">
+    <row r="5" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="172" t="s">
+      <c r="D5" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="159" t="s">
+      <c r="E5" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="124" t="s">
+      <c r="H5" s="108" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="157" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="172">
+      <c r="D6" s="123">
         <v>1</v>
       </c>
-      <c r="E6" s="153" t="s">
+      <c r="E6" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="157" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="172">
+      <c r="D7" s="123">
         <v>2</v>
       </c>
-      <c r="E7" s="153"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="157" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="173" t="s">
+      <c r="D8" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="160" t="s">
+      <c r="E8" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="157" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="173" t="s">
+      <c r="D9" s="124" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="160" t="s">
+      <c r="E9" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="157" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="152" t="s">
+      <c r="C10" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="172">
+      <c r="D10" s="123">
         <v>2.1</v>
       </c>
-      <c r="E10" s="159"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="157" t="s">
+      <c r="E10" s="117"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="152" t="s">
+      <c r="C11" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="172">
+      <c r="D11" s="123">
         <v>5.3</v>
       </c>
-      <c r="E11" s="159" t="s">
+      <c r="E11" s="117" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="157" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="152" t="s">
+      <c r="C12" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="123">
         <v>9.1</v>
       </c>
-      <c r="E12" s="159" t="s">
+      <c r="E12" s="117" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="157" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="172">
+      <c r="D13" s="123">
         <v>12.9</v>
       </c>
-      <c r="E13" s="159" t="s">
+      <c r="E13" s="117" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="157" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="172">
+      <c r="D14" s="123">
         <v>-0.08</v>
       </c>
-      <c r="E14" s="153"/>
+      <c r="E14" s="1"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="157" t="s">
+    <row r="15" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="B15" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C15" s="158" t="s">
+      <c r="C15" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="171" t="s">
+      <c r="D15" s="122" t="s">
         <v>218</v>
       </c>
-      <c r="E15" s="159" t="s">
+      <c r="E15" s="117" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="157" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="171" t="s">
+      <c r="D16" s="122" t="s">
         <v>218</v>
       </c>
-      <c r="E16" s="159" t="s">
+      <c r="E16" s="117" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="157" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="152" t="s">
+      <c r="C17" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="172">
+      <c r="D17" s="123">
         <v>3</v>
       </c>
-      <c r="E17" s="160"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="157" t="s">
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="152" t="s">
+      <c r="C18" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="172">
+      <c r="D18" s="123">
         <v>14.9</v>
       </c>
-      <c r="E18" s="160" t="s">
+      <c r="E18" s="14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="157" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="172">
+      <c r="D19" s="123">
         <v>2.5</v>
       </c>
-      <c r="E19" s="160" t="s">
+      <c r="E19" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="161" t="s">
+    <row r="20" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="162" t="s">
+      <c r="C20" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="174">
+      <c r="D20" s="125">
         <v>-0.04</v>
       </c>
-      <c r="E20" s="163"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="62"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="168" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="147" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-    </row>
-    <row r="24" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="169" t="s">
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+    </row>
+    <row r="24" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="146" t="s">
         <v>211</v>
       </c>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-    </row>
-    <row r="28" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+    </row>
+    <row r="28" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <sortState ref="B4:E20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E20">
     <sortCondition ref="B4:B20"/>
   </sortState>
   <mergeCells count="3">
@@ -3674,31 +3649,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
-    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="131" t="s">
+    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="128" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="G2" s="125" t="s">
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="G2" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="128">
+      <c r="H2" s="112">
         <v>47.267270000000003</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3711,196 +3686,196 @@
       <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="126" t="s">
+      <c r="G3" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="129">
+      <c r="H3" s="113">
         <v>-71.175120000000007</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="151" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="171">
+      <c r="D4" s="122">
         <v>3.65</v>
       </c>
-      <c r="E4" s="159"/>
-      <c r="G4" s="127" t="s">
+      <c r="E4" s="117"/>
+      <c r="G4" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="107" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="157" t="s">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="172">
+      <c r="D5" s="123">
         <v>2.5</v>
       </c>
-      <c r="E5" s="159" t="s">
+      <c r="E5" s="117" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="124" t="s">
+      <c r="H5" s="108" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="157" t="s">
+    <row r="6" spans="2:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="D6" s="172">
+      <c r="D6" s="123">
         <v>3.65</v>
       </c>
-      <c r="E6" s="153" t="s">
+      <c r="E6" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="157" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="172">
+      <c r="D7" s="123">
         <v>1.5</v>
       </c>
-      <c r="E7" s="153"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="157" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="173" t="s">
+      <c r="D8" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="160"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="157" t="s">
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="173" t="s">
+      <c r="D9" s="124" t="s">
         <v>233</v>
       </c>
-      <c r="E9" s="160"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="157" t="s">
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="152" t="s">
+      <c r="C10" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="172">
+      <c r="D10" s="123">
         <v>2.4</v>
       </c>
-      <c r="E10" s="159"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="157" t="s">
+      <c r="E10" s="117"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="152" t="s">
+      <c r="C11" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="172">
+      <c r="D11" s="123">
         <v>-0.08</v>
       </c>
-      <c r="E11" s="153"/>
-    </row>
-    <row r="12" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="157" t="s">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="B12" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="122">
         <v>3.65</v>
       </c>
-      <c r="E12" s="159" t="s">
+      <c r="E12" s="117" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="157" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="171">
+      <c r="D13" s="122">
         <v>3.65</v>
       </c>
-      <c r="E13" s="159"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="157" t="s">
+      <c r="E13" s="117"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="172">
+      <c r="D14" s="123">
         <v>5.4</v>
       </c>
-      <c r="E14" s="160"/>
-    </row>
-    <row r="15" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="161" t="s">
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="162" t="s">
+      <c r="C15" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="174">
+      <c r="D15" s="125">
         <v>-0.04</v>
       </c>
-      <c r="E15" s="163"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="62"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="168" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="147" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="168"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
     </row>
   </sheetData>
-  <sortState ref="B4:E15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E15">
     <sortCondition ref="B4:B15"/>
   </sortState>
   <mergeCells count="3">
@@ -3918,26 +3893,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="131" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="128" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
       <c r="G2" s="39" t="s">
         <v>22</v>
       </c>
@@ -3945,7 +3920,7 @@
         <v>47.322539999999996</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3958,113 +3933,113 @@
       <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="120" t="s">
+      <c r="G3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="121">
+      <c r="H3" s="105">
         <v>-71.151210000000006</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="151" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="171">
+      <c r="D4" s="122">
         <v>2.4</v>
       </c>
-      <c r="E4" s="159"/>
+      <c r="E4" s="117"/>
       <c r="G4" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="107" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="157" t="s">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="172">
+      <c r="D5" s="123">
         <v>2.5</v>
       </c>
-      <c r="E5" s="159" t="s">
+      <c r="E5" s="117" t="s">
         <v>235</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="124" t="s">
+      <c r="H5" s="108" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="157" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="172">
+      <c r="D6" s="123">
         <v>1.5</v>
       </c>
-      <c r="E6" s="153"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="157" t="s">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="173" t="s">
+      <c r="D7" s="124" t="s">
         <v>241</v>
       </c>
-      <c r="E7" s="160"/>
-    </row>
-    <row r="8" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="157" t="s">
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="2:8" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="171">
+      <c r="D8" s="122">
         <v>2.4</v>
       </c>
-      <c r="E8" s="159" t="s">
+      <c r="E8" s="117" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="161" t="s">
+    <row r="9" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="162" t="s">
+      <c r="C9" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="175">
+      <c r="D9" s="126">
         <v>2.4</v>
       </c>
-      <c r="E9" s="176"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="127"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="168" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="147" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4081,43 +4056,43 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="74" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="74" customWidth="1"/>
     <col min="2" max="2" width="11" style="74"/>
     <col min="3" max="3" width="21.25" style="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.875" style="74" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="74" customWidth="1"/>
     <col min="5" max="9" width="11" style="75"/>
-    <col min="10" max="10" width="3.625" style="75" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="75" customWidth="1"/>
+    <col min="10" max="10" width="3.58203125" style="75" customWidth="1"/>
+    <col min="11" max="11" width="8.58203125" style="75" customWidth="1"/>
     <col min="12" max="12" width="11" style="75"/>
     <col min="13" max="13" width="9.25" style="75" customWidth="1"/>
     <col min="14" max="14" width="19.5" style="75" customWidth="1"/>
     <col min="15" max="16384" width="11" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="73" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="149" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E2" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="150" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="74" t="s">
         <v>135</v>
       </c>
@@ -4127,12 +4102,12 @@
       <c r="C3" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
       <c r="K3" s="75" t="s">
         <v>137</v>
       </c>
@@ -4146,7 +4121,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="74">
         <v>50</v>
       </c>
@@ -4159,17 +4134,15 @@
         <v>14.906969435183198</v>
       </c>
       <c r="D4" s="76"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="92"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="92"/>
       <c r="K4" s="75" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="74">
         <v>49</v>
       </c>
@@ -4182,14 +4155,12 @@
         <v>14.608830046479534</v>
       </c>
       <c r="D5" s="76"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="92"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="93"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="74">
         <v>48</v>
       </c>
@@ -4202,12 +4173,10 @@
         <v>14.310690657775872</v>
       </c>
       <c r="D6" s="76"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="92"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="95"/>
       <c r="L6" s="75" t="s">
         <v>151</v>
       </c>
@@ -4215,7 +4184,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="74">
         <v>47</v>
       </c>
@@ -4228,14 +4197,12 @@
         <v>14.012551269072208</v>
       </c>
       <c r="D7" s="76"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="92"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F7" s="95"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="96"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="74">
         <v>46</v>
       </c>
@@ -4248,17 +4215,15 @@
         <v>13.714411880368544</v>
       </c>
       <c r="D8" s="76"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="92"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="95"/>
       <c r="M8" s="75" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="74">
         <v>45</v>
       </c>
@@ -4271,14 +4236,12 @@
         <v>13.416272491664881</v>
       </c>
       <c r="D9" s="76"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="92"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F9" s="97"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="98"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="74">
         <v>44</v>
       </c>
@@ -4291,14 +4254,12 @@
         <v>13.118133102961215</v>
       </c>
       <c r="D10" s="76"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="92"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10" s="95"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="95"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="74">
         <v>43</v>
       </c>
@@ -4311,14 +4272,12 @@
         <v>12.819993714257551</v>
       </c>
       <c r="D11" s="76"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="92"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F11" s="95"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="95"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="74">
         <v>42</v>
       </c>
@@ -4331,14 +4290,12 @@
         <v>12.521854325553887</v>
       </c>
       <c r="D12" s="76"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="92"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F12" s="95"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="96"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="74">
         <v>41</v>
       </c>
@@ -4351,14 +4308,12 @@
         <v>12.223714936850223</v>
       </c>
       <c r="D13" s="76"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="92"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F13" s="95"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="95"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="74">
         <v>40</v>
       </c>
@@ -4371,14 +4326,12 @@
         <v>11.92557554814656</v>
       </c>
       <c r="D14" s="76"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="92"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="98"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="74">
         <v>39</v>
       </c>
@@ -4391,14 +4344,12 @@
         <v>11.627436159442896</v>
       </c>
       <c r="D15" s="76"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="92"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="95"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="74">
         <v>38</v>
       </c>
@@ -4411,14 +4362,12 @@
         <v>11.32929677073923</v>
       </c>
       <c r="D16" s="76"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="92"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F16" s="95"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="95"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="74">
         <v>37</v>
       </c>
@@ -4431,14 +4380,12 @@
         <v>11.031157382035568</v>
       </c>
       <c r="D17" s="76"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="92"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F17" s="95"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="96"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="74">
         <v>36</v>
       </c>
@@ -4451,17 +4398,15 @@
         <v>10.733017993331904</v>
       </c>
       <c r="D18" s="76"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="92"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="95"/>
       <c r="K18" s="75" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="74">
         <v>35</v>
       </c>
@@ -4474,14 +4419,12 @@
         <v>10.43487860462824</v>
       </c>
       <c r="D19" s="76"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="92"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F19" s="97"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="98"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="74">
         <v>34</v>
       </c>
@@ -4494,14 +4437,12 @@
         <v>10.136739215924576</v>
       </c>
       <c r="D20" s="76"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="92"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="95"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="95"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="74">
         <v>33</v>
       </c>
@@ -4514,14 +4455,12 @@
         <v>9.8385998272209125</v>
       </c>
       <c r="D21" s="76"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="92"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F21" s="95"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="95"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="74">
         <v>32</v>
       </c>
@@ -4534,14 +4473,12 @@
         <v>9.5404604385172469</v>
       </c>
       <c r="D22" s="76"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="92"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F22" s="95"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="96"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="74">
         <v>31</v>
       </c>
@@ -4554,14 +4491,12 @@
         <v>9.242321049813583</v>
       </c>
       <c r="D23" s="76"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="92"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F23" s="95"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="95"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="74">
         <v>30</v>
       </c>
@@ -4574,14 +4509,12 @@
         <v>8.9441816611099192</v>
       </c>
       <c r="D24" s="76"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="92"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F24" s="97"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="74">
         <v>29</v>
       </c>
@@ -4594,14 +4527,12 @@
         <v>8.6460422724062553</v>
       </c>
       <c r="D25" s="76"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="92"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F25" s="95"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="95"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="74">
         <v>28</v>
       </c>
@@ -4614,17 +4545,15 @@
         <v>8.3479028837025915</v>
       </c>
       <c r="D26" s="76"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="92"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="95"/>
       <c r="L26" s="75" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="74">
         <v>27</v>
       </c>
@@ -4637,14 +4566,12 @@
         <v>8.0497634949989276</v>
       </c>
       <c r="D27" s="76"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="92"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F27" s="95"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="96"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="74">
         <v>26</v>
       </c>
@@ -4657,17 +4584,15 @@
         <v>7.7516241062952638</v>
       </c>
       <c r="D28" s="76"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="92"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="95"/>
       <c r="M28" s="75" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="74">
         <v>25</v>
       </c>
@@ -4680,13 +4605,12 @@
         <v>7.453484717591599</v>
       </c>
       <c r="D29" s="76"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="92"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F29" s="97"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="98"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="74">
         <v>24</v>
       </c>
@@ -4699,13 +4623,12 @@
         <v>7.1553453288879361</v>
       </c>
       <c r="D30" s="76"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="92"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F30" s="95"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="95"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="74">
         <v>23</v>
       </c>
@@ -4718,13 +4641,12 @@
         <v>6.8572059401842722</v>
       </c>
       <c r="D31" s="76"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="92"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F31" s="95"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="95"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="74">
         <v>22</v>
       </c>
@@ -4737,13 +4659,12 @@
         <v>6.5590665514806075</v>
       </c>
       <c r="D32" s="76"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="92"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F32" s="95"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="96"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="74">
         <v>21</v>
       </c>
@@ -4756,13 +4677,12 @@
         <v>6.2609271627769436</v>
       </c>
       <c r="D33" s="76"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="92"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F33" s="95"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="95"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="74">
         <v>20</v>
       </c>
@@ -4775,13 +4695,12 @@
         <v>5.9627877740732798</v>
       </c>
       <c r="D34" s="76"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="92"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="98"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="74">
         <v>19</v>
       </c>
@@ -4794,16 +4713,15 @@
         <v>5.664648385369615</v>
       </c>
       <c r="D35" s="76"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="92"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="95"/>
       <c r="K35" s="75" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="74">
         <v>18</v>
       </c>
@@ -4816,13 +4734,12 @@
         <v>5.366508996665952</v>
       </c>
       <c r="D36" s="76"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="92"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F36" s="95"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="95"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="74">
         <v>17</v>
       </c>
@@ -4835,13 +4752,12 @@
         <v>5.0683696079622882</v>
       </c>
       <c r="D37" s="76"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="92"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F37" s="95"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="96"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="74">
         <v>16</v>
       </c>
@@ -4854,13 +4770,12 @@
         <v>4.7702302192586234</v>
       </c>
       <c r="D38" s="76"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="92"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="95"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="95"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="74">
         <v>15</v>
       </c>
@@ -4873,13 +4788,12 @@
         <v>4.4720908305549596</v>
       </c>
       <c r="D39" s="76"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="92"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F39" s="97"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="98"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="74">
         <v>14</v>
       </c>
@@ -4892,13 +4806,12 @@
         <v>4.1739514418512957</v>
       </c>
       <c r="D40" s="76"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="92"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F40" s="95"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="95"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="74">
         <v>13</v>
       </c>
@@ -4911,13 +4824,12 @@
         <v>3.8758120531476319</v>
       </c>
       <c r="D41" s="76"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="92"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F41" s="95"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="95"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="74">
         <v>12</v>
       </c>
@@ -4930,13 +4842,12 @@
         <v>3.577672664443968</v>
       </c>
       <c r="D42" s="76"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="92"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F42" s="95"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="96"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="74">
         <v>11</v>
       </c>
@@ -4949,16 +4860,15 @@
         <v>3.2795332757403037</v>
       </c>
       <c r="D43" s="76"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="92"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="95"/>
       <c r="K43" s="75" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="74">
         <v>10</v>
       </c>
@@ -4971,13 +4881,12 @@
         <v>2.9813938870366399</v>
       </c>
       <c r="D44" s="76"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="92"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F44" s="97"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="98"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="74">
         <v>9</v>
       </c>
@@ -4990,13 +4899,12 @@
         <v>2.683254498332976</v>
       </c>
       <c r="D45" s="76"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="92"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F45" s="95"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="95"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="74">
         <v>8</v>
       </c>
@@ -5009,13 +4917,12 @@
         <v>2.3851151096293117</v>
       </c>
       <c r="D46" s="76"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="92"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F46" s="95"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="96"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="74">
         <v>7</v>
       </c>
@@ -5028,13 +4935,12 @@
         <v>2.0869757209256479</v>
       </c>
       <c r="D47" s="76"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="92"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F47" s="95"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="98"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="74">
         <v>6</v>
       </c>
@@ -5047,13 +4953,12 @@
         <v>1.788836332221984</v>
       </c>
       <c r="D48" s="76"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="92"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F48" s="95"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="100"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="74">
         <v>5</v>
       </c>
@@ -5066,13 +4971,12 @@
         <v>1.4906969435183199</v>
       </c>
       <c r="D49" s="76"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="92"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F49" s="97"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="100"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="74">
         <v>4</v>
       </c>
@@ -5085,13 +4989,12 @@
         <v>1.1925575548146559</v>
       </c>
       <c r="D50" s="76"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="92"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F50" s="95"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="100"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="74">
         <v>3</v>
       </c>
@@ -5104,13 +5007,12 @@
         <v>0.89441816611099201</v>
       </c>
       <c r="D51" s="76"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="102"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="92"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F51" s="95"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="100"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="74">
         <v>2</v>
       </c>
@@ -5123,13 +5025,12 @@
         <v>0.59627877740732793</v>
       </c>
       <c r="D52" s="76"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="92"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F52" s="95"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="100"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="74">
         <v>1</v>
       </c>
@@ -5142,13 +5043,12 @@
         <v>0.29813938870366397</v>
       </c>
       <c r="D53" s="76"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="102"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="92"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F53" s="95"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="100"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="74">
         <v>0</v>
       </c>
@@ -5161,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="D54" s="76"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="102"/>
-      <c r="I54" s="103"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5179,47 +5079,47 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F08D047-F0FC-4BFB-97BC-1391B65AB4E5}">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="74" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="74" customWidth="1"/>
     <col min="2" max="2" width="11" style="74"/>
     <col min="3" max="3" width="17.25" style="74" customWidth="1"/>
-    <col min="4" max="4" width="2.875" style="74" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="74" customWidth="1"/>
     <col min="5" max="10" width="11" style="75"/>
     <col min="11" max="11" width="11.25" style="75" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="11" style="75"/>
-    <col min="14" max="14" width="15.625" style="75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.58203125" style="75" bestFit="1" customWidth="1"/>
     <col min="15" max="21" width="11" style="75"/>
     <col min="22" max="23" width="17" style="75" customWidth="1"/>
     <col min="24" max="16384" width="11" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E2" s="149" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E2" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="150" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="74" t="s">
         <v>135</v>
       </c>
@@ -5229,12 +5129,12 @@
       <c r="C3" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
       <c r="K3" s="75" t="s">
         <v>137</v>
       </c>
@@ -5248,7 +5148,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="74">
         <v>65</v>
       </c>
@@ -5266,13 +5166,8 @@
       <c r="H4" s="78"/>
       <c r="I4" s="80"/>
       <c r="J4" s="77"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="74">
         <v>64</v>
       </c>
@@ -5285,18 +5180,13 @@
         <v>19.080920877034494</v>
       </c>
       <c r="E5" s="77"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="82"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
       <c r="J5" s="77"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="74">
         <v>63</v>
       </c>
@@ -5309,18 +5199,13 @@
         <v>18.78278148833083</v>
       </c>
       <c r="E6" s="77"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="77"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="74">
         <v>62</v>
       </c>
@@ -5333,18 +5218,13 @@
         <v>18.484642099627166</v>
       </c>
       <c r="E7" s="77"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="85"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="84"/>
       <c r="J7" s="77"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="74">
         <v>61</v>
       </c>
@@ -5357,20 +5237,16 @@
         <v>18.186502710923502</v>
       </c>
       <c r="E8" s="77"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="84"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="77"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81" t="s">
+      <c r="M8" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="74">
         <v>60</v>
       </c>
@@ -5388,15 +5264,11 @@
       <c r="H9" s="78"/>
       <c r="I9" s="80"/>
       <c r="J9" s="77"/>
-      <c r="K9" s="81" t="s">
+      <c r="K9" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="74">
         <v>59</v>
       </c>
@@ -5409,18 +5281,13 @@
         <v>17.590223933516175</v>
       </c>
       <c r="E10" s="77"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="82"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="81"/>
       <c r="J10" s="77"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="74">
         <v>58</v>
       </c>
@@ -5433,20 +5300,16 @@
         <v>17.292084544812511</v>
       </c>
       <c r="E11" s="77"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
       <c r="J11" s="77"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81" t="s">
+      <c r="N11" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="O11" s="81"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="74">
         <v>57</v>
       </c>
@@ -5459,18 +5322,13 @@
         <v>16.993945156108847</v>
       </c>
       <c r="E12" s="77"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="85"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="84"/>
       <c r="J12" s="77"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="74">
         <v>56</v>
       </c>
@@ -5483,18 +5341,13 @@
         <v>16.695805767405183</v>
       </c>
       <c r="E13" s="77"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="84"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="83"/>
       <c r="J13" s="77"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="74">
         <v>55</v>
       </c>
@@ -5512,13 +5365,8 @@
       <c r="H14" s="78"/>
       <c r="I14" s="80"/>
       <c r="J14" s="77"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="74">
         <v>54</v>
       </c>
@@ -5531,18 +5379,13 @@
         <v>16.099526989997855</v>
       </c>
       <c r="E15" s="77"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="82"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="77"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="74">
         <v>53</v>
       </c>
@@ -5555,18 +5398,13 @@
         <v>15.801387601294193</v>
       </c>
       <c r="E16" s="77"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="83"/>
       <c r="J16" s="77"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="74">
         <v>52</v>
       </c>
@@ -5579,18 +5417,13 @@
         <v>15.503248212590528</v>
       </c>
       <c r="E17" s="77"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="85"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="84"/>
       <c r="J17" s="77"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="74">
         <v>51</v>
       </c>
@@ -5603,18 +5436,13 @@
         <v>15.205108823886864</v>
       </c>
       <c r="E18" s="77"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="84"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="83"/>
       <c r="J18" s="77"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="74">
         <v>50</v>
       </c>
@@ -5627,19 +5455,14 @@
         <v>14.906969435183198</v>
       </c>
       <c r="D19" s="76"/>
-      <c r="E19" s="86"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="78"/>
       <c r="G19" s="79"/>
       <c r="H19" s="78"/>
       <c r="I19" s="80"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J19" s="77"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="74">
         <v>49</v>
       </c>
@@ -5652,19 +5475,14 @@
         <v>14.608830046479534</v>
       </c>
       <c r="D20" s="76"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="77"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="77"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="74">
         <v>48</v>
       </c>
@@ -5677,21 +5495,17 @@
         <v>14.310690657775872</v>
       </c>
       <c r="D21" s="76"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81" t="s">
+      <c r="E21" s="77"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="77"/>
+      <c r="L21" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="74">
         <v>47</v>
       </c>
@@ -5704,19 +5518,14 @@
         <v>14.012551269072208</v>
       </c>
       <c r="D22" s="76"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E22" s="77"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="77"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="74">
         <v>46</v>
       </c>
@@ -5729,19 +5538,14 @@
         <v>13.714411880368544</v>
       </c>
       <c r="D23" s="76"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="77"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="77"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="74">
         <v>45</v>
       </c>
@@ -5754,21 +5558,17 @@
         <v>13.416272491664881</v>
       </c>
       <c r="D24" s="76"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="81" t="s">
+      <c r="E24" s="77"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="74">
         <v>44</v>
       </c>
@@ -5781,19 +5581,14 @@
         <v>13.118133102961215</v>
       </c>
       <c r="D25" s="76"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E25" s="77"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="77"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="74">
         <v>43</v>
       </c>
@@ -5806,19 +5601,14 @@
         <v>12.819993714257551</v>
       </c>
       <c r="D26" s="76"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E26" s="77"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="77"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="74">
         <v>42</v>
       </c>
@@ -5831,19 +5621,14 @@
         <v>12.521854325553887</v>
       </c>
       <c r="D27" s="76"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E27" s="77"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="77"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="74">
         <v>41</v>
       </c>
@@ -5856,19 +5641,14 @@
         <v>12.223714936850223</v>
       </c>
       <c r="D28" s="76"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E28" s="77"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="77"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="74">
         <v>40</v>
       </c>
@@ -5881,19 +5661,14 @@
         <v>11.92557554814656</v>
       </c>
       <c r="D29" s="76"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E29" s="77"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="77"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="74">
         <v>39</v>
       </c>
@@ -5906,19 +5681,14 @@
         <v>11.627436159442896</v>
       </c>
       <c r="D30" s="76"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E30" s="77"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="77"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="74">
         <v>38</v>
       </c>
@@ -5931,19 +5701,14 @@
         <v>11.32929677073923</v>
       </c>
       <c r="D31" s="76"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E31" s="77"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="77"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="74">
         <v>37</v>
       </c>
@@ -5956,19 +5721,14 @@
         <v>11.031157382035568</v>
       </c>
       <c r="D32" s="76"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="77"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="77"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="74">
         <v>36</v>
       </c>
@@ -5981,19 +5741,14 @@
         <v>10.733017993331904</v>
       </c>
       <c r="D33" s="76"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E33" s="77"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="77"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="74">
         <v>35</v>
       </c>
@@ -6006,19 +5761,14 @@
         <v>10.43487860462824</v>
       </c>
       <c r="D34" s="76"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E34" s="77"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="77"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="74">
         <v>34</v>
       </c>
@@ -6031,19 +5781,14 @@
         <v>10.136739215924576</v>
       </c>
       <c r="D35" s="76"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E35" s="77"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="77"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="74">
         <v>33</v>
       </c>
@@ -6056,19 +5801,14 @@
         <v>9.8385998272209125</v>
       </c>
       <c r="D36" s="76"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E36" s="77"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="77"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="74">
         <v>32</v>
       </c>
@@ -6081,19 +5821,14 @@
         <v>9.5404604385172469</v>
       </c>
       <c r="D37" s="76"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E37" s="77"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="77"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="74">
         <v>31</v>
       </c>
@@ -6106,19 +5841,14 @@
         <v>9.242321049813583</v>
       </c>
       <c r="D38" s="76"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="81"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E38" s="77"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="77"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="74">
         <v>30</v>
       </c>
@@ -6131,21 +5861,17 @@
         <v>8.9441816611099192</v>
       </c>
       <c r="D39" s="76"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="81" t="s">
+      <c r="E39" s="77"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="74">
         <v>29</v>
       </c>
@@ -6158,19 +5884,14 @@
         <v>8.6460422724062553</v>
       </c>
       <c r="D40" s="76"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E40" s="77"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="77"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="74">
         <v>28</v>
       </c>
@@ -6183,21 +5904,17 @@
         <v>8.3479028837025915</v>
       </c>
       <c r="D41" s="76"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81" t="s">
+      <c r="E41" s="77"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="77"/>
+      <c r="L41" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="74">
         <v>27</v>
       </c>
@@ -6210,19 +5927,14 @@
         <v>8.0497634949989276</v>
       </c>
       <c r="D42" s="76"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="81"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E42" s="77"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="77"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="74">
         <v>26</v>
       </c>
@@ -6235,19 +5947,14 @@
         <v>7.7516241062952638</v>
       </c>
       <c r="D43" s="76"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E43" s="77"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="77"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="74">
         <v>25</v>
       </c>
@@ -6261,18 +5968,13 @@
       </c>
       <c r="D44" s="76"/>
       <c r="E44" s="77"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F44" s="85"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="77"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="74">
         <v>24</v>
       </c>
@@ -6286,18 +5988,13 @@
       </c>
       <c r="D45" s="76"/>
       <c r="E45" s="77"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="81"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F45" s="83"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="77"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="74">
         <v>23</v>
       </c>
@@ -6311,18 +6008,13 @@
       </c>
       <c r="D46" s="76"/>
       <c r="E46" s="77"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F46" s="83"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="77"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="74">
         <v>22</v>
       </c>
@@ -6336,18 +6028,13 @@
       </c>
       <c r="D47" s="76"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F47" s="83"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="77"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="74">
         <v>21</v>
       </c>
@@ -6361,18 +6048,13 @@
       </c>
       <c r="D48" s="76"/>
       <c r="E48" s="77"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F48" s="83"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="77"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="74">
         <v>20</v>
       </c>
@@ -6386,18 +6068,13 @@
       </c>
       <c r="D49" s="76"/>
       <c r="E49" s="77"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F49" s="85"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="77"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="74">
         <v>19</v>
       </c>
@@ -6411,18 +6088,13 @@
       </c>
       <c r="D50" s="76"/>
       <c r="E50" s="77"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="81"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F50" s="83"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="77"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="74">
         <v>18</v>
       </c>
@@ -6436,18 +6108,13 @@
       </c>
       <c r="D51" s="76"/>
       <c r="E51" s="77"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="81"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F51" s="83"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="77"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="74">
         <v>17</v>
       </c>
@@ -6461,18 +6128,13 @@
       </c>
       <c r="D52" s="76"/>
       <c r="E52" s="77"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F52" s="83"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="77"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="74">
         <v>16</v>
       </c>
@@ -6486,18 +6148,13 @@
       </c>
       <c r="D53" s="76"/>
       <c r="E53" s="77"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="81"/>
-      <c r="N53" s="81"/>
-      <c r="O53" s="81"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F53" s="83"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="77"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="74">
         <v>15</v>
       </c>
@@ -6511,20 +6168,16 @@
       </c>
       <c r="D54" s="76"/>
       <c r="E54" s="77"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="81" t="s">
+      <c r="F54" s="85"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="L54" s="81"/>
-      <c r="M54" s="81"/>
-      <c r="N54" s="81"/>
-      <c r="O54" s="81"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="74">
         <v>14</v>
       </c>
@@ -6538,18 +6191,13 @@
       </c>
       <c r="D55" s="76"/>
       <c r="E55" s="77"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="81"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="81"/>
-      <c r="N55" s="81"/>
-      <c r="O55" s="81"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F55" s="83"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="77"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="74">
         <v>13</v>
       </c>
@@ -6563,18 +6211,13 @@
       </c>
       <c r="D56" s="76"/>
       <c r="E56" s="77"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="81"/>
-      <c r="N56" s="81"/>
-      <c r="O56" s="81"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F56" s="83"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="77"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="74">
         <v>12</v>
       </c>
@@ -6588,18 +6231,13 @@
       </c>
       <c r="D57" s="76"/>
       <c r="E57" s="77"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="81"/>
-      <c r="N57" s="81"/>
-      <c r="O57" s="81"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F57" s="83"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="77"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="74">
         <v>11</v>
       </c>
@@ -6613,18 +6251,13 @@
       </c>
       <c r="D58" s="76"/>
       <c r="E58" s="77"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="81"/>
-      <c r="N58" s="81"/>
-      <c r="O58" s="81"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F58" s="83"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="77"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="74">
         <v>10</v>
       </c>
@@ -6638,18 +6271,13 @@
       </c>
       <c r="D59" s="76"/>
       <c r="E59" s="77"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="81"/>
-      <c r="L59" s="81"/>
-      <c r="M59" s="81"/>
-      <c r="N59" s="81"/>
-      <c r="O59" s="81"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F59" s="85"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="86"/>
+      <c r="J59" s="77"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="74">
         <v>9</v>
       </c>
@@ -6663,18 +6291,13 @@
       </c>
       <c r="D60" s="76"/>
       <c r="E60" s="77"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="86"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="81"/>
-      <c r="O60" s="81"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F60" s="83"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="77"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="74">
         <v>8</v>
       </c>
@@ -6688,18 +6311,13 @@
       </c>
       <c r="D61" s="76"/>
       <c r="E61" s="77"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="86"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="81"/>
-      <c r="N61" s="81"/>
-      <c r="O61" s="81"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F61" s="83"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="82"/>
+      <c r="I61" s="84"/>
+      <c r="J61" s="77"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="74">
         <v>7</v>
       </c>
@@ -6713,18 +6331,13 @@
       </c>
       <c r="D62" s="76"/>
       <c r="E62" s="77"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="87"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="86"/>
-      <c r="K62" s="81"/>
-      <c r="L62" s="81"/>
-      <c r="M62" s="81"/>
-      <c r="N62" s="81"/>
-      <c r="O62" s="81"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F62" s="83"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="77"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="74">
         <v>6</v>
       </c>
@@ -6738,18 +6351,13 @@
       </c>
       <c r="D63" s="76"/>
       <c r="E63" s="77"/>
-      <c r="F63" s="84"/>
+      <c r="F63" s="83"/>
       <c r="G63" s="78"/>
-      <c r="H63" s="89"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="86"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="81"/>
-      <c r="M63" s="81"/>
-      <c r="N63" s="81"/>
-      <c r="O63" s="81"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H63" s="87"/>
+      <c r="I63" s="88"/>
+      <c r="J63" s="77"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="74">
         <v>5</v>
       </c>
@@ -6763,18 +6371,13 @@
       </c>
       <c r="D64" s="76"/>
       <c r="E64" s="77"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="91"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="90"/>
-      <c r="J64" s="86"/>
-      <c r="K64" s="81"/>
-      <c r="L64" s="81"/>
-      <c r="M64" s="81"/>
-      <c r="N64" s="81"/>
-      <c r="O64" s="81"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F64" s="85"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="87"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="77"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="74">
         <v>4</v>
       </c>
@@ -6788,18 +6391,13 @@
       </c>
       <c r="D65" s="76"/>
       <c r="E65" s="77"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="86"/>
-      <c r="K65" s="81"/>
-      <c r="L65" s="81"/>
-      <c r="M65" s="81"/>
-      <c r="N65" s="81"/>
-      <c r="O65" s="81"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F65" s="83"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="87"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="77"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="74">
         <v>3</v>
       </c>
@@ -6813,13 +6411,13 @@
       </c>
       <c r="D66" s="76"/>
       <c r="E66" s="77"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="86"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F66" s="83"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="77"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="74">
         <v>2</v>
       </c>
@@ -6833,13 +6431,13 @@
       </c>
       <c r="D67" s="76"/>
       <c r="E67" s="77"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="86"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F67" s="83"/>
+      <c r="G67" s="87"/>
+      <c r="H67" s="87"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="77"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="74">
         <v>1</v>
       </c>
@@ -6853,13 +6451,13 @@
       </c>
       <c r="D68" s="76"/>
       <c r="E68" s="77"/>
-      <c r="F68" s="84"/>
+      <c r="F68" s="83"/>
       <c r="G68" s="78"/>
-      <c r="H68" s="89"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="86"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H68" s="87"/>
+      <c r="I68" s="88"/>
+      <c r="J68" s="77"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="74">
         <v>0</v>
       </c>
@@ -6873,10 +6471,10 @@
       </c>
       <c r="D69" s="76"/>
       <c r="E69" s="77"/>
-      <c r="F69" s="87"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="89"/>
-      <c r="I69" s="90"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="87"/>
+      <c r="I69" s="88"/>
       <c r="J69" s="77"/>
     </row>
   </sheetData>
@@ -6896,48 +6494,48 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="74" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="74" customWidth="1"/>
     <col min="2" max="2" width="11" style="74"/>
-    <col min="3" max="3" width="2.875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="2.83203125" style="74" customWidth="1"/>
     <col min="4" max="5" width="11" style="75"/>
-    <col min="6" max="6" width="3.625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="75" customWidth="1"/>
+    <col min="6" max="6" width="3.58203125" style="75" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" style="75" customWidth="1"/>
     <col min="8" max="8" width="11" style="75"/>
     <col min="9" max="9" width="9.25" style="75" customWidth="1"/>
     <col min="10" max="10" width="19.5" style="75" customWidth="1"/>
     <col min="11" max="16384" width="11" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="73" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="149" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D2" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="150" t="s">
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="74" t="s">
         <v>135</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="75" t="s">
         <v>137</v>
       </c>
@@ -6951,7 +6549,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="74">
         <v>30</v>
       </c>
@@ -6960,11 +6558,8 @@
         <v>9.1440000000000001</v>
       </c>
       <c r="C4" s="76"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="74">
         <v>29</v>
       </c>
@@ -6973,11 +6568,8 @@
         <v>8.8391999999999999</v>
       </c>
       <c r="C5" s="76"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="74">
         <v>28</v>
       </c>
@@ -6986,14 +6578,11 @@
         <v>8.5343999999999998</v>
       </c>
       <c r="C6" s="76"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
       <c r="J6" s="75" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="74">
         <v>27</v>
       </c>
@@ -7002,11 +6591,8 @@
         <v>8.2295999999999996</v>
       </c>
       <c r="C7" s="76"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="74">
         <v>26</v>
       </c>
@@ -7015,11 +6601,8 @@
         <v>7.9248000000000003</v>
       </c>
       <c r="C8" s="76"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="74">
         <v>25</v>
       </c>
@@ -7028,13 +6611,11 @@
         <v>7.62</v>
       </c>
       <c r="C9" s="76"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
       <c r="I9" s="75" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="74">
         <v>24</v>
       </c>
@@ -7043,10 +6624,8 @@
         <v>7.3152000000000008</v>
       </c>
       <c r="C10" s="76"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="74">
         <v>23</v>
       </c>
@@ -7055,10 +6634,8 @@
         <v>7.0104000000000006</v>
       </c>
       <c r="C11" s="76"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="74">
         <v>22</v>
       </c>
@@ -7067,10 +6644,8 @@
         <v>6.7056000000000004</v>
       </c>
       <c r="C12" s="76"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="74">
         <v>21</v>
       </c>
@@ -7079,10 +6654,8 @@
         <v>6.4008000000000003</v>
       </c>
       <c r="C13" s="76"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="74">
         <v>20</v>
       </c>
@@ -7091,10 +6664,8 @@
         <v>6.0960000000000001</v>
       </c>
       <c r="C14" s="76"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="74">
         <v>19</v>
       </c>
@@ -7103,10 +6674,8 @@
         <v>5.7911999999999999</v>
       </c>
       <c r="C15" s="76"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="74">
         <v>18</v>
       </c>
@@ -7115,10 +6684,8 @@
         <v>5.4864000000000006</v>
       </c>
       <c r="C16" s="76"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="74">
         <v>17</v>
       </c>
@@ -7127,10 +6694,8 @@
         <v>5.1816000000000004</v>
       </c>
       <c r="C17" s="76"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="74">
         <v>16</v>
       </c>
@@ -7139,10 +6704,8 @@
         <v>4.8768000000000002</v>
       </c>
       <c r="C18" s="76"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="74">
         <v>15</v>
       </c>
@@ -7151,10 +6714,8 @@
         <v>4.5720000000000001</v>
       </c>
       <c r="C19" s="76"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="74">
         <v>14</v>
       </c>
@@ -7163,10 +6724,8 @@
         <v>4.2671999999999999</v>
       </c>
       <c r="C20" s="76"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="74">
         <v>13</v>
       </c>
@@ -7175,10 +6734,8 @@
         <v>3.9624000000000001</v>
       </c>
       <c r="C21" s="76"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="74">
         <v>12</v>
       </c>
@@ -7187,10 +6744,8 @@
         <v>3.6576000000000004</v>
       </c>
       <c r="C22" s="76"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="74">
         <v>11</v>
       </c>
@@ -7199,10 +6754,8 @@
         <v>3.3528000000000002</v>
       </c>
       <c r="C23" s="76"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="74">
         <v>10</v>
       </c>
@@ -7211,13 +6764,11 @@
         <v>3.048</v>
       </c>
       <c r="C24" s="76"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
       <c r="H24" s="75" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="74">
         <v>9</v>
       </c>
@@ -7226,10 +6777,8 @@
         <v>2.7432000000000003</v>
       </c>
       <c r="C25" s="76"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="74">
         <v>8</v>
       </c>
@@ -7238,10 +6787,8 @@
         <v>2.4384000000000001</v>
       </c>
       <c r="C26" s="76"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="74">
         <v>7</v>
       </c>
@@ -7250,13 +6797,11 @@
         <v>2.1335999999999999</v>
       </c>
       <c r="C27" s="76"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
       <c r="G27" s="75" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="74">
         <v>6</v>
       </c>
@@ -7265,10 +6810,8 @@
         <v>1.8288000000000002</v>
       </c>
       <c r="C28" s="76"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="74">
         <v>5</v>
       </c>
@@ -7277,10 +6820,8 @@
         <v>1.524</v>
       </c>
       <c r="C29" s="76"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="74">
         <v>4</v>
       </c>
@@ -7289,10 +6830,8 @@
         <v>1.2192000000000001</v>
       </c>
       <c r="C30" s="76"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="74">
         <v>3</v>
       </c>
@@ -7301,10 +6840,8 @@
         <v>0.9144000000000001</v>
       </c>
       <c r="C31" s="76"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="74">
         <v>2</v>
       </c>
@@ -7313,10 +6850,8 @@
         <v>0.60960000000000003</v>
       </c>
       <c r="C32" s="76"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="74">
         <v>1</v>
       </c>
@@ -7325,10 +6860,8 @@
         <v>0.30480000000000002</v>
       </c>
       <c r="C33" s="76"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="74">
         <v>0</v>
       </c>
@@ -7337,7 +6870,6 @@
         <v>0</v>
       </c>
       <c r="C34" s="76"/>
-      <c r="E34" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7356,54 +6888,54 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="74" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="74" customWidth="1"/>
     <col min="2" max="2" width="11" style="74"/>
-    <col min="3" max="3" width="2.875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="2.83203125" style="74" customWidth="1"/>
     <col min="4" max="8" width="11" style="75"/>
-    <col min="9" max="9" width="3.625" style="75" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="75" customWidth="1"/>
+    <col min="9" max="9" width="3.58203125" style="75" customWidth="1"/>
+    <col min="10" max="10" width="8.58203125" style="75" customWidth="1"/>
     <col min="11" max="11" width="11" style="75"/>
     <col min="12" max="12" width="9.25" style="75" customWidth="1"/>
     <col min="13" max="13" width="19.5" style="75" customWidth="1"/>
     <col min="14" max="16384" width="11" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="73" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D2" s="149" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D2" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150" t="s">
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="74" t="s">
         <v>135</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
       <c r="J3" s="75" t="s">
         <v>137</v>
       </c>
@@ -7416,9 +6948,9 @@
       <c r="M3" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="N3" s="105"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="102"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="74">
         <v>52</v>
       </c>
@@ -7426,14 +6958,14 @@
         <f t="shared" ref="B4:B56" si="0">0.3048*A4</f>
         <v>15.849600000000001</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="106"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D4" s="103"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="103"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="74">
         <v>51</v>
       </c>
@@ -7441,14 +6973,14 @@
         <f t="shared" si="0"/>
         <v>15.5448</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="106"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="103"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="103"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="74">
         <v>50</v>
       </c>
@@ -7457,17 +6989,15 @@
         <v>15.24</v>
       </c>
       <c r="C6" s="76"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="92"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95"/>
       <c r="L6" s="75" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="74">
         <v>49</v>
       </c>
@@ -7476,17 +7006,15 @@
         <v>14.9352</v>
       </c>
       <c r="C7" s="76"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="92"/>
-      <c r="K7" s="107" t="s">
+      <c r="E7" s="95"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="96"/>
+      <c r="K7" s="75" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="74">
         <v>48</v>
       </c>
@@ -7495,14 +7023,12 @@
         <v>14.630400000000002</v>
       </c>
       <c r="C8" s="76"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="92"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="95"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="95"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="74">
         <v>47</v>
       </c>
@@ -7511,14 +7037,12 @@
         <v>14.325600000000001</v>
       </c>
       <c r="C9" s="76"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="92"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="98"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="74">
         <v>46</v>
       </c>
@@ -7527,14 +7051,12 @@
         <v>14.020800000000001</v>
       </c>
       <c r="C10" s="76"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="92"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="95"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="74">
         <v>45</v>
       </c>
@@ -7543,14 +7065,12 @@
         <v>13.716000000000001</v>
       </c>
       <c r="C11" s="76"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="92"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="95"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="74">
         <v>44</v>
       </c>
@@ -7559,14 +7079,12 @@
         <v>13.411200000000001</v>
       </c>
       <c r="C12" s="76"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="92"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="95"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="96"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="74">
         <v>43</v>
       </c>
@@ -7575,20 +7093,18 @@
         <v>13.106400000000001</v>
       </c>
       <c r="C13" s="76"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="107" t="s">
+      <c r="E13" s="95"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="95"/>
+      <c r="J13" s="75" t="s">
         <v>149</v>
       </c>
       <c r="M13" s="75" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="74">
         <v>42</v>
       </c>
@@ -7597,15 +7113,12 @@
         <v>12.801600000000001</v>
       </c>
       <c r="C14" s="76"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="107"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="74">
         <v>41</v>
       </c>
@@ -7614,14 +7127,12 @@
         <v>12.4968</v>
       </c>
       <c r="C15" s="76"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="92"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="95"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="74">
         <v>40</v>
       </c>
@@ -7630,15 +7141,12 @@
         <v>12.192</v>
       </c>
       <c r="C16" s="76"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="107"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="95"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="95"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="74">
         <v>39</v>
       </c>
@@ -7647,15 +7155,12 @@
         <v>11.8872</v>
       </c>
       <c r="C17" s="76"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="107"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="95"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="96"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="74">
         <v>38</v>
       </c>
@@ -7664,15 +7169,12 @@
         <v>11.5824</v>
       </c>
       <c r="C18" s="76"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="107"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E18" s="95"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="95"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="74">
         <v>37</v>
       </c>
@@ -7681,15 +7183,12 @@
         <v>11.277600000000001</v>
       </c>
       <c r="C19" s="76"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="107"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="74">
         <v>36</v>
       </c>
@@ -7698,15 +7197,12 @@
         <v>10.972800000000001</v>
       </c>
       <c r="C20" s="76"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="107"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="95"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="74">
         <v>35</v>
       </c>
@@ -7715,15 +7211,12 @@
         <v>10.668000000000001</v>
       </c>
       <c r="C21" s="76"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="107"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E21" s="95"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="95"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="74">
         <v>34</v>
       </c>
@@ -7732,15 +7225,12 @@
         <v>10.363200000000001</v>
       </c>
       <c r="C22" s="76"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="107"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E22" s="95"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="96"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="74">
         <v>33</v>
       </c>
@@ -7749,15 +7239,12 @@
         <v>10.058400000000001</v>
       </c>
       <c r="C23" s="76"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="107"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E23" s="95"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="95"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="74">
         <v>32</v>
       </c>
@@ -7766,15 +7253,12 @@
         <v>9.7536000000000005</v>
       </c>
       <c r="C24" s="76"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="107"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E24" s="97"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="74">
         <v>31</v>
       </c>
@@ -7783,15 +7267,12 @@
         <v>9.4488000000000003</v>
       </c>
       <c r="C25" s="76"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="107"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="95"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="74">
         <v>30</v>
       </c>
@@ -7800,17 +7281,15 @@
         <v>9.1440000000000001</v>
       </c>
       <c r="C26" s="76"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="107" t="s">
+      <c r="E26" s="95"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="95"/>
+      <c r="J26" s="75" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="74">
         <v>29</v>
       </c>
@@ -7819,15 +7298,12 @@
         <v>8.8391999999999999</v>
       </c>
       <c r="C27" s="76"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="107"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E27" s="95"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="96"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="74">
         <v>28</v>
       </c>
@@ -7836,15 +7312,12 @@
         <v>8.5343999999999998</v>
       </c>
       <c r="C28" s="76"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="107"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E28" s="95"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="95"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="74">
         <v>27</v>
       </c>
@@ -7853,15 +7326,12 @@
         <v>8.2295999999999996</v>
       </c>
       <c r="C29" s="76"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="107"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E29" s="97"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="98"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="74">
         <v>26</v>
       </c>
@@ -7870,15 +7340,12 @@
         <v>7.9248000000000003</v>
       </c>
       <c r="C30" s="76"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="107"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="95"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="74">
         <v>25</v>
       </c>
@@ -7887,14 +7354,12 @@
         <v>7.62</v>
       </c>
       <c r="C31" s="76"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="107"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E31" s="95"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="95"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="74">
         <v>24</v>
       </c>
@@ -7903,14 +7368,12 @@
         <v>7.3152000000000008</v>
       </c>
       <c r="C32" s="76"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="107"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E32" s="95"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="96"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="74">
         <v>23</v>
       </c>
@@ -7919,14 +7382,12 @@
         <v>7.0104000000000006</v>
       </c>
       <c r="C33" s="76"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="107"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E33" s="95"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="95"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="74">
         <v>22</v>
       </c>
@@ -7935,14 +7396,12 @@
         <v>6.7056000000000004</v>
       </c>
       <c r="C34" s="76"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="107"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E34" s="97"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="98"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="74">
         <v>21</v>
       </c>
@@ -7951,17 +7410,15 @@
         <v>6.4008000000000003</v>
       </c>
       <c r="C35" s="76"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="107"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="95"/>
       <c r="K35" s="75" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="74">
         <v>20</v>
       </c>
@@ -7970,14 +7427,12 @@
         <v>6.0960000000000001</v>
       </c>
       <c r="C36" s="76"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="107"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E36" s="95"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="95"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="74">
         <v>19</v>
       </c>
@@ -7986,14 +7441,12 @@
         <v>5.7911999999999999</v>
       </c>
       <c r="C37" s="76"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="107"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E37" s="95"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="96"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="74">
         <v>18</v>
       </c>
@@ -8002,16 +7455,15 @@
         <v>5.4864000000000006</v>
       </c>
       <c r="C38" s="76"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="107" t="s">
+      <c r="E38" s="95"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="95"/>
+      <c r="J38" s="75" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="74">
         <v>17</v>
       </c>
@@ -8020,13 +7472,12 @@
         <v>5.1816000000000004</v>
       </c>
       <c r="C39" s="76"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="92"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E39" s="97"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="98"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="74">
         <v>16</v>
       </c>
@@ -8035,14 +7486,12 @@
         <v>4.8768000000000002</v>
       </c>
       <c r="C40" s="76"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="107"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E40" s="95"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="95"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="74">
         <v>15</v>
       </c>
@@ -8051,14 +7500,12 @@
         <v>4.5720000000000001</v>
       </c>
       <c r="C41" s="76"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="107"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E41" s="95"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="95"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="74">
         <v>14</v>
       </c>
@@ -8067,14 +7514,12 @@
         <v>4.2671999999999999</v>
       </c>
       <c r="C42" s="76"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="107"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E42" s="95"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="96"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="74">
         <v>13</v>
       </c>
@@ -8083,14 +7528,12 @@
         <v>3.9624000000000001</v>
       </c>
       <c r="C43" s="76"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="107"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E43" s="95"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="95"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="74">
         <v>12</v>
       </c>
@@ -8099,14 +7542,12 @@
         <v>3.6576000000000004</v>
       </c>
       <c r="C44" s="76"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="107"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E44" s="97"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="98"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="74">
         <v>11</v>
       </c>
@@ -8115,14 +7556,12 @@
         <v>3.3528000000000002</v>
       </c>
       <c r="C45" s="76"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="107"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E45" s="95"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="95"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="74">
         <v>10</v>
       </c>
@@ -8131,14 +7570,12 @@
         <v>3.048</v>
       </c>
       <c r="C46" s="76"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="107"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E46" s="95"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="96"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="74">
         <v>9</v>
       </c>
@@ -8147,14 +7584,12 @@
         <v>2.7432000000000003</v>
       </c>
       <c r="C47" s="76"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="107"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E47" s="95"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="98"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="74">
         <v>8</v>
       </c>
@@ -8163,13 +7598,12 @@
         <v>2.4384000000000001</v>
       </c>
       <c r="C48" s="76"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="114"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="92"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E48" s="95"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="100"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="74">
         <v>7</v>
       </c>
@@ -8178,16 +7612,15 @@
         <v>2.1335999999999999</v>
       </c>
       <c r="C49" s="76"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="107" t="s">
+      <c r="E49" s="97"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="100"/>
+      <c r="J49" s="75" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="74">
         <v>6</v>
       </c>
@@ -8196,13 +7629,12 @@
         <v>1.8288000000000002</v>
       </c>
       <c r="C50" s="76"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="92"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E50" s="95"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="100"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="74">
         <v>5</v>
       </c>
@@ -8211,13 +7643,12 @@
         <v>1.524</v>
       </c>
       <c r="C51" s="76"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="92"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E51" s="95"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="100"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="74">
         <v>4</v>
       </c>
@@ -8226,13 +7657,12 @@
         <v>1.2192000000000001</v>
       </c>
       <c r="C52" s="76"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="92"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E52" s="95"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="100"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="74">
         <v>3</v>
       </c>
@@ -8241,13 +7671,12 @@
         <v>0.9144000000000001</v>
       </c>
       <c r="C53" s="76"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="116"/>
-      <c r="I53" s="92"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="95"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="100"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="74">
         <v>2</v>
       </c>
@@ -8256,13 +7685,12 @@
         <v>0.60960000000000003</v>
       </c>
       <c r="C54" s="76"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="92"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E54" s="97"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="100"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="74">
         <v>1</v>
       </c>
@@ -8271,13 +7699,11 @@
         <v>0.30480000000000002</v>
       </c>
       <c r="C55" s="76"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="92"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E55" s="99"/>
+      <c r="F55" s="100"/>
+      <c r="H55" s="100"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="74">
         <v>0</v>
       </c>
@@ -8286,10 +7712,9 @@
         <v>0</v>
       </c>
       <c r="C56" s="76"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="103"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="100"/>
+      <c r="H56" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8308,48 +7733,48 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="74" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="74" customWidth="1"/>
     <col min="2" max="2" width="11" style="74"/>
-    <col min="3" max="3" width="2.875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="2.83203125" style="74" customWidth="1"/>
     <col min="4" max="5" width="11" style="75"/>
-    <col min="6" max="6" width="3.625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="75" customWidth="1"/>
+    <col min="6" max="6" width="3.58203125" style="75" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" style="75" customWidth="1"/>
     <col min="8" max="8" width="11" style="75"/>
     <col min="9" max="9" width="9.25" style="75" customWidth="1"/>
     <col min="10" max="10" width="19.5" style="75" customWidth="1"/>
     <col min="11" max="16384" width="11" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="73" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="149" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D2" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="150" t="s">
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="74" t="s">
         <v>135</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="75" t="s">
         <v>137</v>
       </c>
@@ -8363,7 +7788,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="74">
         <v>30</v>
       </c>
@@ -8372,11 +7797,8 @@
         <v>9.1440000000000001</v>
       </c>
       <c r="C4" s="76"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="74">
         <v>29</v>
       </c>
@@ -8385,11 +7807,8 @@
         <v>8.8391999999999999</v>
       </c>
       <c r="C5" s="76"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="74">
         <v>28</v>
       </c>
@@ -8398,11 +7817,8 @@
         <v>8.5343999999999998</v>
       </c>
       <c r="C6" s="76"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="74">
         <v>27</v>
       </c>
@@ -8411,11 +7827,8 @@
         <v>8.2295999999999996</v>
       </c>
       <c r="C7" s="76"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="74">
         <v>26</v>
       </c>
@@ -8424,11 +7837,8 @@
         <v>7.9248000000000003</v>
       </c>
       <c r="C8" s="76"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="74">
         <v>25</v>
       </c>
@@ -8437,10 +7847,8 @@
         <v>7.62</v>
       </c>
       <c r="C9" s="76"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="74">
         <v>24</v>
       </c>
@@ -8449,10 +7857,8 @@
         <v>7.3152000000000008</v>
       </c>
       <c r="C10" s="76"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="74">
         <v>23</v>
       </c>
@@ -8461,10 +7867,8 @@
         <v>7.0104000000000006</v>
       </c>
       <c r="C11" s="76"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="74">
         <v>22</v>
       </c>
@@ -8473,10 +7877,8 @@
         <v>6.7056000000000004</v>
       </c>
       <c r="C12" s="76"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="74">
         <v>21</v>
       </c>
@@ -8485,10 +7887,8 @@
         <v>6.4008000000000003</v>
       </c>
       <c r="C13" s="76"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="74">
         <v>20</v>
       </c>
@@ -8497,10 +7897,8 @@
         <v>6.0960000000000001</v>
       </c>
       <c r="C14" s="76"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="74">
         <v>19</v>
       </c>
@@ -8509,10 +7907,8 @@
         <v>5.7911999999999999</v>
       </c>
       <c r="C15" s="76"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="74">
         <v>18</v>
       </c>
@@ -8521,13 +7917,11 @@
         <v>5.4864000000000006</v>
       </c>
       <c r="C16" s="76"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
       <c r="H16" s="75" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="74">
         <v>17</v>
       </c>
@@ -8536,10 +7930,8 @@
         <v>5.1816000000000004</v>
       </c>
       <c r="C17" s="76"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="74">
         <v>16</v>
       </c>
@@ -8548,10 +7940,8 @@
         <v>4.8768000000000002</v>
       </c>
       <c r="C18" s="76"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="74">
         <v>15</v>
       </c>
@@ -8560,10 +7950,8 @@
         <v>4.5720000000000001</v>
       </c>
       <c r="C19" s="76"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="74">
         <v>14</v>
       </c>
@@ -8572,10 +7960,8 @@
         <v>4.2671999999999999</v>
       </c>
       <c r="C20" s="76"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="74">
         <v>13</v>
       </c>
@@ -8584,10 +7970,8 @@
         <v>3.9624000000000001</v>
       </c>
       <c r="C21" s="76"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="74">
         <v>12</v>
       </c>
@@ -8596,8 +7980,6 @@
         <v>3.6576000000000004</v>
       </c>
       <c r="C22" s="76"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
       <c r="J22" s="75" t="s">
         <v>158</v>
       </c>
@@ -8605,7 +7987,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="74">
         <v>11</v>
       </c>
@@ -8614,10 +7996,8 @@
         <v>3.3528000000000002</v>
       </c>
       <c r="C23" s="76"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="74">
         <v>10</v>
       </c>
@@ -8626,10 +8006,8 @@
         <v>3.048</v>
       </c>
       <c r="C24" s="76"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="74">
         <v>9</v>
       </c>
@@ -8638,10 +8016,8 @@
         <v>2.7432000000000003</v>
       </c>
       <c r="C25" s="76"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="74">
         <v>8</v>
       </c>
@@ -8650,8 +8026,6 @@
         <v>2.4384000000000001</v>
       </c>
       <c r="C26" s="76"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
       <c r="G26" s="75" t="s">
         <v>156</v>
       </c>
@@ -8662,7 +8036,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="74">
         <v>7</v>
       </c>
@@ -8671,10 +8045,8 @@
         <v>2.1335999999999999</v>
       </c>
       <c r="C27" s="76"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="74">
         <v>6</v>
       </c>
@@ -8683,10 +8055,8 @@
         <v>1.8288000000000002</v>
       </c>
       <c r="C28" s="76"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="74">
         <v>5</v>
       </c>
@@ -8695,10 +8065,8 @@
         <v>1.524</v>
       </c>
       <c r="C29" s="76"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="74">
         <v>4</v>
       </c>
@@ -8707,10 +8075,8 @@
         <v>1.2192000000000001</v>
       </c>
       <c r="C30" s="76"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="74">
         <v>3</v>
       </c>
@@ -8719,10 +8085,8 @@
         <v>0.9144000000000001</v>
       </c>
       <c r="C31" s="76"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="74">
         <v>2</v>
       </c>
@@ -8731,10 +8095,8 @@
         <v>0.60960000000000003</v>
       </c>
       <c r="C32" s="76"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="74">
         <v>1</v>
       </c>
@@ -8743,10 +8105,8 @@
         <v>0.30480000000000002</v>
       </c>
       <c r="C33" s="76"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="74">
         <v>0</v>
       </c>
@@ -8755,7 +8115,6 @@
         <v>0</v>
       </c>
       <c r="C34" s="76"/>
-      <c r="E34" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8774,26 +8133,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="25.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="134" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="136"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
@@ -8801,7 +8160,7 @@
         <v>50.688999199999998</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -8819,7 +8178,7 @@
         <v>-63.2494011</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
@@ -8833,7 +8192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
@@ -8845,7 +8204,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
@@ -8855,16 +8214,16 @@
       </c>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="134" t="s">
+    <row r="7" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="136"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="21"/>
       <c r="C9" s="18" t="s">
         <v>43</v>
@@ -8876,7 +8235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="25" t="s">
         <v>42</v>
       </c>
@@ -8906,25 +8265,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08203125" customWidth="1"/>
+    <col min="3" max="3" width="24.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="134" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="F2" s="7" t="s">
         <v>22</v>
       </c>
@@ -8932,7 +8291,7 @@
         <v>50.689498899999997</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -8949,7 +8308,7 @@
         <v>-63.249698600000002</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
         <v>17</v>
       </c>
@@ -8960,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="23" t="s">
         <v>17</v>
       </c>
@@ -8971,7 +8330,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
@@ -8982,7 +8341,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -8993,7 +8352,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
@@ -9004,7 +8363,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="23" t="s">
         <v>17</v>
       </c>
@@ -9015,7 +8374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
@@ -9026,7 +8385,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
         <v>17</v>
       </c>
@@ -9037,7 +8396,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="24" t="s">
         <v>17</v>
       </c>
@@ -9048,7 +8407,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="23" t="s">
         <v>17</v>
       </c>
@@ -9059,7 +8418,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
@@ -9070,7 +8429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="23" t="s">
         <v>17</v>
       </c>
@@ -9081,7 +8440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -9092,7 +8451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="23" t="s">
         <v>17</v>
       </c>
@@ -9103,7 +8462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
@@ -9114,7 +8473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="23" t="s">
         <v>17</v>
       </c>
@@ -9125,7 +8484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="24" t="s">
         <v>17</v>
       </c>
@@ -9136,7 +8495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="23" t="s">
         <v>17</v>
       </c>
@@ -9147,7 +8506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
@@ -9158,7 +8517,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="25" t="s">
         <v>18</v>
       </c>
@@ -9169,13 +8528,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="134" t="s">
+    <row r="24" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="135"/>
-      <c r="D25" s="136"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="133"/>
       <c r="F25" s="39" t="s">
         <v>22</v>
       </c>
@@ -9183,7 +8542,7 @@
         <v>50.6753006</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="21" t="s">
         <v>0</v>
       </c>
@@ -9200,7 +8559,7 @@
         <v>-63.2527008</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="24" t="s">
         <v>17</v>
       </c>
@@ -9211,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="23" t="s">
         <v>17</v>
       </c>
@@ -9222,7 +8581,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="24" t="s">
         <v>17</v>
       </c>
@@ -9233,7 +8592,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="23" t="s">
         <v>17</v>
       </c>
@@ -9244,7 +8603,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="24" t="s">
         <v>17</v>
       </c>
@@ -9255,7 +8614,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="23" t="s">
         <v>17</v>
       </c>
@@ -9266,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
@@ -9277,7 +8636,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="24" t="s">
         <v>17</v>
       </c>
@@ -9288,7 +8647,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="24" t="s">
         <v>17</v>
       </c>
@@ -9299,7 +8658,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="23" t="s">
         <v>17</v>
       </c>
@@ -9310,7 +8669,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="24" t="s">
         <v>17</v>
       </c>
@@ -9321,7 +8680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="23" t="s">
         <v>17</v>
       </c>
@@ -9332,7 +8691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="24" t="s">
         <v>17</v>
       </c>
@@ -9343,7 +8702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="23" t="s">
         <v>17</v>
       </c>
@@ -9354,7 +8713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="24" t="s">
         <v>17</v>
       </c>
@@ -9365,7 +8724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="23" t="s">
         <v>17</v>
       </c>
@@ -9376,7 +8735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="24" t="s">
         <v>17</v>
       </c>
@@ -9387,7 +8746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="23" t="s">
         <v>17</v>
       </c>
@@ -9398,7 +8757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="24" t="s">
         <v>17</v>
       </c>
@@ -9409,7 +8768,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="23" t="s">
         <v>17</v>
       </c>
@@ -9420,7 +8779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="24" t="s">
         <v>17</v>
       </c>
@@ -9431,7 +8790,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="23" t="s">
         <v>17</v>
       </c>
@@ -9442,7 +8801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="24" t="s">
         <v>17</v>
       </c>
@@ -9453,7 +8812,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="23" t="s">
         <v>17</v>
       </c>
@@ -9464,7 +8823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="24" t="s">
         <v>17</v>
       </c>
@@ -9475,7 +8834,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="23" t="s">
         <v>17</v>
       </c>
@@ -9486,7 +8845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="24" t="s">
         <v>17</v>
       </c>
@@ -9497,7 +8856,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="23" t="s">
         <v>17</v>
       </c>
@@ -9508,7 +8867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="24" t="s">
         <v>17</v>
       </c>
@@ -9519,7 +8878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="23" t="s">
         <v>17</v>
       </c>
@@ -9530,7 +8889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B57" s="30" t="s">
         <v>18</v>
       </c>
@@ -9556,23 +8915,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="131" t="s">
+    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
       <c r="G2" s="29" t="s">
         <v>22</v>
       </c>
@@ -9580,7 +8939,7 @@
         <v>50.861454700000003</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -9600,7 +8959,7 @@
         <v>-63.389840900000003</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
@@ -9612,7 +8971,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
@@ -9626,7 +8985,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
@@ -9636,7 +8995,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
         <v>5</v>
       </c>
@@ -9648,7 +9007,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
@@ -9662,7 +9021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
         <v>30</v>
       </c>
@@ -9674,7 +9033,7 @@
       </c>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="23" t="s">
         <v>31</v>
       </c>
@@ -9686,7 +9045,7 @@
       </c>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
         <v>21</v>
       </c>
@@ -9698,7 +9057,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
@@ -9710,7 +9069,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="54" t="s">
         <v>83</v>
       </c>
@@ -9724,16 +9083,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="134" t="s">
+    <row r="14" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="136"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="21"/>
       <c r="C16" s="18" t="s">
         <v>34</v>
@@ -9745,7 +9104,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="25" t="s">
         <v>5</v>
       </c>
@@ -9774,19 +9133,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="134" t="s">
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="F2" s="39" t="s">
         <v>22</v>
       </c>
@@ -9794,7 +9153,7 @@
         <v>50.860754999999997</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -9811,7 +9170,7 @@
         <v>-63.389910999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
         <v>50</v>
       </c>
@@ -9822,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="23" t="s">
         <v>50</v>
       </c>
@@ -9833,7 +9192,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>50</v>
       </c>
@@ -9844,7 +9203,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="23" t="s">
         <v>50</v>
       </c>
@@ -9855,7 +9214,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>50</v>
       </c>
@@ -9866,7 +9225,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="23" t="s">
         <v>50</v>
       </c>
@@ -9877,7 +9236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="24" t="s">
         <v>50</v>
       </c>
@@ -9888,7 +9247,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
         <v>50</v>
       </c>
@@ -9899,7 +9258,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="24" t="s">
         <v>50</v>
       </c>
@@ -9910,7 +9269,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="23" t="s">
         <v>50</v>
       </c>
@@ -9921,7 +9280,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="24" t="s">
         <v>50</v>
       </c>
@@ -9932,7 +9291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="23" t="s">
         <v>50</v>
       </c>
@@ -9943,7 +9302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="24" t="s">
         <v>50</v>
       </c>
@@ -9954,7 +9313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="23" t="s">
         <v>50</v>
       </c>
@@ -9965,7 +9324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="24" t="s">
         <v>50</v>
       </c>
@@ -9976,7 +9335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="23" t="s">
         <v>50</v>
       </c>
@@ -9987,7 +9346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="24" t="s">
         <v>50</v>
       </c>
@@ -9998,7 +9357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="23" t="s">
         <v>50</v>
       </c>
@@ -10009,7 +9368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="24" t="s">
         <v>50</v>
       </c>
@@ -10020,7 +9379,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="24" t="s">
         <v>50</v>
       </c>
@@ -10031,7 +9390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="25" t="s">
         <v>18</v>
       </c>
@@ -10054,27 +9413,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE59413-D9F3-44A1-88DC-A59245E9D9B8}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.125" customWidth="1"/>
+    <col min="5" max="5" width="35.08203125" customWidth="1"/>
     <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="131" t="s">
+    <row r="1" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
       <c r="G2" s="39" t="s">
         <v>22</v>
       </c>
@@ -10082,7 +9443,7 @@
         <v>50.9020996</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -10102,7 +9463,7 @@
         <v>-63.405101799999997</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
@@ -10114,7 +9475,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="36" t="s">
         <v>86</v>
       </c>
@@ -10127,14 +9488,14 @@
       <c r="E5" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="134" t="s">
+      <c r="G5" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="57" t="s">
         <v>87</v>
       </c>
@@ -10158,7 +9519,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="32" t="s">
         <v>88</v>
       </c>
@@ -10184,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="33" t="s">
         <v>89</v>
       </c>
@@ -10210,7 +9571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B9" s="32" t="s">
         <v>97</v>
       </c>
@@ -10236,7 +9597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="33" t="s">
         <v>98</v>
       </c>
@@ -10262,7 +9623,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="32" t="s">
         <v>90</v>
       </c>
@@ -10276,7 +9637,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="33" t="s">
         <v>91</v>
       </c>
@@ -10290,7 +9651,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="32" t="s">
         <v>14</v>
       </c>
@@ -10302,7 +9663,7 @@
       </c>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="33" t="s">
         <v>92</v>
       </c>
@@ -10316,7 +9677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="32" t="s">
         <v>15</v>
       </c>
@@ -10328,7 +9689,7 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="33" t="s">
         <v>8</v>
       </c>
@@ -10340,7 +9701,7 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="32" t="s">
         <v>12</v>
       </c>
@@ -10352,7 +9713,7 @@
       </c>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="33" t="s">
         <v>12</v>
       </c>
@@ -10364,7 +9725,7 @@
       </c>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="32" t="s">
         <v>12</v>
       </c>
@@ -10376,7 +9737,7 @@
       </c>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="33" t="s">
         <v>12</v>
       </c>
@@ -10388,7 +9749,7 @@
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="32" t="s">
         <v>13</v>
       </c>
@@ -10402,7 +9763,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="33" t="s">
         <v>21</v>
       </c>
@@ -10414,7 +9775,7 @@
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="32" t="s">
         <v>7</v>
       </c>
@@ -10426,7 +9787,7 @@
       </c>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="33" t="s">
         <v>7</v>
       </c>
@@ -10440,7 +9801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="32" t="s">
         <v>9</v>
       </c>
@@ -10452,7 +9813,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="33" t="s">
         <v>24</v>
       </c>
@@ -10464,7 +9825,7 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="60" t="s">
         <v>25</v>
       </c>
@@ -10491,14 +9852,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="53" t="s">
         <v>82</v>
       </c>
@@ -10515,11 +9876,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="139" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="49" t="s">
@@ -10532,9 +9893,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="139"/>
-      <c r="B3" s="143"/>
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="136"/>
+      <c r="B3" s="140"/>
       <c r="C3" s="45" t="s">
         <v>55</v>
       </c>
@@ -10545,9 +9906,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="139"/>
-      <c r="B4" s="144" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="136"/>
+      <c r="B4" s="141" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -10560,9 +9921,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="139"/>
-      <c r="B5" s="145"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="136"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="41" t="s">
         <v>62</v>
       </c>
@@ -10573,9 +9934,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="139"/>
-      <c r="B6" s="145"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="136"/>
+      <c r="B6" s="142"/>
       <c r="C6" s="41" t="s">
         <v>60</v>
       </c>
@@ -10586,9 +9947,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="139"/>
-      <c r="B7" s="145"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="136"/>
+      <c r="B7" s="142"/>
       <c r="C7" s="41" t="s">
         <v>55</v>
       </c>
@@ -10599,9 +9960,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="139"/>
-      <c r="B8" s="145"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="136"/>
+      <c r="B8" s="142"/>
       <c r="C8" s="41" t="s">
         <v>54</v>
       </c>
@@ -10612,9 +9973,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="139"/>
-      <c r="B9" s="143"/>
+    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="136"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="45" t="s">
         <v>52</v>
       </c>
@@ -10625,9 +9986,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="144" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="136"/>
+      <c r="B10" s="141" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="43" t="s">
@@ -10640,9 +10001,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="139"/>
-      <c r="B11" s="145"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="136"/>
+      <c r="B11" s="142"/>
       <c r="C11" s="41" t="s">
         <v>62</v>
       </c>
@@ -10653,9 +10014,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="139"/>
-      <c r="B12" s="145"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="136"/>
+      <c r="B12" s="142"/>
       <c r="C12" s="41" t="s">
         <v>60</v>
       </c>
@@ -10666,9 +10027,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="139"/>
-      <c r="B13" s="145"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="136"/>
+      <c r="B13" s="142"/>
       <c r="C13" s="41" t="s">
         <v>55</v>
       </c>
@@ -10679,9 +10040,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="139"/>
-      <c r="B14" s="145"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="136"/>
+      <c r="B14" s="142"/>
       <c r="C14" s="41" t="s">
         <v>54</v>
       </c>
@@ -10692,9 +10053,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="139"/>
-      <c r="B15" s="143"/>
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="136"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="45" t="s">
         <v>52</v>
       </c>
@@ -10705,9 +10066,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="139"/>
-      <c r="B16" s="144" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="136"/>
+      <c r="B16" s="141" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="43" t="s">
@@ -10720,9 +10081,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="139"/>
-      <c r="B17" s="145"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="136"/>
+      <c r="B17" s="142"/>
       <c r="C17" s="41" t="s">
         <v>62</v>
       </c>
@@ -10733,9 +10094,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="145"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="136"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="41" t="s">
         <v>60</v>
       </c>
@@ -10746,9 +10107,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="139"/>
-      <c r="B19" s="145"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="136"/>
+      <c r="B19" s="142"/>
       <c r="C19" s="41" t="s">
         <v>55</v>
       </c>
@@ -10759,9 +10120,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="139"/>
-      <c r="B20" s="145"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="136"/>
+      <c r="B20" s="142"/>
       <c r="C20" s="41" t="s">
         <v>54</v>
       </c>
@@ -10772,9 +10133,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="140"/>
-      <c r="B21" s="146"/>
+    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="137"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="47" t="s">
         <v>52</v>
       </c>
@@ -10785,11 +10146,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="141" t="s">
+    <row r="22" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="141" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="43" t="s">
@@ -10802,9 +10163,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="139"/>
-      <c r="B23" s="143"/>
+    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="136"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="45" t="s">
         <v>55</v>
       </c>
@@ -10815,9 +10176,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="139"/>
-      <c r="B24" s="144" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="136"/>
+      <c r="B24" s="141" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -10830,9 +10191,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="139"/>
-      <c r="B25" s="145"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="136"/>
+      <c r="B25" s="142"/>
       <c r="C25" s="41" t="s">
         <v>62</v>
       </c>
@@ -10843,9 +10204,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="139"/>
-      <c r="B26" s="145"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="136"/>
+      <c r="B26" s="142"/>
       <c r="C26" s="41" t="s">
         <v>60</v>
       </c>
@@ -10856,9 +10217,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="139"/>
-      <c r="B27" s="145"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="136"/>
+      <c r="B27" s="142"/>
       <c r="C27" s="41" t="s">
         <v>57</v>
       </c>
@@ -10869,9 +10230,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="139"/>
-      <c r="B28" s="145"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="136"/>
+      <c r="B28" s="142"/>
       <c r="C28" s="41" t="s">
         <v>55</v>
       </c>
@@ -10882,9 +10243,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="139"/>
-      <c r="B29" s="145"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="136"/>
+      <c r="B29" s="142"/>
       <c r="C29" s="41" t="s">
         <v>54</v>
       </c>
@@ -10895,9 +10256,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="139"/>
-      <c r="B30" s="143"/>
+    <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="136"/>
+      <c r="B30" s="140"/>
       <c r="C30" s="45" t="s">
         <v>52</v>
       </c>
@@ -10908,9 +10269,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="139"/>
-      <c r="B31" s="144" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="136"/>
+      <c r="B31" s="141" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="43" t="s">
@@ -10923,9 +10284,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="139"/>
-      <c r="B32" s="145"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="136"/>
+      <c r="B32" s="142"/>
       <c r="C32" s="41" t="s">
         <v>62</v>
       </c>
@@ -10936,9 +10297,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="139"/>
-      <c r="B33" s="145"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="136"/>
+      <c r="B33" s="142"/>
       <c r="C33" s="41" t="s">
         <v>60</v>
       </c>
@@ -10949,9 +10310,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="139"/>
-      <c r="B34" s="145"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="136"/>
+      <c r="B34" s="142"/>
       <c r="C34" s="41" t="s">
         <v>57</v>
       </c>
@@ -10962,9 +10323,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="139"/>
-      <c r="B35" s="145"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="136"/>
+      <c r="B35" s="142"/>
       <c r="C35" s="41" t="s">
         <v>55</v>
       </c>
@@ -10975,9 +10336,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="139"/>
-      <c r="B36" s="145"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="136"/>
+      <c r="B36" s="142"/>
       <c r="C36" s="41" t="s">
         <v>54</v>
       </c>
@@ -10988,9 +10349,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="139"/>
-      <c r="B37" s="143"/>
+    <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="136"/>
+      <c r="B37" s="140"/>
       <c r="C37" s="45" t="s">
         <v>52</v>
       </c>
@@ -11001,9 +10362,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="139"/>
-      <c r="B38" s="144" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="136"/>
+      <c r="B38" s="141" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -11016,9 +10377,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="139"/>
-      <c r="B39" s="145"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="136"/>
+      <c r="B39" s="142"/>
       <c r="C39" s="41" t="s">
         <v>62</v>
       </c>
@@ -11029,9 +10390,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="139"/>
-      <c r="B40" s="145"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="136"/>
+      <c r="B40" s="142"/>
       <c r="C40" s="41" t="s">
         <v>60</v>
       </c>
@@ -11042,9 +10403,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="139"/>
-      <c r="B41" s="145"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="136"/>
+      <c r="B41" s="142"/>
       <c r="C41" s="41" t="s">
         <v>57</v>
       </c>
@@ -11055,9 +10416,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="139"/>
-      <c r="B42" s="145"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="136"/>
+      <c r="B42" s="142"/>
       <c r="C42" s="41" t="s">
         <v>55</v>
       </c>
@@ -11068,9 +10429,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="139"/>
-      <c r="B43" s="145"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="136"/>
+      <c r="B43" s="142"/>
       <c r="C43" s="41" t="s">
         <v>54</v>
       </c>
@@ -11081,9 +10442,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="139"/>
-      <c r="B44" s="145"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="136"/>
+      <c r="B44" s="142"/>
       <c r="C44" s="41" t="s">
         <v>52</v>
       </c>
@@ -11117,19 +10478,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="147" t="s">
+    <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="148"/>
-    </row>
-    <row r="3" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="145"/>
+    </row>
+    <row r="3" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -11137,7 +10498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -11145,7 +10506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -11153,7 +10514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
@@ -11161,7 +10522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
@@ -11179,11 +10540,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87885471-7CC2-479B-9C76-A0AAB2D0375D}">
-  <dimension ref="B1:J28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
@@ -11191,25 +10552,25 @@
     <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="131" t="s">
+    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="G2" s="164" t="s">
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="G2" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="165">
+      <c r="H2" s="119">
         <v>47.287930000000003</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -11222,405 +10583,330 @@
       <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="167">
+      <c r="H3" s="120">
         <v>-71.167720000000003</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="151" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="171" t="s">
+      <c r="D4" s="122" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="159" t="s">
+      <c r="E4" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="155" t="s">
+      <c r="G4" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="156" t="s">
+      <c r="H4" s="116" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="157" t="s">
+    <row r="5" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="172" t="s">
+      <c r="D5" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="159" t="s">
+      <c r="E5" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="130" t="s">
+      <c r="H5" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="157" t="s">
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="172" t="s">
+      <c r="D6" s="123" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="153" t="s">
+      <c r="E6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="154"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="157" t="s">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="172">
+      <c r="D7" s="123">
         <v>1</v>
       </c>
-      <c r="E7" s="153" t="s">
+      <c r="E7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F7" s="154"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="157" t="s">
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="172">
+      <c r="D8" s="123">
         <v>2</v>
       </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="157" t="s">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="172">
+      <c r="D9" s="123">
         <v>1</v>
       </c>
-      <c r="E9" s="160"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="157" t="s">
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="152" t="s">
+      <c r="C10" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="160" t="s">
+      <c r="E10" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="154"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="157" t="s">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="152" t="s">
+      <c r="C11" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="173" t="s">
+      <c r="D11" s="124" t="s">
         <v>184</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F11" s="154"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="157" t="s">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="152" t="s">
+      <c r="C12" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="172" t="s">
+      <c r="D12" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="170" t="s">
+      <c r="E12" s="121" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="154"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="157" t="s">
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="172" t="s">
+      <c r="D13" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="159" t="s">
+      <c r="E13" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="157" t="s">
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="172" t="s">
+      <c r="D14" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="159" t="s">
+      <c r="E14" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="157" t="s">
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="172" t="s">
+      <c r="D15" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="E15" s="159" t="s">
+      <c r="E15" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="157" t="s">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="172">
+      <c r="D16" s="123">
         <v>-0.08</v>
       </c>
-      <c r="E16" s="153"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-    </row>
-    <row r="17" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="157" t="s">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="B17" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="158" t="s">
+      <c r="C17" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="172" t="s">
+      <c r="D17" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="159" t="s">
+      <c r="E17" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-    </row>
-    <row r="18" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="157" t="s">
+    </row>
+    <row r="18" spans="2:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="B18" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="172" t="s">
+      <c r="D18" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="159" t="s">
+      <c r="E18" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="157" t="s">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="172" t="s">
+      <c r="D19" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="160" t="s">
+      <c r="E19" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="157" t="s">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="152" t="s">
+      <c r="C20" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="172" t="s">
+      <c r="D20" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="E20" s="160" t="s">
+      <c r="E20" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="157" t="s">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="172">
+      <c r="D21" s="123">
         <v>8.5</v>
       </c>
-      <c r="E21" s="160"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="157" t="s">
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="152" t="s">
+      <c r="C22" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="172">
+      <c r="D22" s="123">
         <v>14.6</v>
       </c>
-      <c r="E22" s="160"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="157" t="s">
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="172">
+      <c r="D23" s="123">
         <v>2.5</v>
       </c>
-      <c r="E23" s="160" t="s">
+      <c r="E23" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-    </row>
-    <row r="24" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="161" t="s">
+    </row>
+    <row r="24" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="162" t="s">
+      <c r="C24" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="174">
+      <c r="D24" s="125">
         <v>-0.04</v>
       </c>
-      <c r="E24" s="163"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="62"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="168" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-    </row>
-    <row r="28" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="169" t="s">
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+    </row>
+    <row r="28" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
     </row>
   </sheetData>
-  <sortState ref="B4:E24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E24">
     <sortCondition ref="B4:B24"/>
   </sortState>
   <mergeCells count="3">

--- a/Resources/Metadata.xlsx
+++ b/Resources/Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/anthi182_ulaval_ca/Documents/Documents/GitHub/Ro2_data_worflow/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{6983D7D3-A322-4149-A22B-9F8F3383839B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EFE9012-1AD4-4EC7-BD00-EB4AB18C122F}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{6983D7D3-A322-4149-A22B-9F8F3383839B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37BD5D76-8893-4946-A75A-CCD4E1D96557}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge" sheetId="3" r:id="rId1"/>
@@ -1925,8 +1925,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3390240" y="5008252"/>
-          <a:ext cx="893124" cy="4898572"/>
+          <a:off x="3396136" y="4894860"/>
+          <a:ext cx="899474" cy="4776107"/>
           <a:chOff x="3065318" y="5264727"/>
           <a:chExt cx="1004455" cy="5143500"/>
         </a:xfrm>
@@ -2079,8 +2079,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3081811" y="6459682"/>
-          <a:ext cx="893124" cy="6168570"/>
+          <a:off x="3096779" y="6310003"/>
+          <a:ext cx="899474" cy="6014357"/>
           <a:chOff x="3065318" y="5264727"/>
           <a:chExt cx="1004455" cy="5143500"/>
         </a:xfrm>
@@ -2233,8 +2233,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1766454" y="3410856"/>
-          <a:ext cx="893124" cy="2867395"/>
+          <a:off x="1776886" y="3336924"/>
+          <a:ext cx="899474" cy="2796185"/>
           <a:chOff x="3065318" y="5264727"/>
           <a:chExt cx="1004455" cy="5143500"/>
         </a:xfrm>
@@ -2448,8 +2448,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1766454" y="6549572"/>
-          <a:ext cx="893124" cy="3720109"/>
+          <a:off x="1776886" y="6398532"/>
+          <a:ext cx="899474" cy="3626220"/>
           <a:chOff x="3065318" y="5264727"/>
           <a:chExt cx="1004455" cy="5143500"/>
         </a:xfrm>
@@ -2602,8 +2602,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2133846" y="5837464"/>
-          <a:ext cx="288225" cy="440787"/>
+          <a:off x="2144278" y="5701393"/>
+          <a:ext cx="288225" cy="431716"/>
           <a:chOff x="3065318" y="5264727"/>
           <a:chExt cx="1004455" cy="5143500"/>
         </a:xfrm>
@@ -9413,8 +9413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE59413-D9F3-44A1-88DC-A59245E9D9B8}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/Resources/Metadata.xlsx
+++ b/Resources/Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/anthi182_ulaval_ca/Documents/Documents/GitHub/Ro2_data_worflow/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{6983D7D3-A322-4149-A22B-9F8F3383839B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37BD5D76-8893-4946-A75A-CCD4E1D96557}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{6983D7D3-A322-4149-A22B-9F8F3383839B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63146463-5547-4E8E-BC2B-246FB77354AB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{70FED0F5-DA18-6E4C-8F4F-A74F12345264}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="245">
   <si>
     <t>Instrument</t>
   </si>
@@ -784,6 +784,12 @@
   </si>
   <si>
     <t>Total precipitometer</t>
+  </si>
+  <si>
+    <t>61205V</t>
+  </si>
+  <si>
+    <t>Pressure transducer</t>
   </si>
 </sst>
 </file>
@@ -884,7 +890,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1590,6 +1596,32 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1675,9 +1707,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1879,6 +1908,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1925,8 +1957,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3396136" y="4894860"/>
-          <a:ext cx="899474" cy="4776107"/>
+          <a:off x="3390240" y="5008252"/>
+          <a:ext cx="893124" cy="4898572"/>
           <a:chOff x="3065318" y="5264727"/>
           <a:chExt cx="1004455" cy="5143500"/>
         </a:xfrm>
@@ -2079,8 +2111,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3096779" y="6310003"/>
-          <a:ext cx="899474" cy="6014357"/>
+          <a:off x="3081811" y="6459682"/>
+          <a:ext cx="893124" cy="6168570"/>
           <a:chOff x="3065318" y="5264727"/>
           <a:chExt cx="1004455" cy="5143500"/>
         </a:xfrm>
@@ -2233,8 +2265,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1776886" y="3336924"/>
-          <a:ext cx="899474" cy="2796185"/>
+          <a:off x="1766454" y="3410856"/>
+          <a:ext cx="893124" cy="2867395"/>
           <a:chOff x="3065318" y="5264727"/>
           <a:chExt cx="1004455" cy="5143500"/>
         </a:xfrm>
@@ -2448,8 +2480,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1776886" y="6398532"/>
-          <a:ext cx="899474" cy="3626220"/>
+          <a:off x="1766454" y="6549572"/>
+          <a:ext cx="893124" cy="3720109"/>
           <a:chOff x="3065318" y="5264727"/>
           <a:chExt cx="1004455" cy="5143500"/>
         </a:xfrm>
@@ -2602,8 +2634,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2144278" y="5701393"/>
-          <a:ext cx="288225" cy="431716"/>
+          <a:off x="2133846" y="5837464"/>
+          <a:ext cx="288225" cy="440787"/>
           <a:chOff x="3065318" y="5264727"/>
           <a:chExt cx="1004455" cy="5143500"/>
         </a:xfrm>
@@ -3113,12 +3145,12 @@
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
@@ -3162,7 +3194,7 @@
       <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="64" t="s">
         <v>117</v>
       </c>
       <c r="D5" s="20">
@@ -3204,7 +3236,7 @@
       <c r="D8" s="19">
         <v>2.5</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="60" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3230,7 +3262,7 @@
       <c r="D10" s="19">
         <v>5.2</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="61" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3265,12 +3297,12 @@
       <c r="J13" s="28"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="21"/>
@@ -3331,16 +3363,16 @@
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
       <c r="G2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="112">
+      <c r="H2" s="109">
         <v>47.284790000000001</v>
       </c>
     </row>
@@ -3357,30 +3389,30 @@
       <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="113">
+      <c r="H3" s="110">
         <v>-71.151439999999994</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>216</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="117" t="s">
+      <c r="E4" s="114" t="s">
         <v>221</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="104" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3391,16 +3423,16 @@
       <c r="C5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="120" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="114" t="s">
         <v>221</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="105" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3411,7 +3443,7 @@
       <c r="C6" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="123">
+      <c r="D6" s="120">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3425,7 +3457,7 @@
       <c r="C7" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="123">
+      <c r="D7" s="120">
         <v>2</v>
       </c>
       <c r="E7" s="1"/>
@@ -3437,7 +3469,7 @@
       <c r="C8" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="121" t="s">
         <v>182</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -3451,7 +3483,7 @@
       <c r="C9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="121" t="s">
         <v>184</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -3465,10 +3497,10 @@
       <c r="C10" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="123">
+      <c r="D10" s="120">
         <v>2.1</v>
       </c>
-      <c r="E10" s="117"/>
+      <c r="E10" s="114"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="32" t="s">
@@ -3477,10 +3509,10 @@
       <c r="C11" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="123">
+      <c r="D11" s="120">
         <v>5.3</v>
       </c>
-      <c r="E11" s="117" t="s">
+      <c r="E11" s="114" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3491,10 +3523,10 @@
       <c r="C12" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="123">
+      <c r="D12" s="120">
         <v>9.1</v>
       </c>
-      <c r="E12" s="117" t="s">
+      <c r="E12" s="114" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3505,10 +3537,10 @@
       <c r="C13" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="123">
+      <c r="D13" s="120">
         <v>12.9</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="E13" s="114" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3519,7 +3551,7 @@
       <c r="C14" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="123">
+      <c r="D14" s="120">
         <v>-0.08</v>
       </c>
       <c r="E14" s="1"/>
@@ -3532,13 +3564,13 @@
       <c r="B15" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="122" t="s">
+      <c r="D15" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="114" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3549,10 +3581,10 @@
       <c r="C16" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="E16" s="117" t="s">
+      <c r="E16" s="114" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3563,7 +3595,7 @@
       <c r="C17" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="123">
+      <c r="D17" s="120">
         <v>3</v>
       </c>
       <c r="E17" s="14"/>
@@ -3575,7 +3607,7 @@
       <c r="C18" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="123">
+      <c r="D18" s="120">
         <v>14.9</v>
       </c>
       <c r="E18" s="14" t="s">
@@ -3589,7 +3621,7 @@
       <c r="C19" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="123">
+      <c r="D19" s="120">
         <v>2.5</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -3597,16 +3629,16 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="57" t="s">
         <v>191</v>
       </c>
       <c r="C20" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="125">
+      <c r="D20" s="122">
         <v>-0.04</v>
       </c>
-      <c r="E20" s="62"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
@@ -3614,20 +3646,20 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="147" t="s">
+      <c r="B23" s="144" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
     </row>
     <row r="24" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="143" t="s">
         <v>211</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
     </row>
     <row r="28" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -3660,16 +3692,16 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="125" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="G2" s="109" t="s">
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
+      <c r="G2" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="112">
+      <c r="H2" s="109">
         <v>47.267270000000003</v>
       </c>
     </row>
@@ -3686,28 +3718,28 @@
       <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="110" t="s">
+      <c r="G3" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="113">
+      <c r="H3" s="110">
         <v>-71.175120000000007</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>216</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="122">
+      <c r="D4" s="119">
         <v>3.65</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="G4" s="111" t="s">
+      <c r="E4" s="114"/>
+      <c r="G4" s="108" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="104" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3718,16 +3750,16 @@
       <c r="C5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="123">
+      <c r="D5" s="120">
         <v>2.5</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="105" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3735,10 +3767,10 @@
       <c r="B6" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="D6" s="123">
+      <c r="D6" s="120">
         <v>3.65</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3752,7 +3784,7 @@
       <c r="C7" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="123">
+      <c r="D7" s="120">
         <v>1.5</v>
       </c>
       <c r="E7" s="1"/>
@@ -3764,7 +3796,7 @@
       <c r="C8" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="121" t="s">
         <v>232</v>
       </c>
       <c r="E8" s="14"/>
@@ -3776,7 +3808,7 @@
       <c r="C9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="121" t="s">
         <v>233</v>
       </c>
       <c r="E9" s="14"/>
@@ -3788,10 +3820,10 @@
       <c r="C10" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="123">
+      <c r="D10" s="120">
         <v>2.4</v>
       </c>
-      <c r="E10" s="117"/>
+      <c r="E10" s="114"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="32" t="s">
@@ -3800,7 +3832,7 @@
       <c r="C11" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="123">
+      <c r="D11" s="120">
         <v>-0.08</v>
       </c>
       <c r="E11" s="1"/>
@@ -3809,13 +3841,13 @@
       <c r="B12" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="122">
+      <c r="D12" s="119">
         <v>3.65</v>
       </c>
-      <c r="E12" s="117" t="s">
+      <c r="E12" s="114" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3826,10 +3858,10 @@
       <c r="C13" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="122">
+      <c r="D13" s="119">
         <v>3.65</v>
       </c>
-      <c r="E13" s="117"/>
+      <c r="E13" s="114"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="32" t="s">
@@ -3838,22 +3870,22 @@
       <c r="C14" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="123">
+      <c r="D14" s="120">
         <v>5.4</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="57" t="s">
         <v>191</v>
       </c>
       <c r="C15" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="125">
+      <c r="D15" s="122">
         <v>-0.04</v>
       </c>
-      <c r="E15" s="62"/>
+      <c r="E15" s="59"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
@@ -3861,18 +3893,18 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="144" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E15">
@@ -3907,12 +3939,12 @@
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="125" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
       <c r="G2" s="39" t="s">
         <v>22</v>
       </c>
@@ -3933,28 +3965,28 @@
       <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="105">
+      <c r="H3" s="102">
         <v>-71.151210000000006</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>216</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="122">
+      <c r="D4" s="119">
         <v>2.4</v>
       </c>
-      <c r="E4" s="117"/>
+      <c r="E4" s="114"/>
       <c r="G4" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="104" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3965,16 +3997,16 @@
       <c r="C5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="123">
+      <c r="D5" s="120">
         <v>2.5</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="114" t="s">
         <v>235</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="105" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3985,7 +4017,7 @@
       <c r="C6" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="123">
+      <c r="D6" s="120">
         <v>1.5</v>
       </c>
       <c r="E6" s="1"/>
@@ -3997,7 +4029,7 @@
       <c r="C7" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="121" t="s">
         <v>241</v>
       </c>
       <c r="E7" s="14"/>
@@ -4006,27 +4038,27 @@
       <c r="B8" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="122">
+      <c r="D8" s="119">
         <v>2.4</v>
       </c>
-      <c r="E8" s="117" t="s">
+      <c r="E8" s="114" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="126">
+      <c r="D9" s="123">
         <v>2.4</v>
       </c>
-      <c r="E9" s="127"/>
+      <c r="E9" s="124"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
@@ -4034,12 +4066,12 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="144" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4058,1013 +4090,1013 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="11" style="74"/>
-    <col min="3" max="3" width="21.25" style="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="74" customWidth="1"/>
-    <col min="5" max="9" width="11" style="75"/>
-    <col min="10" max="10" width="3.58203125" style="75" customWidth="1"/>
-    <col min="11" max="11" width="8.58203125" style="75" customWidth="1"/>
-    <col min="12" max="12" width="11" style="75"/>
-    <col min="13" max="13" width="9.25" style="75" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="75" customWidth="1"/>
-    <col min="15" max="16384" width="11" style="75"/>
+    <col min="1" max="1" width="11.58203125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="11" style="71"/>
+    <col min="3" max="3" width="21.25" style="71" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="71" customWidth="1"/>
+    <col min="5" max="9" width="11" style="72"/>
+    <col min="10" max="10" width="3.58203125" style="72" customWidth="1"/>
+    <col min="11" max="11" width="8.58203125" style="72" customWidth="1"/>
+    <col min="12" max="12" width="11" style="72"/>
+    <col min="13" max="13" width="9.25" style="72" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="72" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="70" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="149" t="s">
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="75" t="s">
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="72" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="74">
+      <c r="A4" s="71">
         <v>50</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="73">
         <f t="shared" ref="B4:B54" si="0">0.3048*A4</f>
         <v>15.24</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="73">
         <f>B4*COS(12*PI()/180)</f>
         <v>14.906969435183198</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="92"/>
-      <c r="K4" s="75" t="s">
+      <c r="D4" s="73"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="89"/>
+      <c r="K4" s="72" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="74">
+      <c r="A5" s="71">
         <v>49</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="73">
         <f t="shared" si="0"/>
         <v>14.9352</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="73">
         <f t="shared" ref="C5:C54" si="1">B5*COS(12*PI()/180)</f>
         <v>14.608830046479534</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="93"/>
+      <c r="D5" s="73"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="90"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="74">
+      <c r="A6" s="71">
         <v>48</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="73">
         <f t="shared" si="0"/>
         <v>14.630400000000002</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="73">
         <f t="shared" si="1"/>
         <v>14.310690657775872</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="L6" s="75" t="s">
+      <c r="D6" s="73"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="L6" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="N6" s="75" t="s">
+      <c r="N6" s="72" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="74">
+      <c r="A7" s="71">
         <v>47</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="73">
         <f t="shared" si="0"/>
         <v>14.325600000000001</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="73">
         <f t="shared" si="1"/>
         <v>14.012551269072208</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="96"/>
+      <c r="D7" s="73"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="93"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="74">
+      <c r="A8" s="71">
         <v>46</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="73">
         <f t="shared" si="0"/>
         <v>14.020800000000001</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="73">
         <f t="shared" si="1"/>
         <v>13.714411880368544</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="95"/>
-      <c r="M8" s="75" t="s">
+      <c r="D8" s="73"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="92"/>
+      <c r="M8" s="72" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="74">
+      <c r="A9" s="71">
         <v>45</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="73">
         <f t="shared" si="0"/>
         <v>13.716000000000001</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="73">
         <f t="shared" si="1"/>
         <v>13.416272491664881</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="98"/>
+      <c r="D9" s="73"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="95"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="74">
+      <c r="A10" s="71">
         <v>44</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="73">
         <f t="shared" si="0"/>
         <v>13.411200000000001</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="73">
         <f t="shared" si="1"/>
         <v>13.118133102961215</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="95"/>
+      <c r="D10" s="73"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="92"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="74">
+      <c r="A11" s="71">
         <v>43</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="73">
         <f t="shared" si="0"/>
         <v>13.106400000000001</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="73">
         <f t="shared" si="1"/>
         <v>12.819993714257551</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="95"/>
+      <c r="D11" s="73"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="92"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="74">
+      <c r="A12" s="71">
         <v>42</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="73">
         <f t="shared" si="0"/>
         <v>12.801600000000001</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="73">
         <f t="shared" si="1"/>
         <v>12.521854325553887</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="96"/>
+      <c r="D12" s="73"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="93"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="74">
+      <c r="A13" s="71">
         <v>41</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="73">
         <f t="shared" si="0"/>
         <v>12.4968</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="73">
         <f t="shared" si="1"/>
         <v>12.223714936850223</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="95"/>
+      <c r="D13" s="73"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="92"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="74">
+      <c r="A14" s="71">
         <v>40</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="73">
         <f t="shared" si="0"/>
         <v>12.192</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C14" s="73">
         <f t="shared" si="1"/>
         <v>11.92557554814656</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="98"/>
+      <c r="D14" s="73"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="95"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="74">
+      <c r="A15" s="71">
         <v>39</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="73">
         <f t="shared" si="0"/>
         <v>11.8872</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="73">
         <f t="shared" si="1"/>
         <v>11.627436159442896</v>
       </c>
-      <c r="D15" s="76"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="95"/>
+      <c r="D15" s="73"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="92"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="74">
+      <c r="A16" s="71">
         <v>38</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="73">
         <f t="shared" si="0"/>
         <v>11.5824</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="73">
         <f t="shared" si="1"/>
         <v>11.32929677073923</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="95"/>
+      <c r="D16" s="73"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="74">
+      <c r="A17" s="71">
         <v>37</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="73">
         <f t="shared" si="0"/>
         <v>11.277600000000001</v>
       </c>
-      <c r="C17" s="76">
+      <c r="C17" s="73">
         <f t="shared" si="1"/>
         <v>11.031157382035568</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="96"/>
+      <c r="D17" s="73"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="93"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="74">
+      <c r="A18" s="71">
         <v>36</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="73">
         <f t="shared" si="0"/>
         <v>10.972800000000001</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="73">
         <f t="shared" si="1"/>
         <v>10.733017993331904</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="95"/>
-      <c r="K18" s="75" t="s">
+      <c r="D18" s="73"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="92"/>
+      <c r="K18" s="72" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="74">
+      <c r="A19" s="71">
         <v>35</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="73">
         <f t="shared" si="0"/>
         <v>10.668000000000001</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="73">
         <f t="shared" si="1"/>
         <v>10.43487860462824</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="98"/>
+      <c r="D19" s="73"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="95"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="74">
+      <c r="A20" s="71">
         <v>34</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="73">
         <f t="shared" si="0"/>
         <v>10.363200000000001</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="73">
         <f t="shared" si="1"/>
         <v>10.136739215924576</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="95"/>
+      <c r="D20" s="73"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="92"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="74">
+      <c r="A21" s="71">
         <v>33</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="73">
         <f t="shared" si="0"/>
         <v>10.058400000000001</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="73">
         <f t="shared" si="1"/>
         <v>9.8385998272209125</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="95"/>
+      <c r="D21" s="73"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="92"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="74">
+      <c r="A22" s="71">
         <v>32</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="73">
         <f t="shared" si="0"/>
         <v>9.7536000000000005</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="73">
         <f t="shared" si="1"/>
         <v>9.5404604385172469</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="96"/>
+      <c r="D22" s="73"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="93"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="74">
+      <c r="A23" s="71">
         <v>31</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="73">
         <f t="shared" si="0"/>
         <v>9.4488000000000003</v>
       </c>
-      <c r="C23" s="76">
+      <c r="C23" s="73">
         <f t="shared" si="1"/>
         <v>9.242321049813583</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="95"/>
+      <c r="D23" s="73"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="92"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="74">
+      <c r="A24" s="71">
         <v>30</v>
       </c>
-      <c r="B24" s="76">
+      <c r="B24" s="73">
         <f t="shared" si="0"/>
         <v>9.1440000000000001</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="73">
         <f t="shared" si="1"/>
         <v>8.9441816611099192</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="98"/>
+      <c r="D24" s="73"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="95"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="74">
+      <c r="A25" s="71">
         <v>29</v>
       </c>
-      <c r="B25" s="76">
+      <c r="B25" s="73">
         <f t="shared" si="0"/>
         <v>8.8391999999999999</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="73">
         <f t="shared" si="1"/>
         <v>8.6460422724062553</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="95"/>
+      <c r="D25" s="73"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="92"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="74">
+      <c r="A26" s="71">
         <v>28</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B26" s="73">
         <f t="shared" si="0"/>
         <v>8.5343999999999998</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="73">
         <f t="shared" si="1"/>
         <v>8.3479028837025915</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="95"/>
-      <c r="L26" s="75" t="s">
+      <c r="D26" s="73"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="92"/>
+      <c r="L26" s="72" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="74">
+      <c r="A27" s="71">
         <v>27</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B27" s="73">
         <f t="shared" si="0"/>
         <v>8.2295999999999996</v>
       </c>
-      <c r="C27" s="76">
+      <c r="C27" s="73">
         <f t="shared" si="1"/>
         <v>8.0497634949989276</v>
       </c>
-      <c r="D27" s="76"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="96"/>
+      <c r="D27" s="73"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="93"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="74">
+      <c r="A28" s="71">
         <v>26</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="73">
         <f t="shared" si="0"/>
         <v>7.9248000000000003</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="73">
         <f t="shared" si="1"/>
         <v>7.7516241062952638</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="95"/>
-      <c r="M28" s="75" t="s">
+      <c r="D28" s="73"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="92"/>
+      <c r="M28" s="72" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="74">
+      <c r="A29" s="71">
         <v>25</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B29" s="73">
         <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
-      <c r="C29" s="76">
+      <c r="C29" s="73">
         <f t="shared" si="1"/>
         <v>7.453484717591599</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="98"/>
+      <c r="D29" s="73"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="95"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="74">
+      <c r="A30" s="71">
         <v>24</v>
       </c>
-      <c r="B30" s="76">
+      <c r="B30" s="73">
         <f t="shared" si="0"/>
         <v>7.3152000000000008</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="73">
         <f t="shared" si="1"/>
         <v>7.1553453288879361</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="95"/>
+      <c r="D30" s="73"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="92"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="74">
+      <c r="A31" s="71">
         <v>23</v>
       </c>
-      <c r="B31" s="76">
+      <c r="B31" s="73">
         <f t="shared" si="0"/>
         <v>7.0104000000000006</v>
       </c>
-      <c r="C31" s="76">
+      <c r="C31" s="73">
         <f t="shared" si="1"/>
         <v>6.8572059401842722</v>
       </c>
-      <c r="D31" s="76"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="95"/>
+      <c r="D31" s="73"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="92"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="74">
+      <c r="A32" s="71">
         <v>22</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="73">
         <f t="shared" si="0"/>
         <v>6.7056000000000004</v>
       </c>
-      <c r="C32" s="76">
+      <c r="C32" s="73">
         <f t="shared" si="1"/>
         <v>6.5590665514806075</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="96"/>
+      <c r="D32" s="73"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="93"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="74">
+      <c r="A33" s="71">
         <v>21</v>
       </c>
-      <c r="B33" s="76">
+      <c r="B33" s="73">
         <f t="shared" si="0"/>
         <v>6.4008000000000003</v>
       </c>
-      <c r="C33" s="76">
+      <c r="C33" s="73">
         <f t="shared" si="1"/>
         <v>6.2609271627769436</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="95"/>
+      <c r="D33" s="73"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="92"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="74">
+      <c r="A34" s="71">
         <v>20</v>
       </c>
-      <c r="B34" s="76">
+      <c r="B34" s="73">
         <f t="shared" si="0"/>
         <v>6.0960000000000001</v>
       </c>
-      <c r="C34" s="76">
+      <c r="C34" s="73">
         <f t="shared" si="1"/>
         <v>5.9627877740732798</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="98"/>
+      <c r="D34" s="73"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="95"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="74">
+      <c r="A35" s="71">
         <v>19</v>
       </c>
-      <c r="B35" s="76">
+      <c r="B35" s="73">
         <f t="shared" si="0"/>
         <v>5.7911999999999999</v>
       </c>
-      <c r="C35" s="76">
+      <c r="C35" s="73">
         <f t="shared" si="1"/>
         <v>5.664648385369615</v>
       </c>
-      <c r="D35" s="76"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="95"/>
-      <c r="K35" s="75" t="s">
+      <c r="D35" s="73"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="92"/>
+      <c r="K35" s="72" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="74">
+      <c r="A36" s="71">
         <v>18</v>
       </c>
-      <c r="B36" s="76">
+      <c r="B36" s="73">
         <f t="shared" si="0"/>
         <v>5.4864000000000006</v>
       </c>
-      <c r="C36" s="76">
+      <c r="C36" s="73">
         <f t="shared" si="1"/>
         <v>5.366508996665952</v>
       </c>
-      <c r="D36" s="76"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="95"/>
+      <c r="D36" s="73"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="92"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="74">
+      <c r="A37" s="71">
         <v>17</v>
       </c>
-      <c r="B37" s="76">
+      <c r="B37" s="73">
         <f t="shared" si="0"/>
         <v>5.1816000000000004</v>
       </c>
-      <c r="C37" s="76">
+      <c r="C37" s="73">
         <f t="shared" si="1"/>
         <v>5.0683696079622882</v>
       </c>
-      <c r="D37" s="76"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="96"/>
+      <c r="D37" s="73"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="93"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="74">
+      <c r="A38" s="71">
         <v>16</v>
       </c>
-      <c r="B38" s="76">
+      <c r="B38" s="73">
         <f t="shared" si="0"/>
         <v>4.8768000000000002</v>
       </c>
-      <c r="C38" s="76">
+      <c r="C38" s="73">
         <f t="shared" si="1"/>
         <v>4.7702302192586234</v>
       </c>
-      <c r="D38" s="76"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="95"/>
+      <c r="D38" s="73"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="92"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="74">
+      <c r="A39" s="71">
         <v>15</v>
       </c>
-      <c r="B39" s="76">
+      <c r="B39" s="73">
         <f t="shared" si="0"/>
         <v>4.5720000000000001</v>
       </c>
-      <c r="C39" s="76">
+      <c r="C39" s="73">
         <f t="shared" si="1"/>
         <v>4.4720908305549596</v>
       </c>
-      <c r="D39" s="76"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="98"/>
+      <c r="D39" s="73"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="95"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="74">
+      <c r="A40" s="71">
         <v>14</v>
       </c>
-      <c r="B40" s="76">
+      <c r="B40" s="73">
         <f t="shared" si="0"/>
         <v>4.2671999999999999</v>
       </c>
-      <c r="C40" s="76">
+      <c r="C40" s="73">
         <f t="shared" si="1"/>
         <v>4.1739514418512957</v>
       </c>
-      <c r="D40" s="76"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="95"/>
+      <c r="D40" s="73"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="92"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="74">
+      <c r="A41" s="71">
         <v>13</v>
       </c>
-      <c r="B41" s="76">
+      <c r="B41" s="73">
         <f t="shared" si="0"/>
         <v>3.9624000000000001</v>
       </c>
-      <c r="C41" s="76">
+      <c r="C41" s="73">
         <f t="shared" si="1"/>
         <v>3.8758120531476319</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="95"/>
+      <c r="D41" s="73"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="92"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="74">
+      <c r="A42" s="71">
         <v>12</v>
       </c>
-      <c r="B42" s="76">
+      <c r="B42" s="73">
         <f t="shared" si="0"/>
         <v>3.6576000000000004</v>
       </c>
-      <c r="C42" s="76">
+      <c r="C42" s="73">
         <f t="shared" si="1"/>
         <v>3.577672664443968</v>
       </c>
-      <c r="D42" s="76"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="96"/>
+      <c r="D42" s="73"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="93"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="74">
+      <c r="A43" s="71">
         <v>11</v>
       </c>
-      <c r="B43" s="76">
+      <c r="B43" s="73">
         <f t="shared" si="0"/>
         <v>3.3528000000000002</v>
       </c>
-      <c r="C43" s="76">
+      <c r="C43" s="73">
         <f t="shared" si="1"/>
         <v>3.2795332757403037</v>
       </c>
-      <c r="D43" s="76"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="95"/>
-      <c r="K43" s="75" t="s">
+      <c r="D43" s="73"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="92"/>
+      <c r="K43" s="72" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="74">
+      <c r="A44" s="71">
         <v>10</v>
       </c>
-      <c r="B44" s="76">
+      <c r="B44" s="73">
         <f t="shared" si="0"/>
         <v>3.048</v>
       </c>
-      <c r="C44" s="76">
+      <c r="C44" s="73">
         <f t="shared" si="1"/>
         <v>2.9813938870366399</v>
       </c>
-      <c r="D44" s="76"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="98"/>
+      <c r="D44" s="73"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="95"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="74">
+      <c r="A45" s="71">
         <v>9</v>
       </c>
-      <c r="B45" s="76">
+      <c r="B45" s="73">
         <f t="shared" si="0"/>
         <v>2.7432000000000003</v>
       </c>
-      <c r="C45" s="76">
+      <c r="C45" s="73">
         <f t="shared" si="1"/>
         <v>2.683254498332976</v>
       </c>
-      <c r="D45" s="76"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="95"/>
+      <c r="D45" s="73"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="92"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="74">
+      <c r="A46" s="71">
         <v>8</v>
       </c>
-      <c r="B46" s="76">
+      <c r="B46" s="73">
         <f t="shared" si="0"/>
         <v>2.4384000000000001</v>
       </c>
-      <c r="C46" s="76">
+      <c r="C46" s="73">
         <f t="shared" si="1"/>
         <v>2.3851151096293117</v>
       </c>
-      <c r="D46" s="76"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="96"/>
+      <c r="D46" s="73"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="93"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="74">
+      <c r="A47" s="71">
         <v>7</v>
       </c>
-      <c r="B47" s="76">
+      <c r="B47" s="73">
         <f t="shared" si="0"/>
         <v>2.1335999999999999</v>
       </c>
-      <c r="C47" s="76">
+      <c r="C47" s="73">
         <f t="shared" si="1"/>
         <v>2.0869757209256479</v>
       </c>
-      <c r="D47" s="76"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="98"/>
+      <c r="D47" s="73"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="95"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="74">
+      <c r="A48" s="71">
         <v>6</v>
       </c>
-      <c r="B48" s="76">
+      <c r="B48" s="73">
         <f t="shared" si="0"/>
         <v>1.8288000000000002</v>
       </c>
-      <c r="C48" s="76">
+      <c r="C48" s="73">
         <f t="shared" si="1"/>
         <v>1.788836332221984</v>
       </c>
-      <c r="D48" s="76"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="100"/>
+      <c r="D48" s="73"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="97"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="74">
+      <c r="A49" s="71">
         <v>5</v>
       </c>
-      <c r="B49" s="76">
+      <c r="B49" s="73">
         <f t="shared" si="0"/>
         <v>1.524</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="73">
         <f t="shared" si="1"/>
         <v>1.4906969435183199</v>
       </c>
-      <c r="D49" s="76"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="100"/>
+      <c r="D49" s="73"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="97"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="74">
+      <c r="A50" s="71">
         <v>4</v>
       </c>
-      <c r="B50" s="76">
+      <c r="B50" s="73">
         <f t="shared" si="0"/>
         <v>1.2192000000000001</v>
       </c>
-      <c r="C50" s="76">
+      <c r="C50" s="73">
         <f t="shared" si="1"/>
         <v>1.1925575548146559</v>
       </c>
-      <c r="D50" s="76"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="100"/>
+      <c r="D50" s="73"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="97"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="74">
+      <c r="A51" s="71">
         <v>3</v>
       </c>
-      <c r="B51" s="76">
+      <c r="B51" s="73">
         <f t="shared" si="0"/>
         <v>0.9144000000000001</v>
       </c>
-      <c r="C51" s="76">
+      <c r="C51" s="73">
         <f t="shared" si="1"/>
         <v>0.89441816611099201</v>
       </c>
-      <c r="D51" s="76"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="100"/>
+      <c r="D51" s="73"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="97"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="74">
+      <c r="A52" s="71">
         <v>2</v>
       </c>
-      <c r="B52" s="76">
+      <c r="B52" s="73">
         <f t="shared" si="0"/>
         <v>0.60960000000000003</v>
       </c>
-      <c r="C52" s="76">
+      <c r="C52" s="73">
         <f t="shared" si="1"/>
         <v>0.59627877740732793</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="99"/>
-      <c r="I52" s="100"/>
+      <c r="D52" s="73"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="97"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="74">
+      <c r="A53" s="71">
         <v>1</v>
       </c>
-      <c r="B53" s="76">
+      <c r="B53" s="73">
         <f t="shared" si="0"/>
         <v>0.30480000000000002</v>
       </c>
-      <c r="C53" s="76">
+      <c r="C53" s="73">
         <f t="shared" si="1"/>
         <v>0.29813938870366397</v>
       </c>
-      <c r="D53" s="76"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="100"/>
+      <c r="D53" s="73"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="97"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="74">
+      <c r="A54" s="71">
         <v>0</v>
       </c>
-      <c r="B54" s="76">
+      <c r="B54" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C54" s="76">
+      <c r="C54" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="100"/>
+      <c r="D54" s="73"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5085,1397 +5117,1397 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="11" style="74"/>
-    <col min="3" max="3" width="17.25" style="74" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="74" customWidth="1"/>
-    <col min="5" max="10" width="11" style="75"/>
-    <col min="11" max="11" width="11.25" style="75" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11" style="75"/>
-    <col min="14" max="14" width="15.58203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="11" style="75"/>
-    <col min="22" max="23" width="17" style="75" customWidth="1"/>
-    <col min="24" max="16384" width="11" style="75"/>
+    <col min="1" max="1" width="11.58203125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="11" style="71"/>
+    <col min="3" max="3" width="17.25" style="71" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="71" customWidth="1"/>
+    <col min="5" max="10" width="11" style="72"/>
+    <col min="11" max="11" width="11.25" style="72" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="72"/>
+    <col min="14" max="14" width="15.58203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="11" style="72"/>
+    <col min="22" max="23" width="17" style="72" customWidth="1"/>
+    <col min="24" max="16384" width="11" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="70" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="149" t="s">
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="75" t="s">
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="72" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="74">
+      <c r="A4" s="71">
         <v>65</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="73">
         <f t="shared" ref="B4:B67" si="0">0.3048*A4</f>
         <v>19.812000000000001</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="73">
         <f t="shared" ref="C4:C18" si="1">B4*COS(12*PI()/180)</f>
         <v>19.379060265738161</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="77"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="74"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="74">
+      <c r="A5" s="71">
         <v>64</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="73">
         <f t="shared" si="0"/>
         <v>19.507200000000001</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="73">
         <f t="shared" si="1"/>
         <v>19.080920877034494</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="77"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="74"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="74">
+      <c r="A6" s="71">
         <v>63</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="73">
         <f t="shared" si="0"/>
         <v>19.202400000000001</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="73">
         <f t="shared" si="1"/>
         <v>18.78278148833083</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="77"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="74"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="74">
+      <c r="A7" s="71">
         <v>62</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="73">
         <f t="shared" si="0"/>
         <v>18.897600000000001</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="73">
         <f t="shared" si="1"/>
         <v>18.484642099627166</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="77"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="74">
+      <c r="A8" s="71">
         <v>61</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="73">
         <f t="shared" si="0"/>
         <v>18.5928</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="73">
         <f t="shared" si="1"/>
         <v>18.186502710923502</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="77"/>
-      <c r="M8" s="75" t="s">
+      <c r="E8" s="74"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="74"/>
+      <c r="M8" s="72" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="74">
+      <c r="A9" s="71">
         <v>60</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="73">
         <f t="shared" si="0"/>
         <v>18.288</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="73">
         <f t="shared" si="1"/>
         <v>17.888363322219838</v>
       </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="75" t="s">
+      <c r="E9" s="74"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="72" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="74">
+      <c r="A10" s="71">
         <v>59</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="73">
         <f t="shared" si="0"/>
         <v>17.9832</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="73">
         <f t="shared" si="1"/>
         <v>17.590223933516175</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="77"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="74">
+      <c r="A11" s="71">
         <v>58</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="73">
         <f t="shared" si="0"/>
         <v>17.6784</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="73">
         <f t="shared" si="1"/>
         <v>17.292084544812511</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="77"/>
-      <c r="N11" s="75" t="s">
+      <c r="E11" s="74"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="74"/>
+      <c r="N11" s="72" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="74">
+      <c r="A12" s="71">
         <v>57</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="73">
         <f t="shared" si="0"/>
         <v>17.3736</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="73">
         <f t="shared" si="1"/>
         <v>16.993945156108847</v>
       </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="77"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="74">
+      <c r="A13" s="71">
         <v>56</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="73">
         <f t="shared" si="0"/>
         <v>17.0688</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="73">
         <f t="shared" si="1"/>
         <v>16.695805767405183</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="77"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="74">
+      <c r="A14" s="71">
         <v>55</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="73">
         <f t="shared" si="0"/>
         <v>16.763999999999999</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C14" s="73">
         <f t="shared" si="1"/>
         <v>16.397666378701519</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="77"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="74">
+      <c r="A15" s="71">
         <v>54</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="73">
         <f t="shared" si="0"/>
         <v>16.459199999999999</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="73">
         <f t="shared" si="1"/>
         <v>16.099526989997855</v>
       </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="77"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="74"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="74">
+      <c r="A16" s="71">
         <v>53</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="73">
         <f t="shared" si="0"/>
         <v>16.154400000000003</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="73">
         <f t="shared" si="1"/>
         <v>15.801387601294193</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="77"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="74"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="74">
+      <c r="A17" s="71">
         <v>52</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="73">
         <f t="shared" si="0"/>
         <v>15.849600000000001</v>
       </c>
-      <c r="C17" s="76">
+      <c r="C17" s="73">
         <f t="shared" si="1"/>
         <v>15.503248212590528</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="77"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="74"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="74">
+      <c r="A18" s="71">
         <v>51</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="73">
         <f t="shared" si="0"/>
         <v>15.5448</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="73">
         <f t="shared" si="1"/>
         <v>15.205108823886864</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="77"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="74"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="74">
+      <c r="A19" s="71">
         <v>50</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="73">
         <f t="shared" si="0"/>
         <v>15.24</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="73">
         <f>B19*COS(12*PI()/180)</f>
         <v>14.906969435183198</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="77"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="74"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="74">
+      <c r="A20" s="71">
         <v>49</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="73">
         <f t="shared" si="0"/>
         <v>14.9352</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="73">
         <f t="shared" ref="C20:C69" si="2">B20*COS(12*PI()/180)</f>
         <v>14.608830046479534</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="77"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="74"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="74">
+      <c r="A21" s="71">
         <v>48</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="73">
         <f t="shared" si="0"/>
         <v>14.630400000000002</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="73">
         <f t="shared" si="2"/>
         <v>14.310690657775872</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="77"/>
-      <c r="L21" s="75" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="74"/>
+      <c r="L21" s="72" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="74">
+      <c r="A22" s="71">
         <v>47</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="73">
         <f t="shared" si="0"/>
         <v>14.325600000000001</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="73">
         <f t="shared" si="2"/>
         <v>14.012551269072208</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="77"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="74"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="74">
+      <c r="A23" s="71">
         <v>46</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="73">
         <f t="shared" si="0"/>
         <v>14.020800000000001</v>
       </c>
-      <c r="C23" s="76">
+      <c r="C23" s="73">
         <f t="shared" si="2"/>
         <v>13.714411880368544</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="77"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="74"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="74">
+      <c r="A24" s="71">
         <v>45</v>
       </c>
-      <c r="B24" s="76">
+      <c r="B24" s="73">
         <f t="shared" si="0"/>
         <v>13.716000000000001</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="73">
         <f t="shared" si="2"/>
         <v>13.416272491664881</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="75" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="72" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="74">
+      <c r="A25" s="71">
         <v>44</v>
       </c>
-      <c r="B25" s="76">
+      <c r="B25" s="73">
         <f t="shared" si="0"/>
         <v>13.411200000000001</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="73">
         <f t="shared" si="2"/>
         <v>13.118133102961215</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="77"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="74"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="74">
+      <c r="A26" s="71">
         <v>43</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B26" s="73">
         <f t="shared" si="0"/>
         <v>13.106400000000001</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="73">
         <f t="shared" si="2"/>
         <v>12.819993714257551</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="77"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="74"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="74">
+      <c r="A27" s="71">
         <v>42</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B27" s="73">
         <f t="shared" si="0"/>
         <v>12.801600000000001</v>
       </c>
-      <c r="C27" s="76">
+      <c r="C27" s="73">
         <f t="shared" si="2"/>
         <v>12.521854325553887</v>
       </c>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="77"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="74"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="74">
+      <c r="A28" s="71">
         <v>41</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="73">
         <f t="shared" si="0"/>
         <v>12.4968</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="73">
         <f t="shared" si="2"/>
         <v>12.223714936850223</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="77"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="74"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="74">
+      <c r="A29" s="71">
         <v>40</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B29" s="73">
         <f t="shared" si="0"/>
         <v>12.192</v>
       </c>
-      <c r="C29" s="76">
+      <c r="C29" s="73">
         <f t="shared" si="2"/>
         <v>11.92557554814656</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="77"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="74"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="74">
+      <c r="A30" s="71">
         <v>39</v>
       </c>
-      <c r="B30" s="76">
+      <c r="B30" s="73">
         <f t="shared" si="0"/>
         <v>11.8872</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="73">
         <f t="shared" si="2"/>
         <v>11.627436159442896</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="77"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="74"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="74">
+      <c r="A31" s="71">
         <v>38</v>
       </c>
-      <c r="B31" s="76">
+      <c r="B31" s="73">
         <f t="shared" si="0"/>
         <v>11.5824</v>
       </c>
-      <c r="C31" s="76">
+      <c r="C31" s="73">
         <f t="shared" si="2"/>
         <v>11.32929677073923</v>
       </c>
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="77"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="74"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="74">
+      <c r="A32" s="71">
         <v>37</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="73">
         <f t="shared" si="0"/>
         <v>11.277600000000001</v>
       </c>
-      <c r="C32" s="76">
+      <c r="C32" s="73">
         <f t="shared" si="2"/>
         <v>11.031157382035568</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="77"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="74"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="74">
+      <c r="A33" s="71">
         <v>36</v>
       </c>
-      <c r="B33" s="76">
+      <c r="B33" s="73">
         <f t="shared" si="0"/>
         <v>10.972800000000001</v>
       </c>
-      <c r="C33" s="76">
+      <c r="C33" s="73">
         <f t="shared" si="2"/>
         <v>10.733017993331904</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="77"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="74"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="74">
+      <c r="A34" s="71">
         <v>35</v>
       </c>
-      <c r="B34" s="76">
+      <c r="B34" s="73">
         <f t="shared" si="0"/>
         <v>10.668000000000001</v>
       </c>
-      <c r="C34" s="76">
+      <c r="C34" s="73">
         <f t="shared" si="2"/>
         <v>10.43487860462824</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="77"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="74"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="74">
+      <c r="A35" s="71">
         <v>34</v>
       </c>
-      <c r="B35" s="76">
+      <c r="B35" s="73">
         <f t="shared" si="0"/>
         <v>10.363200000000001</v>
       </c>
-      <c r="C35" s="76">
+      <c r="C35" s="73">
         <f t="shared" si="2"/>
         <v>10.136739215924576</v>
       </c>
-      <c r="D35" s="76"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="77"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="74"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="74">
+      <c r="A36" s="71">
         <v>33</v>
       </c>
-      <c r="B36" s="76">
+      <c r="B36" s="73">
         <f t="shared" si="0"/>
         <v>10.058400000000001</v>
       </c>
-      <c r="C36" s="76">
+      <c r="C36" s="73">
         <f t="shared" si="2"/>
         <v>9.8385998272209125</v>
       </c>
-      <c r="D36" s="76"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="77"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="74"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="74">
+      <c r="A37" s="71">
         <v>32</v>
       </c>
-      <c r="B37" s="76">
+      <c r="B37" s="73">
         <f t="shared" si="0"/>
         <v>9.7536000000000005</v>
       </c>
-      <c r="C37" s="76">
+      <c r="C37" s="73">
         <f t="shared" si="2"/>
         <v>9.5404604385172469</v>
       </c>
-      <c r="D37" s="76"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="77"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="74"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="74">
+      <c r="A38" s="71">
         <v>31</v>
       </c>
-      <c r="B38" s="76">
+      <c r="B38" s="73">
         <f t="shared" si="0"/>
         <v>9.4488000000000003</v>
       </c>
-      <c r="C38" s="76">
+      <c r="C38" s="73">
         <f t="shared" si="2"/>
         <v>9.242321049813583</v>
       </c>
-      <c r="D38" s="76"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="77"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="74"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="74">
+      <c r="A39" s="71">
         <v>30</v>
       </c>
-      <c r="B39" s="76">
+      <c r="B39" s="73">
         <f t="shared" si="0"/>
         <v>9.1440000000000001</v>
       </c>
-      <c r="C39" s="76">
+      <c r="C39" s="73">
         <f t="shared" si="2"/>
         <v>8.9441816611099192</v>
       </c>
-      <c r="D39" s="76"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="75" t="s">
+      <c r="D39" s="73"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="72" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="74">
+      <c r="A40" s="71">
         <v>29</v>
       </c>
-      <c r="B40" s="76">
+      <c r="B40" s="73">
         <f t="shared" si="0"/>
         <v>8.8391999999999999</v>
       </c>
-      <c r="C40" s="76">
+      <c r="C40" s="73">
         <f t="shared" si="2"/>
         <v>8.6460422724062553</v>
       </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="77"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="74"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="74">
+      <c r="A41" s="71">
         <v>28</v>
       </c>
-      <c r="B41" s="76">
+      <c r="B41" s="73">
         <f t="shared" si="0"/>
         <v>8.5343999999999998</v>
       </c>
-      <c r="C41" s="76">
+      <c r="C41" s="73">
         <f t="shared" si="2"/>
         <v>8.3479028837025915</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="77"/>
-      <c r="L41" s="75" t="s">
+      <c r="D41" s="73"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="74"/>
+      <c r="L41" s="72" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="74">
+      <c r="A42" s="71">
         <v>27</v>
       </c>
-      <c r="B42" s="76">
+      <c r="B42" s="73">
         <f t="shared" si="0"/>
         <v>8.2295999999999996</v>
       </c>
-      <c r="C42" s="76">
+      <c r="C42" s="73">
         <f t="shared" si="2"/>
         <v>8.0497634949989276</v>
       </c>
-      <c r="D42" s="76"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="77"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="74"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="74">
+      <c r="A43" s="71">
         <v>26</v>
       </c>
-      <c r="B43" s="76">
+      <c r="B43" s="73">
         <f t="shared" si="0"/>
         <v>7.9248000000000003</v>
       </c>
-      <c r="C43" s="76">
+      <c r="C43" s="73">
         <f t="shared" si="2"/>
         <v>7.7516241062952638</v>
       </c>
-      <c r="D43" s="76"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="77"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="74"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="74">
+      <c r="A44" s="71">
         <v>25</v>
       </c>
-      <c r="B44" s="76">
+      <c r="B44" s="73">
         <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
-      <c r="C44" s="76">
+      <c r="C44" s="73">
         <f t="shared" si="2"/>
         <v>7.453484717591599</v>
       </c>
-      <c r="D44" s="76"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="77"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="74">
+      <c r="A45" s="71">
         <v>24</v>
       </c>
-      <c r="B45" s="76">
+      <c r="B45" s="73">
         <f t="shared" si="0"/>
         <v>7.3152000000000008</v>
       </c>
-      <c r="C45" s="76">
+      <c r="C45" s="73">
         <f t="shared" si="2"/>
         <v>7.1553453288879361</v>
       </c>
-      <c r="D45" s="76"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="77"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="74"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="74">
+      <c r="A46" s="71">
         <v>23</v>
       </c>
-      <c r="B46" s="76">
+      <c r="B46" s="73">
         <f t="shared" si="0"/>
         <v>7.0104000000000006</v>
       </c>
-      <c r="C46" s="76">
+      <c r="C46" s="73">
         <f t="shared" si="2"/>
         <v>6.8572059401842722</v>
       </c>
-      <c r="D46" s="76"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="77"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="74"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="74">
+      <c r="A47" s="71">
         <v>22</v>
       </c>
-      <c r="B47" s="76">
+      <c r="B47" s="73">
         <f t="shared" si="0"/>
         <v>6.7056000000000004</v>
       </c>
-      <c r="C47" s="76">
+      <c r="C47" s="73">
         <f t="shared" si="2"/>
         <v>6.5590665514806075</v>
       </c>
-      <c r="D47" s="76"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="77"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="74"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="74">
+      <c r="A48" s="71">
         <v>21</v>
       </c>
-      <c r="B48" s="76">
+      <c r="B48" s="73">
         <f t="shared" si="0"/>
         <v>6.4008000000000003</v>
       </c>
-      <c r="C48" s="76">
+      <c r="C48" s="73">
         <f t="shared" si="2"/>
         <v>6.2609271627769436</v>
       </c>
-      <c r="D48" s="76"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="77"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="74"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="74">
+      <c r="A49" s="71">
         <v>20</v>
       </c>
-      <c r="B49" s="76">
+      <c r="B49" s="73">
         <f t="shared" si="0"/>
         <v>6.0960000000000001</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="73">
         <f t="shared" si="2"/>
         <v>5.9627877740732798</v>
       </c>
-      <c r="D49" s="76"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="77"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="74"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="74">
+      <c r="A50" s="71">
         <v>19</v>
       </c>
-      <c r="B50" s="76">
+      <c r="B50" s="73">
         <f t="shared" si="0"/>
         <v>5.7911999999999999</v>
       </c>
-      <c r="C50" s="76">
+      <c r="C50" s="73">
         <f t="shared" si="2"/>
         <v>5.664648385369615</v>
       </c>
-      <c r="D50" s="76"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="77"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="74"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="74">
+      <c r="A51" s="71">
         <v>18</v>
       </c>
-      <c r="B51" s="76">
+      <c r="B51" s="73">
         <f t="shared" si="0"/>
         <v>5.4864000000000006</v>
       </c>
-      <c r="C51" s="76">
+      <c r="C51" s="73">
         <f t="shared" si="2"/>
         <v>5.366508996665952</v>
       </c>
-      <c r="D51" s="76"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="77"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="74"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="74">
+      <c r="A52" s="71">
         <v>17</v>
       </c>
-      <c r="B52" s="76">
+      <c r="B52" s="73">
         <f t="shared" si="0"/>
         <v>5.1816000000000004</v>
       </c>
-      <c r="C52" s="76">
+      <c r="C52" s="73">
         <f t="shared" si="2"/>
         <v>5.0683696079622882</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="77"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="74"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="74">
+      <c r="A53" s="71">
         <v>16</v>
       </c>
-      <c r="B53" s="76">
+      <c r="B53" s="73">
         <f t="shared" si="0"/>
         <v>4.8768000000000002</v>
       </c>
-      <c r="C53" s="76">
+      <c r="C53" s="73">
         <f t="shared" si="2"/>
         <v>4.7702302192586234</v>
       </c>
-      <c r="D53" s="76"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="77"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="74"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="74">
+      <c r="A54" s="71">
         <v>15</v>
       </c>
-      <c r="B54" s="76">
+      <c r="B54" s="73">
         <f t="shared" si="0"/>
         <v>4.5720000000000001</v>
       </c>
-      <c r="C54" s="76">
+      <c r="C54" s="73">
         <f t="shared" si="2"/>
         <v>4.4720908305549596</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="75" t="s">
+      <c r="D54" s="73"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="72" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="74">
+      <c r="A55" s="71">
         <v>14</v>
       </c>
-      <c r="B55" s="76">
+      <c r="B55" s="73">
         <f t="shared" si="0"/>
         <v>4.2671999999999999</v>
       </c>
-      <c r="C55" s="76">
+      <c r="C55" s="73">
         <f t="shared" si="2"/>
         <v>4.1739514418512957</v>
       </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="77"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="74"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="74">
+      <c r="A56" s="71">
         <v>13</v>
       </c>
-      <c r="B56" s="76">
+      <c r="B56" s="73">
         <f t="shared" si="0"/>
         <v>3.9624000000000001</v>
       </c>
-      <c r="C56" s="76">
+      <c r="C56" s="73">
         <f t="shared" si="2"/>
         <v>3.8758120531476319</v>
       </c>
-      <c r="D56" s="76"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="77"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="74"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" s="74">
+      <c r="A57" s="71">
         <v>12</v>
       </c>
-      <c r="B57" s="76">
+      <c r="B57" s="73">
         <f t="shared" si="0"/>
         <v>3.6576000000000004</v>
       </c>
-      <c r="C57" s="76">
+      <c r="C57" s="73">
         <f t="shared" si="2"/>
         <v>3.577672664443968</v>
       </c>
-      <c r="D57" s="76"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="77"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="74"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" s="74">
+      <c r="A58" s="71">
         <v>11</v>
       </c>
-      <c r="B58" s="76">
+      <c r="B58" s="73">
         <f t="shared" si="0"/>
         <v>3.3528000000000002</v>
       </c>
-      <c r="C58" s="76">
+      <c r="C58" s="73">
         <f t="shared" si="2"/>
         <v>3.2795332757403037</v>
       </c>
-      <c r="D58" s="76"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="77"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="74"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" s="74">
+      <c r="A59" s="71">
         <v>10</v>
       </c>
-      <c r="B59" s="76">
+      <c r="B59" s="73">
         <f t="shared" si="0"/>
         <v>3.048</v>
       </c>
-      <c r="C59" s="76">
+      <c r="C59" s="73">
         <f t="shared" si="2"/>
         <v>2.9813938870366399</v>
       </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="77"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="74"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" s="74">
+      <c r="A60" s="71">
         <v>9</v>
       </c>
-      <c r="B60" s="76">
+      <c r="B60" s="73">
         <f t="shared" si="0"/>
         <v>2.7432000000000003</v>
       </c>
-      <c r="C60" s="76">
+      <c r="C60" s="73">
         <f t="shared" si="2"/>
         <v>2.683254498332976</v>
       </c>
-      <c r="D60" s="76"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="77"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="74"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" s="74">
+      <c r="A61" s="71">
         <v>8</v>
       </c>
-      <c r="B61" s="76">
+      <c r="B61" s="73">
         <f t="shared" si="0"/>
         <v>2.4384000000000001</v>
       </c>
-      <c r="C61" s="76">
+      <c r="C61" s="73">
         <f t="shared" si="2"/>
         <v>2.3851151096293117</v>
       </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="77"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="74"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" s="74">
+      <c r="A62" s="71">
         <v>7</v>
       </c>
-      <c r="B62" s="76">
+      <c r="B62" s="73">
         <f t="shared" si="0"/>
         <v>2.1335999999999999</v>
       </c>
-      <c r="C62" s="76">
+      <c r="C62" s="73">
         <f t="shared" si="2"/>
         <v>2.0869757209256479</v>
       </c>
-      <c r="D62" s="76"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="77"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="84"/>
+      <c r="H62" s="82"/>
+      <c r="I62" s="83"/>
+      <c r="J62" s="74"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" s="74">
+      <c r="A63" s="71">
         <v>6</v>
       </c>
-      <c r="B63" s="76">
+      <c r="B63" s="73">
         <f t="shared" si="0"/>
         <v>1.8288000000000002</v>
       </c>
-      <c r="C63" s="76">
+      <c r="C63" s="73">
         <f t="shared" si="2"/>
         <v>1.788836332221984</v>
       </c>
-      <c r="D63" s="76"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="88"/>
-      <c r="J63" s="77"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="74"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="74">
+      <c r="A64" s="71">
         <v>5</v>
       </c>
-      <c r="B64" s="76">
+      <c r="B64" s="73">
         <f t="shared" si="0"/>
         <v>1.524</v>
       </c>
-      <c r="C64" s="76">
+      <c r="C64" s="73">
         <f t="shared" si="2"/>
         <v>1.4906969435183199</v>
       </c>
-      <c r="D64" s="76"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="87"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="77"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="74"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="74">
+      <c r="A65" s="71">
         <v>4</v>
       </c>
-      <c r="B65" s="76">
+      <c r="B65" s="73">
         <f t="shared" si="0"/>
         <v>1.2192000000000001</v>
       </c>
-      <c r="C65" s="76">
+      <c r="C65" s="73">
         <f t="shared" si="2"/>
         <v>1.1925575548146559</v>
       </c>
-      <c r="D65" s="76"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="87"/>
-      <c r="I65" s="88"/>
-      <c r="J65" s="77"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="80"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="85"/>
+      <c r="J65" s="74"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" s="74">
+      <c r="A66" s="71">
         <v>3</v>
       </c>
-      <c r="B66" s="76">
+      <c r="B66" s="73">
         <f t="shared" si="0"/>
         <v>0.9144000000000001</v>
       </c>
-      <c r="C66" s="76">
+      <c r="C66" s="73">
         <f t="shared" si="2"/>
         <v>0.89441816611099201</v>
       </c>
-      <c r="D66" s="76"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="77"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="74"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="74">
+      <c r="A67" s="71">
         <v>2</v>
       </c>
-      <c r="B67" s="76">
+      <c r="B67" s="73">
         <f t="shared" si="0"/>
         <v>0.60960000000000003</v>
       </c>
-      <c r="C67" s="76">
+      <c r="C67" s="73">
         <f t="shared" si="2"/>
         <v>0.59627877740732793</v>
       </c>
-      <c r="D67" s="76"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="77"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="85"/>
+      <c r="J67" s="74"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="74">
+      <c r="A68" s="71">
         <v>1</v>
       </c>
-      <c r="B68" s="76">
+      <c r="B68" s="73">
         <f t="shared" ref="B68:B69" si="3">0.3048*A68</f>
         <v>0.30480000000000002</v>
       </c>
-      <c r="C68" s="76">
+      <c r="C68" s="73">
         <f t="shared" si="2"/>
         <v>0.29813938870366397</v>
       </c>
-      <c r="D68" s="76"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="87"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="77"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="80"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="85"/>
+      <c r="J68" s="74"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="74">
+      <c r="A69" s="71">
         <v>0</v>
       </c>
-      <c r="B69" s="76">
+      <c r="B69" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C69" s="76">
+      <c r="C69" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D69" s="76"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="87"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="77"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="85"/>
+      <c r="J69" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6496,380 +6528,380 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="11" style="74"/>
-    <col min="3" max="3" width="2.83203125" style="74" customWidth="1"/>
-    <col min="4" max="5" width="11" style="75"/>
-    <col min="6" max="6" width="3.58203125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="8.58203125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="11" style="75"/>
-    <col min="9" max="9" width="9.25" style="75" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="75" customWidth="1"/>
-    <col min="11" max="16384" width="11" style="75"/>
+    <col min="1" max="1" width="11.58203125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="11" style="71"/>
+    <col min="3" max="3" width="2.83203125" style="71" customWidth="1"/>
+    <col min="4" max="5" width="11" style="72"/>
+    <col min="6" max="6" width="3.58203125" style="72" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" style="72" customWidth="1"/>
+    <col min="8" max="8" width="11" style="72"/>
+    <col min="9" max="9" width="9.25" style="72" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="72" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="149" t="s">
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="75" t="s">
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="72" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="74">
+      <c r="A4" s="71">
         <v>30</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="73">
         <f t="shared" ref="B4:B34" si="0">0.3048*A4</f>
         <v>9.1440000000000001</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="73"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="74">
+      <c r="A5" s="71">
         <v>29</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="73">
         <f t="shared" si="0"/>
         <v>8.8391999999999999</v>
       </c>
-      <c r="C5" s="76"/>
+      <c r="C5" s="73"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="74">
+      <c r="A6" s="71">
         <v>28</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="73">
         <f t="shared" si="0"/>
         <v>8.5343999999999998</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="J6" s="75" t="s">
+      <c r="C6" s="73"/>
+      <c r="J6" s="72" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="74">
+      <c r="A7" s="71">
         <v>27</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="73">
         <f t="shared" si="0"/>
         <v>8.2295999999999996</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="73"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="74">
+      <c r="A8" s="71">
         <v>26</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="73">
         <f t="shared" si="0"/>
         <v>7.9248000000000003</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="73"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="74">
+      <c r="A9" s="71">
         <v>25</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="73">
         <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="I9" s="75" t="s">
+      <c r="C9" s="73"/>
+      <c r="I9" s="72" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="74">
+      <c r="A10" s="71">
         <v>24</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="73">
         <f t="shared" si="0"/>
         <v>7.3152000000000008</v>
       </c>
-      <c r="C10" s="76"/>
+      <c r="C10" s="73"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="74">
+      <c r="A11" s="71">
         <v>23</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="73">
         <f t="shared" si="0"/>
         <v>7.0104000000000006</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="73"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="74">
+      <c r="A12" s="71">
         <v>22</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="73">
         <f t="shared" si="0"/>
         <v>6.7056000000000004</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="73"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="74">
+      <c r="A13" s="71">
         <v>21</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="73">
         <f t="shared" si="0"/>
         <v>6.4008000000000003</v>
       </c>
-      <c r="C13" s="76"/>
+      <c r="C13" s="73"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="74">
+      <c r="A14" s="71">
         <v>20</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="73">
         <f t="shared" si="0"/>
         <v>6.0960000000000001</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="73"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="74">
+      <c r="A15" s="71">
         <v>19</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="73">
         <f t="shared" si="0"/>
         <v>5.7911999999999999</v>
       </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="73"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="74">
+      <c r="A16" s="71">
         <v>18</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="73">
         <f t="shared" si="0"/>
         <v>5.4864000000000006</v>
       </c>
-      <c r="C16" s="76"/>
+      <c r="C16" s="73"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="74">
+      <c r="A17" s="71">
         <v>17</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="73">
         <f t="shared" si="0"/>
         <v>5.1816000000000004</v>
       </c>
-      <c r="C17" s="76"/>
+      <c r="C17" s="73"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="74">
+      <c r="A18" s="71">
         <v>16</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="73">
         <f t="shared" si="0"/>
         <v>4.8768000000000002</v>
       </c>
-      <c r="C18" s="76"/>
+      <c r="C18" s="73"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="74">
+      <c r="A19" s="71">
         <v>15</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="73">
         <f t="shared" si="0"/>
         <v>4.5720000000000001</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="73"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="74">
+      <c r="A20" s="71">
         <v>14</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="73">
         <f t="shared" si="0"/>
         <v>4.2671999999999999</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="73"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="74">
+      <c r="A21" s="71">
         <v>13</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="73">
         <f t="shared" si="0"/>
         <v>3.9624000000000001</v>
       </c>
-      <c r="C21" s="76"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="74">
+      <c r="A22" s="71">
         <v>12</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="73">
         <f t="shared" si="0"/>
         <v>3.6576000000000004</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="73"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="74">
+      <c r="A23" s="71">
         <v>11</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="73">
         <f t="shared" si="0"/>
         <v>3.3528000000000002</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="73"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="74">
+      <c r="A24" s="71">
         <v>10</v>
       </c>
-      <c r="B24" s="76">
+      <c r="B24" s="73">
         <f t="shared" si="0"/>
         <v>3.048</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="H24" s="75" t="s">
+      <c r="C24" s="73"/>
+      <c r="H24" s="72" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="74">
+      <c r="A25" s="71">
         <v>9</v>
       </c>
-      <c r="B25" s="76">
+      <c r="B25" s="73">
         <f t="shared" si="0"/>
         <v>2.7432000000000003</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="73"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="74">
+      <c r="A26" s="71">
         <v>8</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B26" s="73">
         <f t="shared" si="0"/>
         <v>2.4384000000000001</v>
       </c>
-      <c r="C26" s="76"/>
+      <c r="C26" s="73"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="74">
+      <c r="A27" s="71">
         <v>7</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B27" s="73">
         <f t="shared" si="0"/>
         <v>2.1335999999999999</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="G27" s="75" t="s">
+      <c r="C27" s="73"/>
+      <c r="G27" s="72" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="74">
+      <c r="A28" s="71">
         <v>6</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="73">
         <f t="shared" si="0"/>
         <v>1.8288000000000002</v>
       </c>
-      <c r="C28" s="76"/>
+      <c r="C28" s="73"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="74">
+      <c r="A29" s="71">
         <v>5</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B29" s="73">
         <f t="shared" si="0"/>
         <v>1.524</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="73"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="74">
+      <c r="A30" s="71">
         <v>4</v>
       </c>
-      <c r="B30" s="76">
+      <c r="B30" s="73">
         <f t="shared" si="0"/>
         <v>1.2192000000000001</v>
       </c>
-      <c r="C30" s="76"/>
+      <c r="C30" s="73"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="74">
+      <c r="A31" s="71">
         <v>3</v>
       </c>
-      <c r="B31" s="76">
+      <c r="B31" s="73">
         <f t="shared" si="0"/>
         <v>0.9144000000000001</v>
       </c>
-      <c r="C31" s="76"/>
+      <c r="C31" s="73"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="74">
+      <c r="A32" s="71">
         <v>2</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="73">
         <f t="shared" si="0"/>
         <v>0.60960000000000003</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="73"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="74">
+      <c r="A33" s="71">
         <v>1</v>
       </c>
-      <c r="B33" s="76">
+      <c r="B33" s="73">
         <f t="shared" si="0"/>
         <v>0.30480000000000002</v>
       </c>
-      <c r="C33" s="76"/>
+      <c r="C33" s="73"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="74">
+      <c r="A34" s="71">
         <v>0</v>
       </c>
-      <c r="B34" s="76">
+      <c r="B34" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6890,831 +6922,831 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="11" style="74"/>
-    <col min="3" max="3" width="2.83203125" style="74" customWidth="1"/>
-    <col min="4" max="8" width="11" style="75"/>
-    <col min="9" max="9" width="3.58203125" style="75" customWidth="1"/>
-    <col min="10" max="10" width="8.58203125" style="75" customWidth="1"/>
-    <col min="11" max="11" width="11" style="75"/>
-    <col min="12" max="12" width="9.25" style="75" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="75" customWidth="1"/>
-    <col min="14" max="16384" width="11" style="75"/>
+    <col min="1" max="1" width="11.58203125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="11" style="71"/>
+    <col min="3" max="3" width="2.83203125" style="71" customWidth="1"/>
+    <col min="4" max="8" width="11" style="72"/>
+    <col min="9" max="9" width="3.58203125" style="72" customWidth="1"/>
+    <col min="10" max="10" width="8.58203125" style="72" customWidth="1"/>
+    <col min="11" max="11" width="11" style="72"/>
+    <col min="12" max="12" width="9.25" style="72" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="72" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="70" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="149" t="s">
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="75" t="s">
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="N3" s="102"/>
+      <c r="N3" s="99"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="74">
+      <c r="A4" s="71">
         <v>52</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="73">
         <f t="shared" ref="B4:B56" si="0">0.3048*A4</f>
         <v>15.849600000000001</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="103"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="74">
+      <c r="A5" s="71">
         <v>51</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="73">
         <f t="shared" si="0"/>
         <v>15.5448</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="103"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="74">
+      <c r="A6" s="71">
         <v>50</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="73">
         <f t="shared" si="0"/>
         <v>15.24</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="95"/>
-      <c r="L6" s="75" t="s">
+      <c r="C6" s="73"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="92"/>
+      <c r="L6" s="72" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="74">
+      <c r="A7" s="71">
         <v>49</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="73">
         <f t="shared" si="0"/>
         <v>14.9352</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="96"/>
-      <c r="K7" s="75" t="s">
+      <c r="C7" s="73"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="93"/>
+      <c r="K7" s="72" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="74">
+      <c r="A8" s="71">
         <v>48</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="73">
         <f t="shared" si="0"/>
         <v>14.630400000000002</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="95"/>
+      <c r="C8" s="73"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="92"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="74">
+      <c r="A9" s="71">
         <v>47</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="73">
         <f t="shared" si="0"/>
         <v>14.325600000000001</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="98"/>
+      <c r="C9" s="73"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="74">
+      <c r="A10" s="71">
         <v>46</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="73">
         <f t="shared" si="0"/>
         <v>14.020800000000001</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="95"/>
+      <c r="C10" s="73"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="92"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="74">
+      <c r="A11" s="71">
         <v>45</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="73">
         <f t="shared" si="0"/>
         <v>13.716000000000001</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
+      <c r="C11" s="73"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="74">
+      <c r="A12" s="71">
         <v>44</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="73">
         <f t="shared" si="0"/>
         <v>13.411200000000001</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="96"/>
+      <c r="C12" s="73"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="93"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="74">
+      <c r="A13" s="71">
         <v>43</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="73">
         <f t="shared" si="0"/>
         <v>13.106400000000001</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="95"/>
-      <c r="J13" s="75" t="s">
+      <c r="C13" s="73"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="92"/>
+      <c r="J13" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="M13" s="75" t="s">
+      <c r="M13" s="72" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="74">
+      <c r="A14" s="71">
         <v>42</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="73">
         <f t="shared" si="0"/>
         <v>12.801600000000001</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
+      <c r="C14" s="73"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="95"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="74">
+      <c r="A15" s="71">
         <v>41</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="73">
         <f t="shared" si="0"/>
         <v>12.4968</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="95"/>
+      <c r="C15" s="73"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="74">
+      <c r="A16" s="71">
         <v>40</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="73">
         <f t="shared" si="0"/>
         <v>12.192</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="95"/>
+      <c r="C16" s="73"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="74">
+      <c r="A17" s="71">
         <v>39</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="73">
         <f t="shared" si="0"/>
         <v>11.8872</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="96"/>
+      <c r="C17" s="73"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="93"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="74">
+      <c r="A18" s="71">
         <v>38</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="73">
         <f t="shared" si="0"/>
         <v>11.5824</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="95"/>
+      <c r="C18" s="73"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="92"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="74">
+      <c r="A19" s="71">
         <v>37</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="73">
         <f t="shared" si="0"/>
         <v>11.277600000000001</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
+      <c r="C19" s="73"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="95"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="74">
+      <c r="A20" s="71">
         <v>36</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="73">
         <f t="shared" si="0"/>
         <v>10.972800000000001</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="95"/>
+      <c r="C20" s="73"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="92"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="74">
+      <c r="A21" s="71">
         <v>35</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="73">
         <f t="shared" si="0"/>
         <v>10.668000000000001</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="95"/>
+      <c r="C21" s="73"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="74">
+      <c r="A22" s="71">
         <v>34</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="73">
         <f t="shared" si="0"/>
         <v>10.363200000000001</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="96"/>
+      <c r="C22" s="73"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="93"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="74">
+      <c r="A23" s="71">
         <v>33</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="73">
         <f t="shared" si="0"/>
         <v>10.058400000000001</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="95"/>
+      <c r="C23" s="73"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="92"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="74">
+      <c r="A24" s="71">
         <v>32</v>
       </c>
-      <c r="B24" s="76">
+      <c r="B24" s="73">
         <f t="shared" si="0"/>
         <v>9.7536000000000005</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="98"/>
+      <c r="C24" s="73"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="95"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="74">
+      <c r="A25" s="71">
         <v>31</v>
       </c>
-      <c r="B25" s="76">
+      <c r="B25" s="73">
         <f t="shared" si="0"/>
         <v>9.4488000000000003</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="95"/>
+      <c r="C25" s="73"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="92"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="74">
+      <c r="A26" s="71">
         <v>30</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B26" s="73">
         <f t="shared" si="0"/>
         <v>9.1440000000000001</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="95"/>
-      <c r="J26" s="75" t="s">
+      <c r="C26" s="73"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="J26" s="72" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="74">
+      <c r="A27" s="71">
         <v>29</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B27" s="73">
         <f t="shared" si="0"/>
         <v>8.8391999999999999</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="96"/>
+      <c r="C27" s="73"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="93"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="74">
+      <c r="A28" s="71">
         <v>28</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="73">
         <f t="shared" si="0"/>
         <v>8.5343999999999998</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="95"/>
+      <c r="C28" s="73"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="92"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="74">
+      <c r="A29" s="71">
         <v>27</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B29" s="73">
         <f t="shared" si="0"/>
         <v>8.2295999999999996</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="98"/>
+      <c r="C29" s="73"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="95"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="74">
+      <c r="A30" s="71">
         <v>26</v>
       </c>
-      <c r="B30" s="76">
+      <c r="B30" s="73">
         <f t="shared" si="0"/>
         <v>7.9248000000000003</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="95"/>
+      <c r="C30" s="73"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="92"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="74">
+      <c r="A31" s="71">
         <v>25</v>
       </c>
-      <c r="B31" s="76">
+      <c r="B31" s="73">
         <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="95"/>
+      <c r="C31" s="73"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="74">
+      <c r="A32" s="71">
         <v>24</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="73">
         <f t="shared" si="0"/>
         <v>7.3152000000000008</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="96"/>
+      <c r="C32" s="73"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="93"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="74">
+      <c r="A33" s="71">
         <v>23</v>
       </c>
-      <c r="B33" s="76">
+      <c r="B33" s="73">
         <f t="shared" si="0"/>
         <v>7.0104000000000006</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="95"/>
+      <c r="C33" s="73"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="92"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="74">
+      <c r="A34" s="71">
         <v>22</v>
       </c>
-      <c r="B34" s="76">
+      <c r="B34" s="73">
         <f t="shared" si="0"/>
         <v>6.7056000000000004</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="98"/>
+      <c r="C34" s="73"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="95"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="74">
+      <c r="A35" s="71">
         <v>21</v>
       </c>
-      <c r="B35" s="76">
+      <c r="B35" s="73">
         <f t="shared" si="0"/>
         <v>6.4008000000000003</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="95"/>
-      <c r="K35" s="75" t="s">
+      <c r="C35" s="73"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="92"/>
+      <c r="K35" s="72" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="74">
+      <c r="A36" s="71">
         <v>20</v>
       </c>
-      <c r="B36" s="76">
+      <c r="B36" s="73">
         <f t="shared" si="0"/>
         <v>6.0960000000000001</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="95"/>
+      <c r="C36" s="73"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="92"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="74">
+      <c r="A37" s="71">
         <v>19</v>
       </c>
-      <c r="B37" s="76">
+      <c r="B37" s="73">
         <f t="shared" si="0"/>
         <v>5.7911999999999999</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="96"/>
+      <c r="C37" s="73"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="93"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="74">
+      <c r="A38" s="71">
         <v>18</v>
       </c>
-      <c r="B38" s="76">
+      <c r="B38" s="73">
         <f t="shared" si="0"/>
         <v>5.4864000000000006</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="95"/>
-      <c r="J38" s="75" t="s">
+      <c r="C38" s="73"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="92"/>
+      <c r="J38" s="72" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="74">
+      <c r="A39" s="71">
         <v>17</v>
       </c>
-      <c r="B39" s="76">
+      <c r="B39" s="73">
         <f t="shared" si="0"/>
         <v>5.1816000000000004</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="98"/>
+      <c r="C39" s="73"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="95"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="74">
+      <c r="A40" s="71">
         <v>16</v>
       </c>
-      <c r="B40" s="76">
+      <c r="B40" s="73">
         <f t="shared" si="0"/>
         <v>4.8768000000000002</v>
       </c>
-      <c r="C40" s="76"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="95"/>
+      <c r="C40" s="73"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="92"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="74">
+      <c r="A41" s="71">
         <v>15</v>
       </c>
-      <c r="B41" s="76">
+      <c r="B41" s="73">
         <f t="shared" si="0"/>
         <v>4.5720000000000001</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="95"/>
+      <c r="C41" s="73"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="92"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="74">
+      <c r="A42" s="71">
         <v>14</v>
       </c>
-      <c r="B42" s="76">
+      <c r="B42" s="73">
         <f t="shared" si="0"/>
         <v>4.2671999999999999</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="96"/>
+      <c r="C42" s="73"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="93"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="74">
+      <c r="A43" s="71">
         <v>13</v>
       </c>
-      <c r="B43" s="76">
+      <c r="B43" s="73">
         <f t="shared" si="0"/>
         <v>3.9624000000000001</v>
       </c>
-      <c r="C43" s="76"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="95"/>
+      <c r="C43" s="73"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="92"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="74">
+      <c r="A44" s="71">
         <v>12</v>
       </c>
-      <c r="B44" s="76">
+      <c r="B44" s="73">
         <f t="shared" si="0"/>
         <v>3.6576000000000004</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="98"/>
+      <c r="C44" s="73"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="95"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="74">
+      <c r="A45" s="71">
         <v>11</v>
       </c>
-      <c r="B45" s="76">
+      <c r="B45" s="73">
         <f t="shared" si="0"/>
         <v>3.3528000000000002</v>
       </c>
-      <c r="C45" s="76"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="95"/>
+      <c r="C45" s="73"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="92"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="74">
+      <c r="A46" s="71">
         <v>10</v>
       </c>
-      <c r="B46" s="76">
+      <c r="B46" s="73">
         <f t="shared" si="0"/>
         <v>3.048</v>
       </c>
-      <c r="C46" s="76"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="96"/>
+      <c r="C46" s="73"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="93"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="74">
+      <c r="A47" s="71">
         <v>9</v>
       </c>
-      <c r="B47" s="76">
+      <c r="B47" s="73">
         <f t="shared" si="0"/>
         <v>2.7432000000000003</v>
       </c>
-      <c r="C47" s="76"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="98"/>
+      <c r="C47" s="73"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="95"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="74">
+      <c r="A48" s="71">
         <v>8</v>
       </c>
-      <c r="B48" s="76">
+      <c r="B48" s="73">
         <f t="shared" si="0"/>
         <v>2.4384000000000001</v>
       </c>
-      <c r="C48" s="76"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="100"/>
+      <c r="C48" s="73"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="97"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="74">
+      <c r="A49" s="71">
         <v>7</v>
       </c>
-      <c r="B49" s="76">
+      <c r="B49" s="73">
         <f t="shared" si="0"/>
         <v>2.1335999999999999</v>
       </c>
-      <c r="C49" s="76"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="100"/>
-      <c r="J49" s="75" t="s">
+      <c r="C49" s="73"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="97"/>
+      <c r="J49" s="72" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="74">
+      <c r="A50" s="71">
         <v>6</v>
       </c>
-      <c r="B50" s="76">
+      <c r="B50" s="73">
         <f t="shared" si="0"/>
         <v>1.8288000000000002</v>
       </c>
-      <c r="C50" s="76"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="100"/>
+      <c r="C50" s="73"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="97"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="74">
+      <c r="A51" s="71">
         <v>5</v>
       </c>
-      <c r="B51" s="76">
+      <c r="B51" s="73">
         <f t="shared" si="0"/>
         <v>1.524</v>
       </c>
-      <c r="C51" s="76"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="100"/>
+      <c r="C51" s="73"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="97"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="74">
+      <c r="A52" s="71">
         <v>4</v>
       </c>
-      <c r="B52" s="76">
+      <c r="B52" s="73">
         <f t="shared" si="0"/>
         <v>1.2192000000000001</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="100"/>
+      <c r="C52" s="73"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="97"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="74">
+      <c r="A53" s="71">
         <v>3</v>
       </c>
-      <c r="B53" s="76">
+      <c r="B53" s="73">
         <f t="shared" si="0"/>
         <v>0.9144000000000001</v>
       </c>
-      <c r="C53" s="76"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="100"/>
+      <c r="C53" s="73"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="97"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="74">
+      <c r="A54" s="71">
         <v>2</v>
       </c>
-      <c r="B54" s="76">
+      <c r="B54" s="73">
         <f t="shared" si="0"/>
         <v>0.60960000000000003</v>
       </c>
-      <c r="C54" s="76"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="100"/>
+      <c r="C54" s="73"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="97"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="74">
+      <c r="A55" s="71">
         <v>1</v>
       </c>
-      <c r="B55" s="76">
+      <c r="B55" s="73">
         <f t="shared" si="0"/>
         <v>0.30480000000000002</v>
       </c>
-      <c r="C55" s="76"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="100"/>
-      <c r="H55" s="100"/>
+      <c r="C55" s="73"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="97"/>
+      <c r="H55" s="97"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="74">
+      <c r="A56" s="71">
         <v>0</v>
       </c>
-      <c r="B56" s="76">
+      <c r="B56" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C56" s="76"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="100"/>
-      <c r="H56" s="100"/>
+      <c r="C56" s="73"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="97"/>
+      <c r="H56" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7735,386 +7767,386 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="11" style="74"/>
-    <col min="3" max="3" width="2.83203125" style="74" customWidth="1"/>
-    <col min="4" max="5" width="11" style="75"/>
-    <col min="6" max="6" width="3.58203125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="8.58203125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="11" style="75"/>
-    <col min="9" max="9" width="9.25" style="75" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="75" customWidth="1"/>
-    <col min="11" max="16384" width="11" style="75"/>
+    <col min="1" max="1" width="11.58203125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="11" style="71"/>
+    <col min="3" max="3" width="2.83203125" style="71" customWidth="1"/>
+    <col min="4" max="5" width="11" style="72"/>
+    <col min="6" max="6" width="3.58203125" style="72" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" style="72" customWidth="1"/>
+    <col min="8" max="8" width="11" style="72"/>
+    <col min="9" max="9" width="9.25" style="72" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="72" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="70" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="149" t="s">
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="75" t="s">
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="72" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="74">
+      <c r="A4" s="71">
         <v>30</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="73">
         <f t="shared" ref="B4:B34" si="0">0.3048*A4</f>
         <v>9.1440000000000001</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="73"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="74">
+      <c r="A5" s="71">
         <v>29</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="73">
         <f t="shared" si="0"/>
         <v>8.8391999999999999</v>
       </c>
-      <c r="C5" s="76"/>
+      <c r="C5" s="73"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="74">
+      <c r="A6" s="71">
         <v>28</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="73">
         <f t="shared" si="0"/>
         <v>8.5343999999999998</v>
       </c>
-      <c r="C6" s="76"/>
+      <c r="C6" s="73"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="74">
+      <c r="A7" s="71">
         <v>27</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="73">
         <f t="shared" si="0"/>
         <v>8.2295999999999996</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="73"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="74">
+      <c r="A8" s="71">
         <v>26</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="73">
         <f t="shared" si="0"/>
         <v>7.9248000000000003</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="73"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="74">
+      <c r="A9" s="71">
         <v>25</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="73">
         <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="73"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="74">
+      <c r="A10" s="71">
         <v>24</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="73">
         <f t="shared" si="0"/>
         <v>7.3152000000000008</v>
       </c>
-      <c r="C10" s="76"/>
+      <c r="C10" s="73"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="74">
+      <c r="A11" s="71">
         <v>23</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="73">
         <f t="shared" si="0"/>
         <v>7.0104000000000006</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="73"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="74">
+      <c r="A12" s="71">
         <v>22</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="73">
         <f t="shared" si="0"/>
         <v>6.7056000000000004</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="73"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="74">
+      <c r="A13" s="71">
         <v>21</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="73">
         <f t="shared" si="0"/>
         <v>6.4008000000000003</v>
       </c>
-      <c r="C13" s="76"/>
+      <c r="C13" s="73"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="74">
+      <c r="A14" s="71">
         <v>20</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="73">
         <f t="shared" si="0"/>
         <v>6.0960000000000001</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="73"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="74">
+      <c r="A15" s="71">
         <v>19</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="73">
         <f t="shared" si="0"/>
         <v>5.7911999999999999</v>
       </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="73"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="74">
+      <c r="A16" s="71">
         <v>18</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="73">
         <f t="shared" si="0"/>
         <v>5.4864000000000006</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="H16" s="75" t="s">
+      <c r="C16" s="73"/>
+      <c r="H16" s="72" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="74">
+      <c r="A17" s="71">
         <v>17</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="73">
         <f t="shared" si="0"/>
         <v>5.1816000000000004</v>
       </c>
-      <c r="C17" s="76"/>
+      <c r="C17" s="73"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="74">
+      <c r="A18" s="71">
         <v>16</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="73">
         <f t="shared" si="0"/>
         <v>4.8768000000000002</v>
       </c>
-      <c r="C18" s="76"/>
+      <c r="C18" s="73"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="74">
+      <c r="A19" s="71">
         <v>15</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="73">
         <f t="shared" si="0"/>
         <v>4.5720000000000001</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="73"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="74">
+      <c r="A20" s="71">
         <v>14</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="73">
         <f t="shared" si="0"/>
         <v>4.2671999999999999</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="73"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="74">
+      <c r="A21" s="71">
         <v>13</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="73">
         <f t="shared" si="0"/>
         <v>3.9624000000000001</v>
       </c>
-      <c r="C21" s="76"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="74">
+      <c r="A22" s="71">
         <v>12</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="73">
         <f t="shared" si="0"/>
         <v>3.6576000000000004</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="J22" s="75" t="s">
+      <c r="C22" s="73"/>
+      <c r="J22" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K22" s="75" t="s">
+      <c r="K22" s="72" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="74">
+      <c r="A23" s="71">
         <v>11</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="73">
         <f t="shared" si="0"/>
         <v>3.3528000000000002</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="73"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="74">
+      <c r="A24" s="71">
         <v>10</v>
       </c>
-      <c r="B24" s="76">
+      <c r="B24" s="73">
         <f t="shared" si="0"/>
         <v>3.048</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="73"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="74">
+      <c r="A25" s="71">
         <v>9</v>
       </c>
-      <c r="B25" s="76">
+      <c r="B25" s="73">
         <f t="shared" si="0"/>
         <v>2.7432000000000003</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="73"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="74">
+      <c r="A26" s="71">
         <v>8</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B26" s="73">
         <f t="shared" si="0"/>
         <v>2.4384000000000001</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="G26" s="75" t="s">
+      <c r="C26" s="73"/>
+      <c r="G26" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="I26" s="75" t="s">
+      <c r="I26" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="75" t="s">
+      <c r="K26" s="72" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="74">
+      <c r="A27" s="71">
         <v>7</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B27" s="73">
         <f t="shared" si="0"/>
         <v>2.1335999999999999</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="73"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="74">
+      <c r="A28" s="71">
         <v>6</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="73">
         <f t="shared" si="0"/>
         <v>1.8288000000000002</v>
       </c>
-      <c r="C28" s="76"/>
+      <c r="C28" s="73"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="74">
+      <c r="A29" s="71">
         <v>5</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B29" s="73">
         <f t="shared" si="0"/>
         <v>1.524</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="73"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="74">
+      <c r="A30" s="71">
         <v>4</v>
       </c>
-      <c r="B30" s="76">
+      <c r="B30" s="73">
         <f t="shared" si="0"/>
         <v>1.2192000000000001</v>
       </c>
-      <c r="C30" s="76"/>
+      <c r="C30" s="73"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="74">
+      <c r="A31" s="71">
         <v>3</v>
       </c>
-      <c r="B31" s="76">
+      <c r="B31" s="73">
         <f t="shared" si="0"/>
         <v>0.9144000000000001</v>
       </c>
-      <c r="C31" s="76"/>
+      <c r="C31" s="73"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="74">
+      <c r="A32" s="71">
         <v>2</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="73">
         <f t="shared" si="0"/>
         <v>0.60960000000000003</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="73"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="74">
+      <c r="A33" s="71">
         <v>1</v>
       </c>
-      <c r="B33" s="76">
+      <c r="B33" s="73">
         <f t="shared" si="0"/>
         <v>0.30480000000000002</v>
       </c>
-      <c r="C33" s="76"/>
+      <c r="C33" s="73"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="74">
+      <c r="A34" s="71">
         <v>0</v>
       </c>
-      <c r="B34" s="76">
+      <c r="B34" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8147,12 +8179,12 @@
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
@@ -8164,7 +8196,7 @@
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="65"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
@@ -8182,7 +8214,7 @@
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="63" t="s">
         <v>108</v>
       </c>
       <c r="D4" s="19">
@@ -8196,7 +8228,7 @@
       <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="66" t="s">
         <v>109</v>
       </c>
       <c r="D5" s="20">
@@ -8208,7 +8240,7 @@
       <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="26">
         <v>2</v>
       </c>
@@ -8216,12 +8248,12 @@
     </row>
     <row r="7" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="21"/>
@@ -8279,11 +8311,11 @@
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="130"/>
       <c r="F2" s="7" t="s">
         <v>22</v>
       </c>
@@ -8530,11 +8562,11 @@
     </row>
     <row r="24" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="D25" s="133"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="130"/>
       <c r="F25" s="39" t="s">
         <v>22</v>
       </c>
@@ -8911,9 +8943,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1D1867-B0BA-4CF9-B964-CDDBB5D9DD8C}">
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8926,12 +8960,12 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
       <c r="G2" s="29" t="s">
         <v>22</v>
       </c>
@@ -8975,7 +9009,7 @@
       <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="64" t="s">
         <v>109</v>
       </c>
       <c r="D5" s="20">
@@ -9069,59 +9103,71 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="54" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="147" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="148" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="148">
+        <v>1.2</v>
+      </c>
+      <c r="E13" s="149"/>
+    </row>
+    <row r="14" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C14" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D14" s="26">
         <v>1</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E14" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="131" t="s">
+    <row r="15" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="21"/>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="21"/>
+      <c r="C17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E17" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="25" t="s">
+    <row r="18" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C18" s="26">
         <v>-37.5</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D18" s="26">
         <v>5.5</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E18" s="12">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9141,11 +9187,11 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="130"/>
       <c r="F2" s="39" t="s">
         <v>22</v>
       </c>
@@ -9413,7 +9459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE59413-D9F3-44A1-88DC-A59245E9D9B8}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -9430,12 +9476,12 @@
   <sheetData>
     <row r="1" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
       <c r="G2" s="39" t="s">
         <v>22</v>
       </c>
@@ -9479,7 +9525,7 @@
       <c r="B5" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="67" t="s">
         <v>123</v>
       </c>
       <c r="D5" s="37">
@@ -9488,24 +9534,24 @@
       <c r="E5" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="130"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="55">
         <v>24</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="56" t="s">
         <v>94</v>
       </c>
       <c r="G6" s="21"/>
@@ -9575,7 +9621,7 @@
       <c r="B9" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="64" t="s">
         <v>109</v>
       </c>
       <c r="D9" s="34">
@@ -9601,7 +9647,7 @@
       <c r="B10" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="69" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="35">
@@ -9826,16 +9872,16 @@
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="58">
         <v>-0.09</v>
       </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9877,10 +9923,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="136" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="49" t="s">
@@ -9894,8 +9940,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="136"/>
-      <c r="B3" s="140"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="137"/>
       <c r="C3" s="45" t="s">
         <v>55</v>
       </c>
@@ -9907,8 +9953,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="136"/>
-      <c r="B4" s="141" t="s">
+      <c r="A4" s="133"/>
+      <c r="B4" s="138" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -9922,8 +9968,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="136"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="41" t="s">
         <v>62</v>
       </c>
@@ -9935,8 +9981,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="136"/>
-      <c r="B6" s="142"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="41" t="s">
         <v>60</v>
       </c>
@@ -9948,8 +9994,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="136"/>
-      <c r="B7" s="142"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="41" t="s">
         <v>55</v>
       </c>
@@ -9961,8 +10007,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="136"/>
-      <c r="B8" s="142"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="41" t="s">
         <v>54</v>
       </c>
@@ -9974,8 +10020,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="136"/>
-      <c r="B9" s="140"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="45" t="s">
         <v>52</v>
       </c>
@@ -9987,8 +10033,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="136"/>
-      <c r="B10" s="141" t="s">
+      <c r="A10" s="133"/>
+      <c r="B10" s="138" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="43" t="s">
@@ -10002,8 +10048,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="136"/>
-      <c r="B11" s="142"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="41" t="s">
         <v>62</v>
       </c>
@@ -10015,8 +10061,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="136"/>
-      <c r="B12" s="142"/>
+      <c r="A12" s="133"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="41" t="s">
         <v>60</v>
       </c>
@@ -10028,8 +10074,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="136"/>
-      <c r="B13" s="142"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="41" t="s">
         <v>55</v>
       </c>
@@ -10041,8 +10087,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="136"/>
-      <c r="B14" s="142"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="41" t="s">
         <v>54</v>
       </c>
@@ -10054,8 +10100,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="136"/>
-      <c r="B15" s="140"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="45" t="s">
         <v>52</v>
       </c>
@@ -10067,8 +10113,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="136"/>
-      <c r="B16" s="141" t="s">
+      <c r="A16" s="133"/>
+      <c r="B16" s="138" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="43" t="s">
@@ -10082,8 +10128,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="136"/>
-      <c r="B17" s="142"/>
+      <c r="A17" s="133"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="41" t="s">
         <v>62</v>
       </c>
@@ -10095,8 +10141,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="136"/>
-      <c r="B18" s="142"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="41" t="s">
         <v>60</v>
       </c>
@@ -10108,8 +10154,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="136"/>
-      <c r="B19" s="142"/>
+      <c r="A19" s="133"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="41" t="s">
         <v>55</v>
       </c>
@@ -10121,8 +10167,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="136"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="133"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="41" t="s">
         <v>54</v>
       </c>
@@ -10134,8 +10180,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="137"/>
-      <c r="B21" s="143"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="140"/>
       <c r="C21" s="47" t="s">
         <v>52</v>
       </c>
@@ -10147,10 +10193,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="138" t="s">
+      <c r="A22" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="141" t="s">
+      <c r="B22" s="138" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="43" t="s">
@@ -10164,8 +10210,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="136"/>
-      <c r="B23" s="140"/>
+      <c r="A23" s="133"/>
+      <c r="B23" s="137"/>
       <c r="C23" s="45" t="s">
         <v>55</v>
       </c>
@@ -10177,8 +10223,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="136"/>
-      <c r="B24" s="141" t="s">
+      <c r="A24" s="133"/>
+      <c r="B24" s="138" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -10192,8 +10238,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="136"/>
-      <c r="B25" s="142"/>
+      <c r="A25" s="133"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="41" t="s">
         <v>62</v>
       </c>
@@ -10205,8 +10251,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="136"/>
-      <c r="B26" s="142"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="41" t="s">
         <v>60</v>
       </c>
@@ -10218,8 +10264,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="136"/>
-      <c r="B27" s="142"/>
+      <c r="A27" s="133"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="41" t="s">
         <v>57</v>
       </c>
@@ -10231,8 +10277,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="136"/>
-      <c r="B28" s="142"/>
+      <c r="A28" s="133"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="41" t="s">
         <v>55</v>
       </c>
@@ -10244,8 +10290,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="136"/>
-      <c r="B29" s="142"/>
+      <c r="A29" s="133"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="41" t="s">
         <v>54</v>
       </c>
@@ -10257,8 +10303,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="136"/>
-      <c r="B30" s="140"/>
+      <c r="A30" s="133"/>
+      <c r="B30" s="137"/>
       <c r="C30" s="45" t="s">
         <v>52</v>
       </c>
@@ -10270,8 +10316,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="136"/>
-      <c r="B31" s="141" t="s">
+      <c r="A31" s="133"/>
+      <c r="B31" s="138" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="43" t="s">
@@ -10285,8 +10331,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="136"/>
-      <c r="B32" s="142"/>
+      <c r="A32" s="133"/>
+      <c r="B32" s="139"/>
       <c r="C32" s="41" t="s">
         <v>62</v>
       </c>
@@ -10298,8 +10344,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="136"/>
-      <c r="B33" s="142"/>
+      <c r="A33" s="133"/>
+      <c r="B33" s="139"/>
       <c r="C33" s="41" t="s">
         <v>60</v>
       </c>
@@ -10311,8 +10357,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="136"/>
-      <c r="B34" s="142"/>
+      <c r="A34" s="133"/>
+      <c r="B34" s="139"/>
       <c r="C34" s="41" t="s">
         <v>57</v>
       </c>
@@ -10324,8 +10370,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="136"/>
-      <c r="B35" s="142"/>
+      <c r="A35" s="133"/>
+      <c r="B35" s="139"/>
       <c r="C35" s="41" t="s">
         <v>55</v>
       </c>
@@ -10337,8 +10383,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="136"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="133"/>
+      <c r="B36" s="139"/>
       <c r="C36" s="41" t="s">
         <v>54</v>
       </c>
@@ -10350,8 +10396,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="136"/>
-      <c r="B37" s="140"/>
+      <c r="A37" s="133"/>
+      <c r="B37" s="137"/>
       <c r="C37" s="45" t="s">
         <v>52</v>
       </c>
@@ -10363,8 +10409,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="136"/>
-      <c r="B38" s="141" t="s">
+      <c r="A38" s="133"/>
+      <c r="B38" s="138" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -10378,8 +10424,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="136"/>
-      <c r="B39" s="142"/>
+      <c r="A39" s="133"/>
+      <c r="B39" s="139"/>
       <c r="C39" s="41" t="s">
         <v>62</v>
       </c>
@@ -10391,8 +10437,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="136"/>
-      <c r="B40" s="142"/>
+      <c r="A40" s="133"/>
+      <c r="B40" s="139"/>
       <c r="C40" s="41" t="s">
         <v>60</v>
       </c>
@@ -10404,8 +10450,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="136"/>
-      <c r="B41" s="142"/>
+      <c r="A41" s="133"/>
+      <c r="B41" s="139"/>
       <c r="C41" s="41" t="s">
         <v>57</v>
       </c>
@@ -10417,8 +10463,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="136"/>
-      <c r="B42" s="142"/>
+      <c r="A42" s="133"/>
+      <c r="B42" s="139"/>
       <c r="C42" s="41" t="s">
         <v>55</v>
       </c>
@@ -10430,8 +10476,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="136"/>
-      <c r="B43" s="142"/>
+      <c r="A43" s="133"/>
+      <c r="B43" s="139"/>
       <c r="C43" s="41" t="s">
         <v>54</v>
       </c>
@@ -10443,8 +10489,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="136"/>
-      <c r="B44" s="142"/>
+      <c r="A44" s="133"/>
+      <c r="B44" s="139"/>
       <c r="C44" s="41" t="s">
         <v>52</v>
       </c>
@@ -10485,10 +10531,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="145"/>
+      <c r="C2" s="142"/>
     </row>
     <row r="3" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
@@ -10557,16 +10603,16 @@
   <sheetData>
     <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="G2" s="118" t="s">
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
+      <c r="G2" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="119">
+      <c r="H2" s="116">
         <v>47.287930000000003</v>
       </c>
     </row>
@@ -10583,30 +10629,30 @@
       <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="120">
+      <c r="H3" s="117">
         <v>-71.167720000000003</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>198</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="119" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="117" t="s">
+      <c r="E4" s="114" t="s">
         <v>172</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="116" t="s">
+      <c r="H4" s="113" t="s">
         <v>163</v>
       </c>
     </row>
@@ -10617,16 +10663,16 @@
       <c r="C5" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="114" t="s">
+      <c r="H5" s="111" t="s">
         <v>164</v>
       </c>
     </row>
@@ -10637,7 +10683,7 @@
       <c r="C6" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="120" t="s">
         <v>171</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -10651,7 +10697,7 @@
       <c r="C7" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="123">
+      <c r="D7" s="120">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -10665,7 +10711,7 @@
       <c r="C8" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="123">
+      <c r="D8" s="120">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
@@ -10677,7 +10723,7 @@
       <c r="C9" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="123">
+      <c r="D9" s="120">
         <v>1</v>
       </c>
       <c r="E9" s="14"/>
@@ -10689,7 +10735,7 @@
       <c r="C10" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="121" t="s">
         <v>182</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -10703,7 +10749,7 @@
       <c r="C11" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="121" t="s">
         <v>184</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -10717,10 +10763,10 @@
       <c r="C12" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="120" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="121" t="s">
+      <c r="E12" s="118" t="s">
         <v>172</v>
       </c>
     </row>
@@ -10731,10 +10777,10 @@
       <c r="C13" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="123" t="s">
+      <c r="D13" s="120" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="E13" s="114" t="s">
         <v>172</v>
       </c>
     </row>
@@ -10745,10 +10791,10 @@
       <c r="C14" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="123" t="s">
+      <c r="D14" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="117" t="s">
+      <c r="E14" s="114" t="s">
         <v>172</v>
       </c>
     </row>
@@ -10759,10 +10805,10 @@
       <c r="C15" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="123" t="s">
+      <c r="D15" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="114" t="s">
         <v>172</v>
       </c>
     </row>
@@ -10773,7 +10819,7 @@
       <c r="C16" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="123">
+      <c r="D16" s="120">
         <v>-0.08</v>
       </c>
       <c r="E16" s="1"/>
@@ -10782,13 +10828,13 @@
       <c r="B17" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="123" t="s">
+      <c r="D17" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="117" t="s">
+      <c r="E17" s="114" t="s">
         <v>178</v>
       </c>
     </row>
@@ -10796,13 +10842,13 @@
       <c r="B18" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="123" t="s">
+      <c r="D18" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="117" t="s">
+      <c r="E18" s="114" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10813,7 +10859,7 @@
       <c r="C19" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="123" t="s">
+      <c r="D19" s="120" t="s">
         <v>175</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -10827,7 +10873,7 @@
       <c r="C20" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="123" t="s">
+      <c r="D20" s="120" t="s">
         <v>175</v>
       </c>
       <c r="E20" s="14" t="s">
@@ -10841,7 +10887,7 @@
       <c r="C21" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="123">
+      <c r="D21" s="120">
         <v>8.5</v>
       </c>
       <c r="E21" s="14"/>
@@ -10853,7 +10899,7 @@
       <c r="C22" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="123">
+      <c r="D22" s="120">
         <v>14.6</v>
       </c>
       <c r="E22" s="14"/>
@@ -10865,7 +10911,7 @@
       <c r="C23" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="123">
+      <c r="D23" s="120">
         <v>2.5</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -10873,16 +10919,16 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="57" t="s">
         <v>191</v>
       </c>
       <c r="C24" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="125">
+      <c r="D24" s="122">
         <v>-0.04</v>
       </c>
-      <c r="E24" s="62"/>
+      <c r="E24" s="59"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
@@ -10890,20 +10936,20 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="147" t="s">
+      <c r="B27" s="144" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
     </row>
     <row r="28" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="146" t="s">
+      <c r="B28" s="143" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E24">
